--- a/Anying Xiang/SEP-B/Sprint 4/Experiment/Analysis.xlsx
+++ b/Anying Xiang/SEP-B/Sprint 4/Experiment/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\G-PostGraduate\SEP-B\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E0F6E8-257C-4957-A1C3-3091DAA9E24E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF134A79-FE0D-4E1C-A8E3-AB9447E93CB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="149">
   <si>
     <t>configuration</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -150,18 +150,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>feature number: 51</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>feature type: 7 symbolic + 34 continuous</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>feature type: 5 symbolic + 46 continuous (unsure)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Fuzzy Rules</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -191,106 +183,6 @@
   </si>
   <si>
     <r>
-      <t>feature number &gt; 50 (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>large</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>30 &lt; feature number &lt; 50 (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>medium</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>feature number &lt; 10 (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>small</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>feature type: 9.8% symbolic &lt; 10% (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>small</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>feature type: 10% &lt; 17.1% symbolic &lt; 20% (</t>
     </r>
     <r>
@@ -423,10 +315,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>instance number: 863616+1676431=2,540,047</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>feature number: 47</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2989,6 +2877,333 @@
   <si>
     <t>UNSW-NB15 &amp; Random Forest (5-fold-cross validation)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature number: 77</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature type: 5 symbolic + 72 continuous (unsure)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>feature type: 6.5% symbolic &lt; 10% (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>small</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CICDDoS2019 &amp; Random Forest (5-fold-cross validation)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature number: 83</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature type: 7 symbolic + 76 continuous (unsure)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance number: 1676431+863616=2,540,047</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance number: 126518+65176=191,694</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>feature type: 8.4% symbolic &lt; 10% (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>small</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature number</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance number</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>degree</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>large</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule degree</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>feature number &lt; 30 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>small</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30 &lt; feature number &lt; 60 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>medium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>feature number &gt; 60 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>large</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter-1 tuned</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter-3 tuned</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter-5 tuned</t>
+  </si>
+  <si>
+    <t>Parameter-8 tuned</t>
+  </si>
+  <si>
+    <t>Parameter-2 tuned (A)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter-2 tuned (B)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter-4 tuned (A)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter-6 tuned (A)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter-7 tuned (A)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter-9 tuned (A)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter-10 tuned (A)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter-11 tuned (A)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter-12 tuned (A)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter-4 tuned (B)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter-6 tuned (B)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter-7 tuned (B)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter-9 tuned (B)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter-10 tuned (B)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter-11 tuned (B)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter-12 tuned (B)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature number (S)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature type (S)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature type (M)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature type (L)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature number (M)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature number (L)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance number (S)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance number (M)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance number (L)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CICIDS2017 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>KDD</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DARPA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CICDDoS2019</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNSW-NB15</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note: Only parts of the datasets are used.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2998,7 +3213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3073,8 +3288,39 @@
       <name val="Palatino Linotype"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3150,8 +3396,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -3426,8 +3683,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -3447,8 +3717,11 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3487,78 +3760,6 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3569,58 +3770,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3667,20 +3823,430 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="26" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="40% - 着色 4" xfId="3" builtinId="43"/>
     <cellStyle name="40% - 着色 6" xfId="6" builtinId="51"/>
     <cellStyle name="60% - 着色 4" xfId="4" builtinId="44"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="7" builtinId="28"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
     <cellStyle name="着色 2" xfId="2" builtinId="33"/>
     <cellStyle name="着色 6" xfId="5" builtinId="49"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -5102,10 +5668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:BU39"/>
+  <dimension ref="C2:EI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN6" sqref="AN6"/>
+    <sheetView tabSelected="1" topLeftCell="DS46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="DZ56" sqref="DZ56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5117,97 +5683,142 @@
     <col min="33" max="33" width="10.5546875" customWidth="1"/>
     <col min="47" max="47" width="10.33203125" customWidth="1"/>
     <col min="52" max="52" width="12.21875" customWidth="1"/>
-    <col min="65" max="65" width="43" customWidth="1"/>
-    <col min="72" max="72" width="16.33203125" customWidth="1"/>
-    <col min="73" max="73" width="15.77734375" customWidth="1"/>
+    <col min="65" max="65" width="8.88671875" customWidth="1"/>
+    <col min="72" max="72" width="9.21875" customWidth="1"/>
+    <col min="73" max="73" width="9.5546875" customWidth="1"/>
+    <col min="80" max="80" width="38.109375" customWidth="1"/>
+    <col min="86" max="86" width="17.88671875" customWidth="1"/>
+    <col min="87" max="87" width="21.21875" customWidth="1"/>
+    <col min="91" max="91" width="20.44140625" customWidth="1"/>
+    <col min="92" max="92" width="15.109375" customWidth="1"/>
+    <col min="93" max="93" width="8" customWidth="1"/>
+    <col min="94" max="94" width="9.33203125" customWidth="1"/>
+    <col min="95" max="95" width="8.21875" customWidth="1"/>
+    <col min="96" max="96" width="15.33203125" customWidth="1"/>
+    <col min="97" max="97" width="9.33203125" customWidth="1"/>
+    <col min="98" max="98" width="9.6640625" customWidth="1"/>
+    <col min="99" max="99" width="8.5546875" customWidth="1"/>
+    <col min="100" max="100" width="15.44140625" customWidth="1"/>
+    <col min="105" max="106" width="11" customWidth="1"/>
+    <col min="107" max="107" width="11.6640625" customWidth="1"/>
+    <col min="108" max="109" width="12.6640625" customWidth="1"/>
+    <col min="110" max="110" width="11.44140625" customWidth="1"/>
+    <col min="111" max="112" width="11.109375" customWidth="1"/>
+    <col min="113" max="115" width="11.21875" customWidth="1"/>
+    <col min="116" max="117" width="11.5546875" customWidth="1"/>
+    <col min="118" max="119" width="10.77734375" customWidth="1"/>
+    <col min="120" max="121" width="13.77734375" customWidth="1"/>
+    <col min="122" max="123" width="15.33203125" customWidth="1"/>
+    <col min="124" max="124" width="14.77734375" customWidth="1"/>
+    <col min="127" max="127" width="8.88671875" customWidth="1"/>
+    <col min="128" max="128" width="15.44140625" customWidth="1"/>
+    <col min="129" max="129" width="10.88671875" customWidth="1"/>
+    <col min="130" max="130" width="11.77734375" customWidth="1"/>
+    <col min="131" max="131" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="48"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47"/>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="47"/>
-      <c r="BE2" s="47"/>
-      <c r="BF2" s="47"/>
-      <c r="BG2" s="47"/>
-      <c r="BH2" s="47"/>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="BK2" s="50"/>
-      <c r="BL2" s="50"/>
-      <c r="BM2" s="50"/>
-      <c r="BN2" s="51"/>
-      <c r="BO2" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="60"/>
-      <c r="BR2" s="60"/>
-      <c r="BS2" s="60"/>
-      <c r="BT2" s="60"/>
-      <c r="BU2" s="61"/>
+      <c r="BK2" s="43"/>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="43"/>
+      <c r="BN2" s="43"/>
+      <c r="BO2" s="43"/>
+      <c r="BP2" s="43"/>
+      <c r="BQ2" s="43"/>
+      <c r="BR2" s="43"/>
+      <c r="BS2" s="43"/>
+      <c r="BT2" s="43"/>
+      <c r="BU2" s="43"/>
+      <c r="BV2" s="43"/>
+      <c r="BW2" s="43"/>
+      <c r="BX2" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" s="46"/>
+      <c r="BZ2" s="46"/>
+      <c r="CA2" s="46"/>
+      <c r="CB2" s="47"/>
+      <c r="CC2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="CD2" s="21"/>
+      <c r="CE2" s="21"/>
+      <c r="CF2" s="21"/>
+      <c r="CG2" s="21"/>
+      <c r="CH2" s="21"/>
+      <c r="CI2" s="22"/>
     </row>
-    <row r="3" spans="3:73" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:87" ht="55.2" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -5218,270 +5829,328 @@
         <v>2</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="AF3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="AN3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="AQ3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="BC3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="6" t="s">
+      <c r="BD3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="R3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="T3" s="6" t="s">
+      <c r="BF3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BM3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="BN3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BR3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BT3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="V3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="W3" s="6" t="s">
+      <c r="BU3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="BV3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="Y3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z3" s="6" t="s">
+      <c r="BW3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AV3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AZ3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="BA3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="BC3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="BE3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="BF3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BI3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="53"/>
-      <c r="BL3" s="53"/>
-      <c r="BM3" s="53"/>
-      <c r="BN3" s="54"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="63"/>
-      <c r="BQ3" s="63"/>
-      <c r="BR3" s="63"/>
-      <c r="BS3" s="63"/>
-      <c r="BT3" s="63"/>
-      <c r="BU3" s="64"/>
+      <c r="BX3" s="48"/>
+      <c r="BY3" s="49"/>
+      <c r="BZ3" s="49"/>
+      <c r="CA3" s="49"/>
+      <c r="CB3" s="50"/>
+      <c r="CC3" s="23"/>
+      <c r="CD3" s="24"/>
+      <c r="CE3" s="24"/>
+      <c r="CF3" s="24"/>
+      <c r="CG3" s="24"/>
+      <c r="CH3" s="24"/>
+      <c r="CI3" s="25"/>
     </row>
-    <row r="4" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C4" s="57" t="s">
+    <row r="4" spans="3:87" x14ac:dyDescent="0.25">
+      <c r="C4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48"/>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
-      <c r="AV4" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW4" s="47"/>
-      <c r="AX4" s="47"/>
-      <c r="AY4" s="47"/>
-      <c r="AZ4" s="47"/>
-      <c r="BA4" s="47"/>
-      <c r="BB4" s="47"/>
-      <c r="BC4" s="47"/>
-      <c r="BD4" s="47"/>
-      <c r="BE4" s="47"/>
-      <c r="BF4" s="47"/>
-      <c r="BG4" s="47"/>
-      <c r="BH4" s="47"/>
-      <c r="BI4" s="47"/>
-      <c r="BJ4" s="52"/>
-      <c r="BK4" s="53"/>
-      <c r="BL4" s="53"/>
-      <c r="BM4" s="53"/>
-      <c r="BN4" s="54"/>
-      <c r="BO4" s="62"/>
-      <c r="BP4" s="63"/>
-      <c r="BQ4" s="63"/>
-      <c r="BR4" s="63"/>
-      <c r="BS4" s="63"/>
-      <c r="BT4" s="63"/>
-      <c r="BU4" s="64"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW4" s="43"/>
+      <c r="AX4" s="43"/>
+      <c r="AY4" s="43"/>
+      <c r="AZ4" s="43"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="43"/>
+      <c r="BC4" s="43"/>
+      <c r="BD4" s="43"/>
+      <c r="BE4" s="43"/>
+      <c r="BF4" s="43"/>
+      <c r="BG4" s="43"/>
+      <c r="BH4" s="43"/>
+      <c r="BI4" s="43"/>
+      <c r="BJ4" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="BK4" s="43"/>
+      <c r="BL4" s="43"/>
+      <c r="BM4" s="43"/>
+      <c r="BN4" s="43"/>
+      <c r="BO4" s="43"/>
+      <c r="BP4" s="43"/>
+      <c r="BQ4" s="43"/>
+      <c r="BR4" s="43"/>
+      <c r="BS4" s="43"/>
+      <c r="BT4" s="43"/>
+      <c r="BU4" s="43"/>
+      <c r="BV4" s="43"/>
+      <c r="BW4" s="43"/>
+      <c r="BX4" s="48"/>
+      <c r="BY4" s="49"/>
+      <c r="BZ4" s="49"/>
+      <c r="CA4" s="49"/>
+      <c r="CB4" s="50"/>
+      <c r="CC4" s="23"/>
+      <c r="CD4" s="24"/>
+      <c r="CE4" s="24"/>
+      <c r="CF4" s="24"/>
+      <c r="CG4" s="24"/>
+      <c r="CH4" s="24"/>
+      <c r="CI4" s="25"/>
     </row>
-    <row r="5" spans="3:73" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:87" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
@@ -5659,31 +6328,73 @@
       <c r="BI5" s="3">
         <v>1.0435030536918306</v>
       </c>
-      <c r="BJ5" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK5" s="39"/>
-      <c r="BL5" s="39"/>
-      <c r="BM5" s="39"/>
-      <c r="BN5" s="40"/>
-      <c r="BO5" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP5" s="39"/>
-      <c r="BQ5" s="39"/>
-      <c r="BR5" s="39"/>
-      <c r="BS5" s="39"/>
-      <c r="BT5" s="39"/>
-      <c r="BU5" s="40"/>
+      <c r="BJ5" s="10">
+        <v>1.160860345349894</v>
+      </c>
+      <c r="BK5" s="4">
+        <v>1.3889112093210125</v>
+      </c>
+      <c r="BL5" s="4">
+        <v>1.0300847985562041</v>
+      </c>
+      <c r="BM5" s="4">
+        <v>1.0737928120555496</v>
+      </c>
+      <c r="BN5" s="4">
+        <v>0.81217952875590083</v>
+      </c>
+      <c r="BO5" s="4">
+        <v>1.0318380194697034</v>
+      </c>
+      <c r="BP5" s="4">
+        <v>1.5081541632804347</v>
+      </c>
+      <c r="BQ5" s="4">
+        <v>0.99051624474329647</v>
+      </c>
+      <c r="BR5" s="4">
+        <v>0.9772853509024797</v>
+      </c>
+      <c r="BS5" s="4">
+        <v>1.1412163510818047</v>
+      </c>
+      <c r="BT5" s="4">
+        <v>0.87431635016114306</v>
+      </c>
+      <c r="BU5" s="4">
+        <v>2.0553191382598532</v>
+      </c>
+      <c r="BV5" s="4">
+        <v>0.68221026391801531</v>
+      </c>
+      <c r="BW5" s="3">
+        <v>0.98423587060666862</v>
+      </c>
+      <c r="BX5" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="BY5" s="15"/>
+      <c r="BZ5" s="15"/>
+      <c r="CA5" s="15"/>
+      <c r="CB5" s="16"/>
+      <c r="CC5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="CD5" s="15"/>
+      <c r="CE5" s="15"/>
+      <c r="CF5" s="15"/>
+      <c r="CG5" s="15"/>
+      <c r="CH5" s="15"/>
+      <c r="CI5" s="16"/>
     </row>
-    <row r="6" spans="3:73" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="55" t="s">
+    <row r="6" spans="3:87" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="39" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="38" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="10">
@@ -5854,27 +6565,69 @@
       <c r="BI6" s="3">
         <v>1.0224034553860806</v>
       </c>
-      <c r="BJ6" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="BK6" s="39"/>
-      <c r="BL6" s="39"/>
-      <c r="BM6" s="39"/>
-      <c r="BN6" s="40"/>
-      <c r="BO6" s="26"/>
-      <c r="BP6" s="27"/>
-      <c r="BQ6" s="27"/>
-      <c r="BR6" s="27"/>
-      <c r="BS6" s="27"/>
-      <c r="BT6" s="27"/>
-      <c r="BU6" s="28"/>
+      <c r="BJ6" s="10">
+        <v>0.9806119357770372</v>
+      </c>
+      <c r="BK6" s="4">
+        <v>1.0184813177983125</v>
+      </c>
+      <c r="BL6" s="4">
+        <v>1.00291554161578</v>
+      </c>
+      <c r="BM6" s="4">
+        <v>1.001129079554556</v>
+      </c>
+      <c r="BN6" s="4">
+        <v>1.0066716030338183</v>
+      </c>
+      <c r="BO6" s="4">
+        <v>1.0696909452043111</v>
+      </c>
+      <c r="BP6" s="4">
+        <v>1.0155400587990364</v>
+      </c>
+      <c r="BQ6" s="4">
+        <v>1.021979034847746</v>
+      </c>
+      <c r="BR6" s="4">
+        <v>1.0087754658651595</v>
+      </c>
+      <c r="BS6" s="4">
+        <v>0.99743569296419476</v>
+      </c>
+      <c r="BT6" s="4">
+        <v>0.93606580810056661</v>
+      </c>
+      <c r="BU6" s="4">
+        <v>1.2185106319683416</v>
+      </c>
+      <c r="BV6" s="4">
+        <v>1.0069006449570688</v>
+      </c>
+      <c r="BW6" s="3">
+        <v>0.97807321236683142</v>
+      </c>
+      <c r="BX6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BY6" s="15"/>
+      <c r="BZ6" s="15"/>
+      <c r="CA6" s="15"/>
+      <c r="CB6" s="16"/>
+      <c r="CC6" s="17"/>
+      <c r="CD6" s="18"/>
+      <c r="CE6" s="18"/>
+      <c r="CF6" s="18"/>
+      <c r="CG6" s="18"/>
+      <c r="CH6" s="18"/>
+      <c r="CI6" s="19"/>
     </row>
-    <row r="7" spans="3:73" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="55"/>
+    <row r="7" spans="3:87" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="39"/>
       <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="74"/>
+        <v>42</v>
+      </c>
+      <c r="E7" s="38"/>
       <c r="F7" s="10">
         <v>1.0392351626520984</v>
       </c>
@@ -6043,22 +6796,64 @@
       <c r="BI7" s="3">
         <v>0.87032612216988892</v>
       </c>
-      <c r="BJ7" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK7" s="39"/>
-      <c r="BL7" s="39"/>
-      <c r="BM7" s="39"/>
-      <c r="BN7" s="40"/>
-      <c r="BO7" s="38"/>
-      <c r="BP7" s="39"/>
-      <c r="BQ7" s="39"/>
-      <c r="BR7" s="39"/>
-      <c r="BS7" s="39"/>
-      <c r="BT7" s="39"/>
-      <c r="BU7" s="40"/>
+      <c r="BJ7" s="10">
+        <v>1.0917903665555893</v>
+      </c>
+      <c r="BK7" s="4">
+        <v>1.0277219766974688</v>
+      </c>
+      <c r="BL7" s="4">
+        <v>1.0206358262411368</v>
+      </c>
+      <c r="BM7" s="4">
+        <v>1.0022071117614737</v>
+      </c>
+      <c r="BN7" s="4">
+        <v>0.65972021488302857</v>
+      </c>
+      <c r="BO7" s="4">
+        <v>0.61079126910948334</v>
+      </c>
+      <c r="BP7" s="4">
+        <v>2.1095240743785673</v>
+      </c>
+      <c r="BQ7" s="4">
+        <v>1.1122653282177284</v>
+      </c>
+      <c r="BR7" s="4">
+        <v>1.0036566747573989</v>
+      </c>
+      <c r="BS7" s="4">
+        <v>1.3417062217896683</v>
+      </c>
+      <c r="BT7" s="4">
+        <v>0.93687714006051626</v>
+      </c>
+      <c r="BU7" s="4">
+        <v>1.1238635870809943</v>
+      </c>
+      <c r="BV7" s="4">
+        <v>0.76986507339848853</v>
+      </c>
+      <c r="BW7" s="3">
+        <v>0.88599826061978848</v>
+      </c>
+      <c r="BX7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY7" s="15"/>
+      <c r="BZ7" s="15"/>
+      <c r="CA7" s="15"/>
+      <c r="CB7" s="16"/>
+      <c r="CC7" s="14"/>
+      <c r="CD7" s="15"/>
+      <c r="CE7" s="15"/>
+      <c r="CF7" s="15"/>
+      <c r="CG7" s="15"/>
+      <c r="CH7" s="15"/>
+      <c r="CI7" s="16"/>
     </row>
-    <row r="8" spans="3:73" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:87" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
@@ -6236,29 +7031,71 @@
       <c r="BI8" s="3">
         <v>0.98845782426343676</v>
       </c>
-      <c r="BJ8" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="BK8" s="39"/>
-      <c r="BL8" s="39"/>
-      <c r="BM8" s="39"/>
-      <c r="BN8" s="40"/>
-      <c r="BO8" s="38"/>
-      <c r="BP8" s="39"/>
-      <c r="BQ8" s="39"/>
-      <c r="BR8" s="39"/>
-      <c r="BS8" s="39"/>
-      <c r="BT8" s="39"/>
-      <c r="BU8" s="40"/>
+      <c r="BJ8" s="10">
+        <v>1.0003029385034838</v>
+      </c>
+      <c r="BK8" s="4">
+        <v>1.0359582161510648</v>
+      </c>
+      <c r="BL8" s="4">
+        <v>0.99582374898625525</v>
+      </c>
+      <c r="BM8" s="4">
+        <v>1.0068347490132705</v>
+      </c>
+      <c r="BN8" s="4">
+        <v>0.92306480867831187</v>
+      </c>
+      <c r="BO8" s="4">
+        <v>1.2653252627105736</v>
+      </c>
+      <c r="BP8" s="4">
+        <v>1.8536150740601107</v>
+      </c>
+      <c r="BQ8" s="4">
+        <v>1.1727006822851593</v>
+      </c>
+      <c r="BR8" s="4">
+        <v>1.1438189256223434</v>
+      </c>
+      <c r="BS8" s="4">
+        <v>1.1431629237513456</v>
+      </c>
+      <c r="BT8" s="4">
+        <v>1.0650827686183839</v>
+      </c>
+      <c r="BU8" s="4">
+        <v>1.2093166415116117</v>
+      </c>
+      <c r="BV8" s="4">
+        <v>0.90110790171329092</v>
+      </c>
+      <c r="BW8" s="3">
+        <v>0.81252068800036736</v>
+      </c>
+      <c r="BX8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY8" s="15"/>
+      <c r="BZ8" s="15"/>
+      <c r="CA8" s="15"/>
+      <c r="CB8" s="16"/>
+      <c r="CC8" s="14"/>
+      <c r="CD8" s="15"/>
+      <c r="CE8" s="15"/>
+      <c r="CF8" s="15"/>
+      <c r="CG8" s="15"/>
+      <c r="CH8" s="15"/>
+      <c r="CI8" s="16"/>
     </row>
-    <row r="9" spans="3:73" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="55" t="s">
+    <row r="9" spans="3:87" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="39" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="40" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="10">
@@ -6429,25 +7266,67 @@
       <c r="BI9" s="3">
         <v>0.88390789022774152</v>
       </c>
-      <c r="BJ9" s="38"/>
-      <c r="BK9" s="39"/>
-      <c r="BL9" s="39"/>
-      <c r="BM9" s="39"/>
-      <c r="BN9" s="40"/>
-      <c r="BO9" s="26"/>
-      <c r="BP9" s="27"/>
-      <c r="BQ9" s="27"/>
-      <c r="BR9" s="27"/>
-      <c r="BS9" s="27"/>
-      <c r="BT9" s="27"/>
-      <c r="BU9" s="28"/>
+      <c r="BJ9" s="10">
+        <v>0.98545895183277799</v>
+      </c>
+      <c r="BK9" s="4">
+        <v>1.015468059461631</v>
+      </c>
+      <c r="BL9" s="4">
+        <v>1.0023467418234229</v>
+      </c>
+      <c r="BM9" s="4">
+        <v>1.0091530641317787</v>
+      </c>
+      <c r="BN9" s="4">
+        <v>1.0201254462568117</v>
+      </c>
+      <c r="BO9" s="4">
+        <v>1.0842544468153177</v>
+      </c>
+      <c r="BP9" s="4">
+        <v>1.0518707832947187</v>
+      </c>
+      <c r="BQ9" s="4">
+        <v>1.1133733097555301</v>
+      </c>
+      <c r="BR9" s="4">
+        <v>1.0276563857994723</v>
+      </c>
+      <c r="BS9" s="4">
+        <v>1.081806354323815</v>
+      </c>
+      <c r="BT9" s="4">
+        <v>1.0036119047700771</v>
+      </c>
+      <c r="BU9" s="4">
+        <v>1.3644555307489636</v>
+      </c>
+      <c r="BV9" s="4">
+        <v>0.98714834012582597</v>
+      </c>
+      <c r="BW9" s="3">
+        <v>0.92620253689771592</v>
+      </c>
+      <c r="BX9" s="14"/>
+      <c r="BY9" s="15"/>
+      <c r="BZ9" s="15"/>
+      <c r="CA9" s="15"/>
+      <c r="CB9" s="16"/>
+      <c r="CC9" s="17"/>
+      <c r="CD9" s="18"/>
+      <c r="CE9" s="18"/>
+      <c r="CF9" s="18"/>
+      <c r="CG9" s="18"/>
+      <c r="CH9" s="18"/>
+      <c r="CI9" s="19"/>
     </row>
-    <row r="10" spans="3:73" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="55"/>
+    <row r="10" spans="3:87" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="39"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="10">
         <v>1.0427116960516514</v>
       </c>
@@ -6616,22 +7495,64 @@
       <c r="BI10" s="3">
         <v>0.98470598971580525</v>
       </c>
-      <c r="BJ10" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="BK10" s="39"/>
-      <c r="BL10" s="39"/>
-      <c r="BM10" s="39"/>
-      <c r="BN10" s="40"/>
-      <c r="BO10" s="26"/>
-      <c r="BP10" s="27"/>
-      <c r="BQ10" s="27"/>
-      <c r="BR10" s="27"/>
-      <c r="BS10" s="27"/>
-      <c r="BT10" s="27"/>
-      <c r="BU10" s="28"/>
+      <c r="BJ10" s="10">
+        <v>0.98394425931535889</v>
+      </c>
+      <c r="BK10" s="4">
+        <v>1.017476898352752</v>
+      </c>
+      <c r="BL10" s="4">
+        <v>1.0021773384781409</v>
+      </c>
+      <c r="BM10" s="4">
+        <v>0.99988587483472491</v>
+      </c>
+      <c r="BN10" s="4">
+        <v>1.0136192216840771</v>
+      </c>
+      <c r="BO10" s="4">
+        <v>0.97167172589445139</v>
+      </c>
+      <c r="BP10" s="4">
+        <v>1.0323175531619047</v>
+      </c>
+      <c r="BQ10" s="4">
+        <v>1.0722960118696949</v>
+      </c>
+      <c r="BR10" s="4">
+        <v>1.0180550246639568</v>
+      </c>
+      <c r="BS10" s="4">
+        <v>0.99801751441118924</v>
+      </c>
+      <c r="BT10" s="4">
+        <v>1.0004056591426389</v>
+      </c>
+      <c r="BU10" s="4">
+        <v>0.92978728894932627</v>
+      </c>
+      <c r="BV10" s="4">
+        <v>0.99798599295691048</v>
+      </c>
+      <c r="BW10" s="3">
+        <v>0.99262998126637458</v>
+      </c>
+      <c r="BX10" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY10" s="15"/>
+      <c r="BZ10" s="15"/>
+      <c r="CA10" s="15"/>
+      <c r="CB10" s="16"/>
+      <c r="CC10" s="17"/>
+      <c r="CD10" s="18"/>
+      <c r="CE10" s="18"/>
+      <c r="CF10" s="18"/>
+      <c r="CG10" s="18"/>
+      <c r="CH10" s="18"/>
+      <c r="CI10" s="19"/>
     </row>
-    <row r="11" spans="3:73" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:87" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
@@ -6809,27 +7730,69 @@
       <c r="BI11" s="3">
         <v>1.0124450524900399</v>
       </c>
-      <c r="BJ11" s="38"/>
-      <c r="BK11" s="39"/>
-      <c r="BL11" s="39"/>
-      <c r="BM11" s="39"/>
-      <c r="BN11" s="40"/>
-      <c r="BO11" s="38"/>
-      <c r="BP11" s="39"/>
-      <c r="BQ11" s="39"/>
-      <c r="BR11" s="39"/>
-      <c r="BS11" s="39"/>
-      <c r="BT11" s="39"/>
-      <c r="BU11" s="40"/>
+      <c r="BJ11" s="10">
+        <v>0.99182066040593775</v>
+      </c>
+      <c r="BK11" s="4">
+        <v>1.0347529128163921</v>
+      </c>
+      <c r="BL11" s="4">
+        <v>1.0061769548519413</v>
+      </c>
+      <c r="BM11" s="4">
+        <v>0.99290930839467839</v>
+      </c>
+      <c r="BN11" s="4">
+        <v>0.90664677067131794</v>
+      </c>
+      <c r="BO11" s="4">
+        <v>1.2218423848235243</v>
+      </c>
+      <c r="BP11" s="4">
+        <v>1.4766996952740863</v>
+      </c>
+      <c r="BQ11" s="4">
+        <v>1.0956538116311603</v>
+      </c>
+      <c r="BR11" s="4">
+        <v>1.0418802278156996</v>
+      </c>
+      <c r="BS11" s="4">
+        <v>1.1434861601215389</v>
+      </c>
+      <c r="BT11" s="4">
+        <v>0.77160913023384226</v>
+      </c>
+      <c r="BU11" s="4">
+        <v>1.1261286173011105</v>
+      </c>
+      <c r="BV11" s="4">
+        <v>0.93196692122027458</v>
+      </c>
+      <c r="BW11" s="3">
+        <v>0.91718486425178114</v>
+      </c>
+      <c r="BX11" s="14"/>
+      <c r="BY11" s="15"/>
+      <c r="BZ11" s="15"/>
+      <c r="CA11" s="15"/>
+      <c r="CB11" s="16"/>
+      <c r="CC11" s="14"/>
+      <c r="CD11" s="15"/>
+      <c r="CE11" s="15"/>
+      <c r="CF11" s="15"/>
+      <c r="CG11" s="15"/>
+      <c r="CH11" s="15"/>
+      <c r="CI11" s="16"/>
     </row>
-    <row r="12" spans="3:73" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="55" t="s">
+    <row r="12" spans="3:87" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="40" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="10">
@@ -7000,27 +7963,69 @@
       <c r="BI12" s="3">
         <v>0.82906020385054902</v>
       </c>
-      <c r="BJ12" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="BK12" s="39"/>
-      <c r="BL12" s="39"/>
-      <c r="BM12" s="39"/>
-      <c r="BN12" s="40"/>
-      <c r="BO12" s="26"/>
-      <c r="BP12" s="27"/>
-      <c r="BQ12" s="27"/>
-      <c r="BR12" s="27"/>
-      <c r="BS12" s="27"/>
-      <c r="BT12" s="27"/>
-      <c r="BU12" s="28"/>
+      <c r="BJ12" s="10">
+        <v>0.98788245986064838</v>
+      </c>
+      <c r="BK12" s="4">
+        <v>1.0341502611490558</v>
+      </c>
+      <c r="BL12" s="4">
+        <v>1.0054762163556294</v>
+      </c>
+      <c r="BM12" s="4">
+        <v>0.98131664972278987</v>
+      </c>
+      <c r="BN12" s="4">
+        <v>1.0064290549720325</v>
+      </c>
+      <c r="BO12" s="4">
+        <v>1.0614123005708462</v>
+      </c>
+      <c r="BP12" s="4">
+        <v>1.0151273059747876</v>
+      </c>
+      <c r="BQ12" s="4">
+        <v>0.95922023592404515</v>
+      </c>
+      <c r="BR12" s="4">
+        <v>1.0084925423558948</v>
+      </c>
+      <c r="BS12" s="4">
+        <v>0.9973494979385944</v>
+      </c>
+      <c r="BT12" s="4">
+        <v>0.93561614386367498</v>
+      </c>
+      <c r="BU12" s="4">
+        <v>1.1388781263563927</v>
+      </c>
+      <c r="BV12" s="4">
+        <v>0.98805840224745778</v>
+      </c>
+      <c r="BW12" s="3">
+        <v>0.99416814683047028</v>
+      </c>
+      <c r="BX12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY12" s="15"/>
+      <c r="BZ12" s="15"/>
+      <c r="CA12" s="15"/>
+      <c r="CB12" s="16"/>
+      <c r="CC12" s="17"/>
+      <c r="CD12" s="18"/>
+      <c r="CE12" s="18"/>
+      <c r="CF12" s="18"/>
+      <c r="CG12" s="18"/>
+      <c r="CH12" s="18"/>
+      <c r="CI12" s="19"/>
     </row>
-    <row r="13" spans="3:73" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="55"/>
+    <row r="13" spans="3:87" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="39"/>
       <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="56"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="10">
         <v>1.0370002483238141</v>
       </c>
@@ -7189,29 +8194,71 @@
       <c r="BI13" s="3">
         <v>0.88533027552387078</v>
       </c>
-      <c r="BJ13" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="BK13" s="39"/>
-      <c r="BL13" s="39"/>
-      <c r="BM13" s="39"/>
-      <c r="BN13" s="40"/>
-      <c r="BO13" s="38"/>
-      <c r="BP13" s="39"/>
-      <c r="BQ13" s="39"/>
-      <c r="BR13" s="39"/>
-      <c r="BS13" s="39"/>
-      <c r="BT13" s="39"/>
-      <c r="BU13" s="40"/>
+      <c r="BJ13" s="10">
+        <v>1.0027264465313543</v>
+      </c>
+      <c r="BK13" s="4">
+        <v>1.0206910405785456</v>
+      </c>
+      <c r="BL13" s="4">
+        <v>1.0047057583959464</v>
+      </c>
+      <c r="BM13" s="4">
+        <v>0.97480905216425051</v>
+      </c>
+      <c r="BN13" s="4">
+        <v>0.90193365799638703</v>
+      </c>
+      <c r="BO13" s="4">
+        <v>1.236803739349059</v>
+      </c>
+      <c r="BP13" s="4">
+        <v>1.7969202158446194</v>
+      </c>
+      <c r="BQ13" s="4">
+        <v>1.0726921656805146</v>
+      </c>
+      <c r="BR13" s="4">
+        <v>1.1142510090415747</v>
+      </c>
+      <c r="BS13" s="4">
+        <v>1.1425451893850815</v>
+      </c>
+      <c r="BT13" s="4">
+        <v>1.0037438653541479</v>
+      </c>
+      <c r="BU13" s="4">
+        <v>3.2134752004369846</v>
+      </c>
+      <c r="BV13" s="4">
+        <v>0.93660823804059667</v>
+      </c>
+      <c r="BW13" s="3">
+        <v>0.72430260102518285</v>
+      </c>
+      <c r="BX13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY13" s="15"/>
+      <c r="BZ13" s="15"/>
+      <c r="CA13" s="15"/>
+      <c r="CB13" s="16"/>
+      <c r="CC13" s="14"/>
+      <c r="CD13" s="15"/>
+      <c r="CE13" s="15"/>
+      <c r="CF13" s="15"/>
+      <c r="CG13" s="15"/>
+      <c r="CH13" s="15"/>
+      <c r="CI13" s="16"/>
     </row>
-    <row r="14" spans="3:73" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="55" t="s">
+    <row r="14" spans="3:87" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="39" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="40" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="10">
@@ -7382,27 +8429,69 @@
       <c r="BI14" s="3">
         <v>0.82223082577775175</v>
       </c>
-      <c r="BJ14" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK14" s="39"/>
-      <c r="BL14" s="39"/>
-      <c r="BM14" s="39"/>
-      <c r="BN14" s="40"/>
-      <c r="BO14" s="26"/>
-      <c r="BP14" s="27"/>
-      <c r="BQ14" s="27"/>
-      <c r="BR14" s="27"/>
-      <c r="BS14" s="27"/>
-      <c r="BT14" s="27"/>
-      <c r="BU14" s="28"/>
+      <c r="BJ14" s="10">
+        <v>0.98727658285368092</v>
+      </c>
+      <c r="BK14" s="4">
+        <v>1.0249096022498996</v>
+      </c>
+      <c r="BL14" s="4">
+        <v>1.0064364201004128</v>
+      </c>
+      <c r="BM14" s="4">
+        <v>1.0030246819313928</v>
+      </c>
+      <c r="BN14" s="4">
+        <v>0.90231292282468911</v>
+      </c>
+      <c r="BO14" s="4">
+        <v>1.2858172302136655</v>
+      </c>
+      <c r="BP14" s="4">
+        <v>1.7993919599184109</v>
+      </c>
+      <c r="BQ14" s="4">
+        <v>1.1372098259566017</v>
+      </c>
+      <c r="BR14" s="4">
+        <v>1.1151266676493237</v>
+      </c>
+      <c r="BS14" s="4">
+        <v>1.1415323928100847</v>
+      </c>
+      <c r="BT14" s="4">
+        <v>0.93517627069188114</v>
+      </c>
+      <c r="BU14" s="4">
+        <v>0.97039385612120876</v>
+      </c>
+      <c r="BV14" s="4">
+        <v>0.94491354409844497</v>
+      </c>
+      <c r="BW14" s="3">
+        <v>0.85157909931599762</v>
+      </c>
+      <c r="BX14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="BY14" s="15"/>
+      <c r="BZ14" s="15"/>
+      <c r="CA14" s="15"/>
+      <c r="CB14" s="16"/>
+      <c r="CC14" s="17"/>
+      <c r="CD14" s="18"/>
+      <c r="CE14" s="18"/>
+      <c r="CF14" s="18"/>
+      <c r="CG14" s="18"/>
+      <c r="CH14" s="18"/>
+      <c r="CI14" s="19"/>
     </row>
-    <row r="15" spans="3:73" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="55"/>
+    <row r="15" spans="3:87" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="39"/>
       <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="56"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="10">
         <v>1.036006953066799</v>
       </c>
@@ -7571,22 +8660,64 @@
       <c r="BI15" s="3">
         <v>1.0589085571624313</v>
       </c>
-      <c r="BJ15" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="BK15" s="39"/>
-      <c r="BL15" s="39"/>
-      <c r="BM15" s="39"/>
-      <c r="BN15" s="40"/>
-      <c r="BO15" s="41"/>
-      <c r="BP15" s="42"/>
-      <c r="BQ15" s="42"/>
-      <c r="BR15" s="42"/>
-      <c r="BS15" s="42"/>
-      <c r="BT15" s="42"/>
-      <c r="BU15" s="43"/>
+      <c r="BJ15" s="10">
+        <v>1.0842169039684943</v>
+      </c>
+      <c r="BK15" s="4">
+        <v>1.0070309361189234</v>
+      </c>
+      <c r="BL15" s="4">
+        <v>1.0164016428003368</v>
+      </c>
+      <c r="BM15" s="4">
+        <v>0.9997285698144972</v>
+      </c>
+      <c r="BN15" s="4">
+        <v>0.71059198994047601</v>
+      </c>
+      <c r="BO15" s="4">
+        <v>1.3154255675532844</v>
+      </c>
+      <c r="BP15" s="4">
+        <v>2.0723359245119686</v>
+      </c>
+      <c r="BQ15" s="4">
+        <v>1.0462409469547962</v>
+      </c>
+      <c r="BR15" s="4">
+        <v>1.0336380248502341</v>
+      </c>
+      <c r="BS15" s="4">
+        <v>1.3416415704962767</v>
+      </c>
+      <c r="BT15" s="4">
+        <v>1.0677220486731624</v>
+      </c>
+      <c r="BU15" s="4">
+        <v>1.0927343407541641</v>
+      </c>
+      <c r="BV15" s="4">
+        <v>0.78166026985320303</v>
+      </c>
+      <c r="BW15" s="3">
+        <v>0.82241060201834137</v>
+      </c>
+      <c r="BX15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY15" s="15"/>
+      <c r="BZ15" s="15"/>
+      <c r="CA15" s="15"/>
+      <c r="CB15" s="16"/>
+      <c r="CC15" s="63"/>
+      <c r="CD15" s="64"/>
+      <c r="CE15" s="64"/>
+      <c r="CF15" s="64"/>
+      <c r="CG15" s="64"/>
+      <c r="CH15" s="64"/>
+      <c r="CI15" s="65"/>
     </row>
-    <row r="16" spans="3:73" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:87" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8" t="s">
         <v>22</v>
       </c>
@@ -7764,29 +8895,71 @@
       <c r="BI16" s="3">
         <v>0.97204043647316241</v>
       </c>
-      <c r="BJ16" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK16" s="39"/>
-      <c r="BL16" s="39"/>
-      <c r="BM16" s="39"/>
-      <c r="BN16" s="40"/>
-      <c r="BO16" s="26"/>
-      <c r="BP16" s="27"/>
-      <c r="BQ16" s="27"/>
-      <c r="BR16" s="27"/>
-      <c r="BS16" s="27"/>
-      <c r="BT16" s="27"/>
-      <c r="BU16" s="28"/>
+      <c r="BJ16" s="10">
+        <v>1.0145410481672221</v>
+      </c>
+      <c r="BK16" s="4">
+        <v>1.0347529128163921</v>
+      </c>
+      <c r="BL16" s="4">
+        <v>1.0147658699451885</v>
+      </c>
+      <c r="BM16" s="4">
+        <v>0.9911305017373766</v>
+      </c>
+      <c r="BN16" s="4">
+        <v>1.209500365836857</v>
+      </c>
+      <c r="BO16" s="4">
+        <v>1.2001331601293976</v>
+      </c>
+      <c r="BP16" s="4">
+        <v>0.92860039039347475</v>
+      </c>
+      <c r="BQ16" s="4">
+        <v>1.2038485071110347</v>
+      </c>
+      <c r="BR16" s="4">
+        <v>1.1428625680692373</v>
+      </c>
+      <c r="BS16" s="4">
+        <v>0.86730978190749319</v>
+      </c>
+      <c r="BT16" s="4">
+        <v>0.77545075581757805</v>
+      </c>
+      <c r="BU16" s="4">
+        <v>1.5414893536948899</v>
+      </c>
+      <c r="BV16" s="4">
+        <v>0.92644719661298625</v>
+      </c>
+      <c r="BW16" s="3">
+        <v>0.96938593419094843</v>
+      </c>
+      <c r="BX16" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BY16" s="15"/>
+      <c r="BZ16" s="15"/>
+      <c r="CA16" s="15"/>
+      <c r="CB16" s="16"/>
+      <c r="CC16" s="17"/>
+      <c r="CD16" s="18"/>
+      <c r="CE16" s="18"/>
+      <c r="CF16" s="18"/>
+      <c r="CG16" s="18"/>
+      <c r="CH16" s="18"/>
+      <c r="CI16" s="19"/>
     </row>
-    <row r="17" spans="3:73" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="55" t="s">
+    <row r="17" spans="3:87" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="40" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="10">
@@ -7957,27 +9130,69 @@
       <c r="BI17" s="3">
         <v>0.84461664977929718</v>
       </c>
-      <c r="BJ17" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK17" s="39"/>
-      <c r="BL17" s="39"/>
-      <c r="BM17" s="39"/>
-      <c r="BN17" s="40"/>
-      <c r="BO17" s="41"/>
-      <c r="BP17" s="42"/>
-      <c r="BQ17" s="42"/>
-      <c r="BR17" s="42"/>
-      <c r="BS17" s="42"/>
-      <c r="BT17" s="42"/>
-      <c r="BU17" s="43"/>
+      <c r="BJ17" s="10">
+        <v>0.98273250530142375</v>
+      </c>
+      <c r="BK17" s="4">
+        <v>1.0299316994777019</v>
+      </c>
+      <c r="BL17" s="4">
+        <v>1.0131078038118337</v>
+      </c>
+      <c r="BM17" s="4">
+        <v>1.0021343770315678</v>
+      </c>
+      <c r="BN17" s="4">
+        <v>1.0232853532945292</v>
+      </c>
+      <c r="BO17" s="4">
+        <v>1.0962833895750281</v>
+      </c>
+      <c r="BP17" s="4">
+        <v>1.0693803831443787</v>
+      </c>
+      <c r="BQ17" s="4">
+        <v>1.0616051318507986</v>
+      </c>
+      <c r="BR17" s="4">
+        <v>1.0342204654321434</v>
+      </c>
+      <c r="BS17" s="4">
+        <v>0.99744286750934275</v>
+      </c>
+      <c r="BT17" s="4">
+        <v>1.0627416237609022</v>
+      </c>
+      <c r="BU17" s="4">
+        <v>1.1632259019529905</v>
+      </c>
+      <c r="BV17" s="4">
+        <v>0.96504570094567321</v>
+      </c>
+      <c r="BW17" s="3">
+        <v>0.94983327094635361</v>
+      </c>
+      <c r="BX17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY17" s="15"/>
+      <c r="BZ17" s="15"/>
+      <c r="CA17" s="15"/>
+      <c r="CB17" s="16"/>
+      <c r="CC17" s="63"/>
+      <c r="CD17" s="64"/>
+      <c r="CE17" s="64"/>
+      <c r="CF17" s="64"/>
+      <c r="CG17" s="64"/>
+      <c r="CH17" s="64"/>
+      <c r="CI17" s="65"/>
     </row>
-    <row r="18" spans="3:73" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="55"/>
+    <row r="18" spans="3:87" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="39"/>
       <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="56"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="10">
         <v>0.93642910355103048</v>
       </c>
@@ -8146,29 +9361,71 @@
       <c r="BI18" s="3">
         <v>1.0753906201519212</v>
       </c>
-      <c r="BJ18" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="BK18" s="39"/>
-      <c r="BL18" s="39"/>
-      <c r="BM18" s="39"/>
-      <c r="BN18" s="40"/>
-      <c r="BO18" s="26"/>
-      <c r="BP18" s="27"/>
-      <c r="BQ18" s="27"/>
-      <c r="BR18" s="27"/>
-      <c r="BS18" s="27"/>
-      <c r="BT18" s="27"/>
-      <c r="BU18" s="28"/>
+      <c r="BJ18" s="10">
+        <v>1.0636170857315965</v>
+      </c>
+      <c r="BK18" s="4">
+        <v>1.0192848533547609</v>
+      </c>
+      <c r="BL18" s="4">
+        <v>1.0341101950791665</v>
+      </c>
+      <c r="BM18" s="4">
+        <v>1.015360112046821</v>
+      </c>
+      <c r="BN18" s="4">
+        <v>0.66345235767192257</v>
+      </c>
+      <c r="BO18" s="4">
+        <v>0.64963317362477269</v>
+      </c>
+      <c r="BP18" s="4">
+        <v>2.1243926669343192</v>
+      </c>
+      <c r="BQ18" s="4">
+        <v>1.1475756368964773</v>
+      </c>
+      <c r="BR18" s="4">
+        <v>1.0100307157920536</v>
+      </c>
+      <c r="BS18" s="4">
+        <v>1.3431212551185454</v>
+      </c>
+      <c r="BT18" s="4">
+        <v>1.0006207207079947</v>
+      </c>
+      <c r="BU18" s="4">
+        <v>1.138757876710242</v>
+      </c>
+      <c r="BV18" s="4">
+        <v>0.75865548213508482</v>
+      </c>
+      <c r="BW18" s="3">
+        <v>0.86534793459515802</v>
+      </c>
+      <c r="BX18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY18" s="15"/>
+      <c r="BZ18" s="15"/>
+      <c r="CA18" s="15"/>
+      <c r="CB18" s="16"/>
+      <c r="CC18" s="17"/>
+      <c r="CD18" s="18"/>
+      <c r="CE18" s="18"/>
+      <c r="CF18" s="18"/>
+      <c r="CG18" s="18"/>
+      <c r="CH18" s="18"/>
+      <c r="CI18" s="19"/>
     </row>
-    <row r="19" spans="3:73" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="55" t="s">
+    <row r="19" spans="3:87" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="39" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="40" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="10">
@@ -8339,27 +9596,69 @@
       <c r="BI19" s="3">
         <v>0.85541354149824111</v>
       </c>
-      <c r="BJ19" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK19" s="39"/>
-      <c r="BL19" s="39"/>
-      <c r="BM19" s="39"/>
-      <c r="BN19" s="40"/>
-      <c r="BO19" s="38"/>
-      <c r="BP19" s="39"/>
-      <c r="BQ19" s="39"/>
-      <c r="BR19" s="39"/>
-      <c r="BS19" s="39"/>
-      <c r="BT19" s="39"/>
-      <c r="BU19" s="40"/>
+      <c r="BJ19" s="10">
+        <v>1.1078461072402304</v>
+      </c>
+      <c r="BK19" s="4">
+        <v>1.0132583366813981</v>
+      </c>
+      <c r="BL19" s="4">
+        <v>1.0028318495458419</v>
+      </c>
+      <c r="BM19" s="4">
+        <v>1.0011612603066156</v>
+      </c>
+      <c r="BN19" s="4">
+        <v>1.2789507826920423</v>
+      </c>
+      <c r="BO19" s="4">
+        <v>1.1710558327672069</v>
+      </c>
+      <c r="BP19" s="4">
+        <v>1.4788878649362163</v>
+      </c>
+      <c r="BQ19" s="4">
+        <v>1.1450470986067094</v>
+      </c>
+      <c r="BR19" s="4">
+        <v>1.3263817871269497</v>
+      </c>
+      <c r="BS19" s="4">
+        <v>0.86841594805323841</v>
+      </c>
+      <c r="BT19" s="4">
+        <v>0.93746364673935578</v>
+      </c>
+      <c r="BU19" s="4">
+        <v>0.93031918306225481</v>
+      </c>
+      <c r="BV19" s="4">
+        <v>0.84729157599018712</v>
+      </c>
+      <c r="BW19" s="3">
+        <v>0.92390380987227361</v>
+      </c>
+      <c r="BX19" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY19" s="15"/>
+      <c r="BZ19" s="15"/>
+      <c r="CA19" s="15"/>
+      <c r="CB19" s="16"/>
+      <c r="CC19" s="14"/>
+      <c r="CD19" s="15"/>
+      <c r="CE19" s="15"/>
+      <c r="CF19" s="15"/>
+      <c r="CG19" s="15"/>
+      <c r="CH19" s="15"/>
+      <c r="CI19" s="16"/>
     </row>
-    <row r="20" spans="3:73" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="55"/>
+    <row r="20" spans="3:87" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="39"/>
       <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="56"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="10">
         <v>0.91606655078221999</v>
       </c>
@@ -8528,29 +9827,71 @@
       <c r="BI20" s="3">
         <v>1.1263525595484942</v>
       </c>
-      <c r="BJ20" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="BK20" s="39"/>
-      <c r="BL20" s="39"/>
-      <c r="BM20" s="39"/>
-      <c r="BN20" s="40"/>
-      <c r="BO20" s="38"/>
-      <c r="BP20" s="39"/>
-      <c r="BQ20" s="39"/>
-      <c r="BR20" s="39"/>
-      <c r="BS20" s="39"/>
-      <c r="BT20" s="39"/>
-      <c r="BU20" s="40"/>
+      <c r="BJ20" s="10">
+        <v>0.83792790063617095</v>
+      </c>
+      <c r="BK20" s="4">
+        <v>1.0265166733627964</v>
+      </c>
+      <c r="BL20" s="4">
+        <v>1.0168360535541074</v>
+      </c>
+      <c r="BM20" s="4">
+        <v>1.0104525391240746</v>
+      </c>
+      <c r="BN20" s="4">
+        <v>0.61591028438588913</v>
+      </c>
+      <c r="BO20" s="4">
+        <v>1.274314562481025</v>
+      </c>
+      <c r="BP20" s="4">
+        <v>1.0273372626990138</v>
+      </c>
+      <c r="BQ20" s="4">
+        <v>1.0973906366404915</v>
+      </c>
+      <c r="BR20" s="4">
+        <v>0.71351296118029772</v>
+      </c>
+      <c r="BS20" s="4">
+        <v>0.9918933065955251</v>
+      </c>
+      <c r="BT20" s="4">
+        <v>0.81541647505602421</v>
+      </c>
+      <c r="BU20" s="4">
+        <v>0.96961895378148399</v>
+      </c>
+      <c r="BV20" s="4">
+        <v>1.0246191587860562</v>
+      </c>
+      <c r="BW20" s="3">
+        <v>1.0285875187184674</v>
+      </c>
+      <c r="BX20" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY20" s="15"/>
+      <c r="BZ20" s="15"/>
+      <c r="CA20" s="15"/>
+      <c r="CB20" s="16"/>
+      <c r="CC20" s="14"/>
+      <c r="CD20" s="15"/>
+      <c r="CE20" s="15"/>
+      <c r="CF20" s="15"/>
+      <c r="CG20" s="15"/>
+      <c r="CH20" s="15"/>
+      <c r="CI20" s="16"/>
     </row>
-    <row r="21" spans="3:73" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="55" t="s">
+    <row r="21" spans="3:87" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="39" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="1">
         <v>0.4</v>
       </c>
-      <c r="E21" s="56">
+      <c r="E21" s="40">
         <v>0.6</v>
       </c>
       <c r="F21" s="10">
@@ -8721,27 +10062,69 @@
       <c r="BI21" s="3">
         <v>0.82299134397975071</v>
       </c>
-      <c r="BJ21" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="BK21" s="39"/>
-      <c r="BL21" s="39"/>
-      <c r="BM21" s="39"/>
-      <c r="BN21" s="40"/>
-      <c r="BO21" s="26"/>
-      <c r="BP21" s="27"/>
-      <c r="BQ21" s="27"/>
-      <c r="BR21" s="27"/>
-      <c r="BS21" s="27"/>
-      <c r="BT21" s="27"/>
-      <c r="BU21" s="28"/>
+      <c r="BJ21" s="10">
+        <v>0.98606482883974556</v>
+      </c>
+      <c r="BK21" s="4">
+        <v>1.0054238650060265</v>
+      </c>
+      <c r="BL21" s="4">
+        <v>1.0477649045251969</v>
+      </c>
+      <c r="BM21" s="4">
+        <v>1.0461777766529283</v>
+      </c>
+      <c r="BN21" s="4">
+        <v>0.58863317232811008</v>
+      </c>
+      <c r="BO21" s="4">
+        <v>0.67144891309709354</v>
+      </c>
+      <c r="BP21" s="4">
+        <v>1.5560361882058154</v>
+      </c>
+      <c r="BQ21" s="4">
+        <v>1.2069102913757999</v>
+      </c>
+      <c r="BR21" s="4">
+        <v>0.81812985144006134</v>
+      </c>
+      <c r="BS21" s="4">
+        <v>1.1650943828496456</v>
+      </c>
+      <c r="BT21" s="4">
+        <v>5.0612673163567115</v>
+      </c>
+      <c r="BU21" s="4">
+        <v>1.139513603622041</v>
+      </c>
+      <c r="BV21" s="4">
+        <v>0.81610018596921619</v>
+      </c>
+      <c r="BW21" s="3">
+        <v>0.56774708046855094</v>
+      </c>
+      <c r="BX21" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY21" s="15"/>
+      <c r="BZ21" s="15"/>
+      <c r="CA21" s="15"/>
+      <c r="CB21" s="16"/>
+      <c r="CC21" s="17"/>
+      <c r="CD21" s="18"/>
+      <c r="CE21" s="18"/>
+      <c r="CF21" s="18"/>
+      <c r="CG21" s="18"/>
+      <c r="CH21" s="18"/>
+      <c r="CI21" s="19"/>
     </row>
-    <row r="22" spans="3:73" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="55"/>
+    <row r="22" spans="3:87" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="39"/>
       <c r="D22" s="1">
         <v>0.8</v>
       </c>
-      <c r="E22" s="56"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="10">
         <v>0.9982617333002235</v>
       </c>
@@ -8910,29 +10293,71 @@
       <c r="BI22" s="3">
         <v>0.95431559406822508</v>
       </c>
-      <c r="BJ22" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="BK22" s="39"/>
-      <c r="BL22" s="39"/>
-      <c r="BM22" s="39"/>
-      <c r="BN22" s="40"/>
-      <c r="BO22" s="26"/>
-      <c r="BP22" s="27"/>
-      <c r="BQ22" s="27"/>
-      <c r="BR22" s="27"/>
-      <c r="BS22" s="27"/>
-      <c r="BT22" s="27"/>
-      <c r="BU22" s="28"/>
+      <c r="BJ22" s="10">
+        <v>0.94577400787640109</v>
+      </c>
+      <c r="BK22" s="4">
+        <v>1.0030132583366813</v>
+      </c>
+      <c r="BL22" s="4">
+        <v>1.0139184019084666</v>
+      </c>
+      <c r="BM22" s="4">
+        <v>1.0117759939009783</v>
+      </c>
+      <c r="BN22" s="4">
+        <v>1.0827526565202088</v>
+      </c>
+      <c r="BO22" s="4">
+        <v>1.195354017365774</v>
+      </c>
+      <c r="BP22" s="4">
+        <v>1.0341365293116178</v>
+      </c>
+      <c r="BQ22" s="4">
+        <v>1.1484258927853834</v>
+      </c>
+      <c r="BR22" s="4">
+        <v>1.0712194742476291</v>
+      </c>
+      <c r="BS22" s="4">
+        <v>0.75212822732946227</v>
+      </c>
+      <c r="BT22" s="4">
+        <v>0.81887051941340538</v>
+      </c>
+      <c r="BU22" s="4">
+        <v>0.89561631796658747</v>
+      </c>
+      <c r="BV22" s="4">
+        <v>0.99409250979305974</v>
+      </c>
+      <c r="BW22" s="3">
+        <v>1.0248839148399016</v>
+      </c>
+      <c r="BX22" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY22" s="15"/>
+      <c r="BZ22" s="15"/>
+      <c r="CA22" s="15"/>
+      <c r="CB22" s="16"/>
+      <c r="CC22" s="17"/>
+      <c r="CD22" s="18"/>
+      <c r="CE22" s="18"/>
+      <c r="CF22" s="18"/>
+      <c r="CG22" s="18"/>
+      <c r="CH22" s="18"/>
+      <c r="CI22" s="19"/>
     </row>
-    <row r="23" spans="3:73" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="55" t="s">
+    <row r="23" spans="3:87" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="39" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="1">
         <v>0.3</v>
       </c>
-      <c r="E23" s="56">
+      <c r="E23" s="40">
         <v>0.5</v>
       </c>
       <c r="F23" s="10">
@@ -9103,27 +10528,69 @@
       <c r="BI23" s="3">
         <v>1.0471681270394511</v>
       </c>
-      <c r="BJ23" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="BK23" s="39"/>
-      <c r="BL23" s="39"/>
-      <c r="BM23" s="39"/>
-      <c r="BN23" s="40"/>
-      <c r="BO23" s="26"/>
-      <c r="BP23" s="27"/>
-      <c r="BQ23" s="27"/>
-      <c r="BR23" s="27"/>
-      <c r="BS23" s="27"/>
-      <c r="BT23" s="27"/>
-      <c r="BU23" s="28"/>
+      <c r="BJ23" s="10">
+        <v>0.937291729778855</v>
+      </c>
+      <c r="BK23" s="4">
+        <v>0.99718762555243068</v>
+      </c>
+      <c r="BL23" s="4">
+        <v>1.0126315456458066</v>
+      </c>
+      <c r="BM23" s="4">
+        <v>1.0135555971676737</v>
+      </c>
+      <c r="BN23" s="4">
+        <v>0.95932211108318466</v>
+      </c>
+      <c r="BO23" s="4">
+        <v>1.0392587808629905</v>
+      </c>
+      <c r="BP23" s="4">
+        <v>0.86351581122100129</v>
+      </c>
+      <c r="BQ23" s="4">
+        <v>1.079068910862812</v>
+      </c>
+      <c r="BR23" s="4">
+        <v>0.93659402045108753</v>
+      </c>
+      <c r="BS23" s="4">
+        <v>0.86755196802395662</v>
+      </c>
+      <c r="BT23" s="4">
+        <v>0.78391003094209044</v>
+      </c>
+      <c r="BU23" s="4">
+        <v>0.95034048033192486</v>
+      </c>
+      <c r="BV23" s="4">
+        <v>1.000154314881494</v>
+      </c>
+      <c r="BW23" s="3">
+        <v>1.0817401746416786</v>
+      </c>
+      <c r="BX23" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY23" s="15"/>
+      <c r="BZ23" s="15"/>
+      <c r="CA23" s="15"/>
+      <c r="CB23" s="16"/>
+      <c r="CC23" s="17"/>
+      <c r="CD23" s="18"/>
+      <c r="CE23" s="18"/>
+      <c r="CF23" s="18"/>
+      <c r="CG23" s="18"/>
+      <c r="CH23" s="18"/>
+      <c r="CI23" s="19"/>
     </row>
-    <row r="24" spans="3:73" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="55"/>
+    <row r="24" spans="3:87" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="39"/>
       <c r="D24" s="1">
         <v>0.7</v>
       </c>
-      <c r="E24" s="56"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="11">
         <v>0.98609386640178787</v>
       </c>
@@ -9292,797 +10759,2240 @@
       <c r="BI24" s="13">
         <v>0.98910413050554502</v>
       </c>
-      <c r="BJ24" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK24" s="36"/>
-      <c r="BL24" s="36"/>
-      <c r="BM24" s="36"/>
-      <c r="BN24" s="37"/>
-      <c r="BO24" s="35"/>
-      <c r="BP24" s="36"/>
-      <c r="BQ24" s="36"/>
-      <c r="BR24" s="36"/>
-      <c r="BS24" s="36"/>
-      <c r="BT24" s="36"/>
-      <c r="BU24" s="37"/>
+      <c r="BJ24" s="11">
+        <v>1.014843986670706</v>
+      </c>
+      <c r="BK24" s="12">
+        <v>0.99377259943752505</v>
+      </c>
+      <c r="BL24" s="12">
+        <v>1.016091268940047</v>
+      </c>
+      <c r="BM24" s="12">
+        <v>0.98969502242045215</v>
+      </c>
+      <c r="BN24" s="12">
+        <v>0.66314030947964486</v>
+      </c>
+      <c r="BO24" s="12">
+        <v>0.62564170982728862</v>
+      </c>
+      <c r="BP24" s="12">
+        <v>1.8298353471727899</v>
+      </c>
+      <c r="BQ24" s="12">
+        <v>1.1348119335148901</v>
+      </c>
+      <c r="BR24" s="12">
+        <v>0.93991496295490218</v>
+      </c>
+      <c r="BS24" s="12">
+        <v>1.1670837013385973</v>
+      </c>
+      <c r="BT24" s="12">
+        <v>0.8445594025492078</v>
+      </c>
+      <c r="BU24" s="12">
+        <v>0.81242327588709651</v>
+      </c>
+      <c r="BV24" s="12">
+        <v>0.75348395520911648</v>
+      </c>
+      <c r="BW24" s="13">
+        <v>0.9569168020022869</v>
+      </c>
+      <c r="BX24" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="BY24" s="61"/>
+      <c r="BZ24" s="61"/>
+      <c r="CA24" s="61"/>
+      <c r="CB24" s="62"/>
+      <c r="CC24" s="60"/>
+      <c r="CD24" s="61"/>
+      <c r="CE24" s="61"/>
+      <c r="CF24" s="61"/>
+      <c r="CG24" s="61"/>
+      <c r="CH24" s="61"/>
+      <c r="CI24" s="62"/>
     </row>
-    <row r="25" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C25" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="44" t="s">
+    <row r="25" spans="3:87" x14ac:dyDescent="0.25">
+      <c r="C25" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="52"/>
+      <c r="AK25" s="52"/>
+      <c r="AL25" s="52"/>
+      <c r="AM25" s="52"/>
+      <c r="AN25" s="52"/>
+      <c r="AO25" s="52"/>
+      <c r="AP25" s="52"/>
+      <c r="AQ25" s="52"/>
+      <c r="AR25" s="52"/>
+      <c r="AS25" s="52"/>
+      <c r="AT25" s="52"/>
+      <c r="AU25" s="53"/>
+      <c r="AV25" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW25" s="52"/>
+      <c r="AX25" s="52"/>
+      <c r="AY25" s="52"/>
+      <c r="AZ25" s="52"/>
+      <c r="BA25" s="52"/>
+      <c r="BB25" s="52"/>
+      <c r="BC25" s="52"/>
+      <c r="BD25" s="52"/>
+      <c r="BE25" s="52"/>
+      <c r="BF25" s="52"/>
+      <c r="BG25" s="52"/>
+      <c r="BH25" s="52"/>
+      <c r="BI25" s="53"/>
+      <c r="BJ25" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK25" s="52"/>
+      <c r="BL25" s="52"/>
+      <c r="BM25" s="52"/>
+      <c r="BN25" s="52"/>
+      <c r="BO25" s="52"/>
+      <c r="BP25" s="52"/>
+      <c r="BQ25" s="52"/>
+      <c r="BR25" s="52"/>
+      <c r="BS25" s="52"/>
+      <c r="BT25" s="52"/>
+      <c r="BU25" s="52"/>
+      <c r="BV25" s="52"/>
+      <c r="BW25" s="53"/>
+      <c r="BX25" s="5"/>
+      <c r="BY25" s="5"/>
+      <c r="BZ25" s="5"/>
+      <c r="CA25" s="5"/>
+      <c r="CB25" s="5"/>
+      <c r="CC25" s="5"/>
+      <c r="CD25" s="5"/>
+      <c r="CE25" s="5"/>
+      <c r="CF25" s="5"/>
+      <c r="CG25" s="5"/>
+      <c r="CH25" s="5"/>
+      <c r="CI25" s="5"/>
+    </row>
+    <row r="26" spans="3:87" x14ac:dyDescent="0.25">
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="46"/>
-      <c r="AH25" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI25" s="45"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="45"/>
-      <c r="AL25" s="45"/>
-      <c r="AM25" s="45"/>
-      <c r="AN25" s="45"/>
-      <c r="AO25" s="45"/>
-      <c r="AP25" s="45"/>
-      <c r="AQ25" s="45"/>
-      <c r="AR25" s="45"/>
-      <c r="AS25" s="45"/>
-      <c r="AT25" s="45"/>
-      <c r="AU25" s="46"/>
-      <c r="AV25" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW25" s="45"/>
-      <c r="AX25" s="45"/>
-      <c r="AY25" s="45"/>
-      <c r="AZ25" s="45"/>
-      <c r="BA25" s="45"/>
-      <c r="BB25" s="45"/>
-      <c r="BC25" s="45"/>
-      <c r="BD25" s="45"/>
-      <c r="BE25" s="45"/>
-      <c r="BF25" s="45"/>
-      <c r="BG25" s="45"/>
-      <c r="BH25" s="45"/>
-      <c r="BI25" s="46"/>
-      <c r="BJ25" s="5"/>
-      <c r="BK25" s="5"/>
-      <c r="BL25" s="5"/>
-      <c r="BM25" s="5"/>
-      <c r="BN25" s="5"/>
-      <c r="BO25" s="5"/>
-      <c r="BP25" s="5"/>
-      <c r="BQ25" s="5"/>
-      <c r="BR25" s="5"/>
-      <c r="BS25" s="5"/>
-      <c r="BT25" s="5"/>
-      <c r="BU25" s="5"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="18"/>
+      <c r="AO26" s="18"/>
+      <c r="AP26" s="18"/>
+      <c r="AQ26" s="18"/>
+      <c r="AR26" s="18"/>
+      <c r="AS26" s="18"/>
+      <c r="AT26" s="18"/>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW26" s="18"/>
+      <c r="AX26" s="18"/>
+      <c r="AY26" s="18"/>
+      <c r="AZ26" s="18"/>
+      <c r="BA26" s="18"/>
+      <c r="BB26" s="18"/>
+      <c r="BC26" s="18"/>
+      <c r="BD26" s="18"/>
+      <c r="BE26" s="18"/>
+      <c r="BF26" s="18"/>
+      <c r="BG26" s="18"/>
+      <c r="BH26" s="18"/>
+      <c r="BI26" s="19"/>
+      <c r="BJ26" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK26" s="18"/>
+      <c r="BL26" s="18"/>
+      <c r="BM26" s="18"/>
+      <c r="BN26" s="18"/>
+      <c r="BO26" s="18"/>
+      <c r="BP26" s="18"/>
+      <c r="BQ26" s="18"/>
+      <c r="BR26" s="18"/>
+      <c r="BS26" s="18"/>
+      <c r="BT26" s="18"/>
+      <c r="BU26" s="18"/>
+      <c r="BV26" s="18"/>
+      <c r="BW26" s="19"/>
+      <c r="BX26" s="5"/>
+      <c r="BY26" s="5"/>
+      <c r="BZ26" s="5"/>
+      <c r="CA26" s="5"/>
+      <c r="CB26" s="5"/>
+      <c r="CC26" s="5"/>
+      <c r="CD26" s="5"/>
+      <c r="CE26" s="5"/>
+      <c r="CF26" s="5"/>
+      <c r="CG26" s="5"/>
+      <c r="CH26" s="5"/>
+      <c r="CI26" s="5"/>
     </row>
-    <row r="26" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="26" t="s">
+    <row r="27" spans="3:87" x14ac:dyDescent="0.25">
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI26" s="27"/>
-      <c r="AJ26" s="27"/>
-      <c r="AK26" s="27"/>
-      <c r="AL26" s="27"/>
-      <c r="AM26" s="27"/>
-      <c r="AN26" s="27"/>
-      <c r="AO26" s="27"/>
-      <c r="AP26" s="27"/>
-      <c r="AQ26" s="27"/>
-      <c r="AR26" s="27"/>
-      <c r="AS26" s="27"/>
-      <c r="AT26" s="27"/>
-      <c r="AU26" s="28"/>
-      <c r="AV26" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW26" s="27"/>
-      <c r="AX26" s="27"/>
-      <c r="AY26" s="27"/>
-      <c r="AZ26" s="27"/>
-      <c r="BA26" s="27"/>
-      <c r="BB26" s="27"/>
-      <c r="BC26" s="27"/>
-      <c r="BD26" s="27"/>
-      <c r="BE26" s="27"/>
-      <c r="BF26" s="27"/>
-      <c r="BG26" s="27"/>
-      <c r="BH26" s="27"/>
-      <c r="BI26" s="28"/>
-      <c r="BJ26" s="5"/>
-      <c r="BK26" s="5"/>
-      <c r="BL26" s="5"/>
-      <c r="BM26" s="5"/>
-      <c r="BN26" s="5"/>
-      <c r="BO26" s="5"/>
-      <c r="BP26" s="5"/>
-      <c r="BQ26" s="5"/>
-      <c r="BR26" s="5"/>
-      <c r="BS26" s="5"/>
-      <c r="BT26" s="5"/>
-      <c r="BU26" s="5"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="55"/>
+      <c r="AE27" s="55"/>
+      <c r="AF27" s="55"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="55"/>
+      <c r="AK27" s="55"/>
+      <c r="AL27" s="55"/>
+      <c r="AM27" s="55"/>
+      <c r="AN27" s="55"/>
+      <c r="AO27" s="55"/>
+      <c r="AP27" s="55"/>
+      <c r="AQ27" s="55"/>
+      <c r="AR27" s="55"/>
+      <c r="AS27" s="55"/>
+      <c r="AT27" s="55"/>
+      <c r="AU27" s="56"/>
+      <c r="AV27" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW27" s="55"/>
+      <c r="AX27" s="55"/>
+      <c r="AY27" s="55"/>
+      <c r="AZ27" s="55"/>
+      <c r="BA27" s="55"/>
+      <c r="BB27" s="55"/>
+      <c r="BC27" s="55"/>
+      <c r="BD27" s="55"/>
+      <c r="BE27" s="55"/>
+      <c r="BF27" s="55"/>
+      <c r="BG27" s="55"/>
+      <c r="BH27" s="55"/>
+      <c r="BI27" s="56"/>
+      <c r="BJ27" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK27" s="55"/>
+      <c r="BL27" s="55"/>
+      <c r="BM27" s="55"/>
+      <c r="BN27" s="55"/>
+      <c r="BO27" s="55"/>
+      <c r="BP27" s="55"/>
+      <c r="BQ27" s="55"/>
+      <c r="BR27" s="55"/>
+      <c r="BS27" s="55"/>
+      <c r="BT27" s="55"/>
+      <c r="BU27" s="55"/>
+      <c r="BV27" s="55"/>
+      <c r="BW27" s="56"/>
+      <c r="BX27" s="5"/>
+      <c r="BY27" s="5"/>
+      <c r="BZ27" s="5"/>
+      <c r="CA27" s="5"/>
+      <c r="CB27" s="5"/>
+      <c r="CC27" s="5"/>
+      <c r="CD27" s="5"/>
+      <c r="CE27" s="5"/>
+      <c r="CF27" s="5"/>
+      <c r="CG27" s="5"/>
+      <c r="CH27" s="5"/>
+      <c r="CI27" s="5"/>
     </row>
-    <row r="27" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="14" t="s">
+    <row r="28" spans="3:87" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AI27" s="15"/>
-      <c r="AJ27" s="15"/>
-      <c r="AK27" s="15"/>
-      <c r="AL27" s="15"/>
-      <c r="AM27" s="15"/>
-      <c r="AN27" s="15"/>
-      <c r="AO27" s="15"/>
-      <c r="AP27" s="15"/>
-      <c r="AQ27" s="15"/>
-      <c r="AR27" s="15"/>
-      <c r="AS27" s="15"/>
-      <c r="AT27" s="15"/>
-      <c r="AU27" s="16"/>
-      <c r="AV27" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW27" s="15"/>
-      <c r="AX27" s="15"/>
-      <c r="AY27" s="15"/>
-      <c r="AZ27" s="15"/>
-      <c r="BA27" s="15"/>
-      <c r="BB27" s="15"/>
-      <c r="BC27" s="15"/>
-      <c r="BD27" s="15"/>
-      <c r="BE27" s="15"/>
-      <c r="BF27" s="15"/>
-      <c r="BG27" s="15"/>
-      <c r="BH27" s="15"/>
-      <c r="BI27" s="16"/>
-      <c r="BJ27" s="5"/>
-      <c r="BK27" s="5"/>
-      <c r="BL27" s="5"/>
-      <c r="BM27" s="5"/>
-      <c r="BN27" s="5"/>
-      <c r="BO27" s="5"/>
-      <c r="BP27" s="5"/>
-      <c r="BQ27" s="5"/>
-      <c r="BR27" s="5"/>
-      <c r="BS27" s="5"/>
-      <c r="BT27" s="5"/>
-      <c r="BU27" s="5"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="36"/>
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="36"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="36"/>
+      <c r="AQ28" s="36"/>
+      <c r="AR28" s="36"/>
+      <c r="AS28" s="36"/>
+      <c r="AT28" s="36"/>
+      <c r="AU28" s="37"/>
+      <c r="AV28" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW28" s="36"/>
+      <c r="AX28" s="36"/>
+      <c r="AY28" s="36"/>
+      <c r="AZ28" s="36"/>
+      <c r="BA28" s="36"/>
+      <c r="BB28" s="36"/>
+      <c r="BC28" s="36"/>
+      <c r="BD28" s="36"/>
+      <c r="BE28" s="36"/>
+      <c r="BF28" s="36"/>
+      <c r="BG28" s="36"/>
+      <c r="BH28" s="36"/>
+      <c r="BI28" s="37"/>
+      <c r="BJ28" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="BK28" s="36"/>
+      <c r="BL28" s="36"/>
+      <c r="BM28" s="36"/>
+      <c r="BN28" s="36"/>
+      <c r="BO28" s="36"/>
+      <c r="BP28" s="36"/>
+      <c r="BQ28" s="36"/>
+      <c r="BR28" s="36"/>
+      <c r="BS28" s="36"/>
+      <c r="BT28" s="36"/>
+      <c r="BU28" s="36"/>
+      <c r="BV28" s="36"/>
+      <c r="BW28" s="37"/>
+      <c r="BX28" s="5"/>
+      <c r="BY28" s="5"/>
+      <c r="BZ28" s="5"/>
+      <c r="CA28" s="5"/>
+      <c r="CB28" s="5"/>
+      <c r="CC28" s="5"/>
+      <c r="CD28" s="5"/>
+      <c r="CE28" s="5"/>
+      <c r="CF28" s="5"/>
+      <c r="CG28" s="5"/>
+      <c r="CH28" s="5"/>
+      <c r="CI28" s="5"/>
     </row>
-    <row r="28" spans="3:73" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="29" t="s">
+    <row r="29" spans="3:87" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="58"/>
+      <c r="AF29" s="58"/>
+      <c r="AG29" s="59"/>
+      <c r="AH29" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI29" s="58"/>
+      <c r="AJ29" s="58"/>
+      <c r="AK29" s="58"/>
+      <c r="AL29" s="58"/>
+      <c r="AM29" s="58"/>
+      <c r="AN29" s="58"/>
+      <c r="AO29" s="58"/>
+      <c r="AP29" s="58"/>
+      <c r="AQ29" s="58"/>
+      <c r="AR29" s="58"/>
+      <c r="AS29" s="58"/>
+      <c r="AT29" s="58"/>
+      <c r="AU29" s="59"/>
+      <c r="AV29" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW29" s="58"/>
+      <c r="AX29" s="58"/>
+      <c r="AY29" s="58"/>
+      <c r="AZ29" s="58"/>
+      <c r="BA29" s="58"/>
+      <c r="BB29" s="58"/>
+      <c r="BC29" s="58"/>
+      <c r="BD29" s="58"/>
+      <c r="BE29" s="58"/>
+      <c r="BF29" s="58"/>
+      <c r="BG29" s="58"/>
+      <c r="BH29" s="58"/>
+      <c r="BI29" s="59"/>
+      <c r="BJ29" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="BK29" s="58"/>
+      <c r="BL29" s="58"/>
+      <c r="BM29" s="58"/>
+      <c r="BN29" s="58"/>
+      <c r="BO29" s="58"/>
+      <c r="BP29" s="58"/>
+      <c r="BQ29" s="58"/>
+      <c r="BR29" s="58"/>
+      <c r="BS29" s="58"/>
+      <c r="BT29" s="58"/>
+      <c r="BU29" s="58"/>
+      <c r="BV29" s="58"/>
+      <c r="BW29" s="59"/>
+      <c r="BX29" s="5"/>
+      <c r="BY29" s="5"/>
+      <c r="BZ29" s="5"/>
+      <c r="CA29" s="5"/>
+      <c r="CB29" s="5"/>
+      <c r="CC29" s="5"/>
+      <c r="CD29" s="5"/>
+      <c r="CE29" s="5"/>
+      <c r="CF29" s="5"/>
+      <c r="CG29" s="5"/>
+      <c r="CH29" s="5"/>
+      <c r="CI29" s="5"/>
+    </row>
+    <row r="30" spans="3:87" x14ac:dyDescent="0.25">
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="31"/>
-      <c r="AH28" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="30"/>
-      <c r="AL28" s="30"/>
-      <c r="AM28" s="30"/>
-      <c r="AN28" s="30"/>
-      <c r="AO28" s="30"/>
-      <c r="AP28" s="30"/>
-      <c r="AQ28" s="30"/>
-      <c r="AR28" s="30"/>
-      <c r="AS28" s="30"/>
-      <c r="AT28" s="30"/>
-      <c r="AU28" s="31"/>
-      <c r="AV28" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW28" s="30"/>
-      <c r="AX28" s="30"/>
-      <c r="AY28" s="30"/>
-      <c r="AZ28" s="30"/>
-      <c r="BA28" s="30"/>
-      <c r="BB28" s="30"/>
-      <c r="BC28" s="30"/>
-      <c r="BD28" s="30"/>
-      <c r="BE28" s="30"/>
-      <c r="BF28" s="30"/>
-      <c r="BG28" s="30"/>
-      <c r="BH28" s="30"/>
-      <c r="BI28" s="31"/>
-      <c r="BJ28" s="5"/>
-      <c r="BK28" s="5"/>
-      <c r="BL28" s="5"/>
-      <c r="BM28" s="5"/>
-      <c r="BN28" s="5"/>
-      <c r="BO28" s="5"/>
-      <c r="BP28" s="5"/>
-      <c r="BQ28" s="5"/>
-      <c r="BR28" s="5"/>
-      <c r="BS28" s="5"/>
-      <c r="BT28" s="5"/>
-      <c r="BU28" s="5"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI30" s="18"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="18"/>
+      <c r="AL30" s="18"/>
+      <c r="AM30" s="18"/>
+      <c r="AN30" s="18"/>
+      <c r="AO30" s="18"/>
+      <c r="AP30" s="18"/>
+      <c r="AQ30" s="18"/>
+      <c r="AR30" s="18"/>
+      <c r="AS30" s="18"/>
+      <c r="AT30" s="18"/>
+      <c r="AU30" s="19"/>
+      <c r="AV30" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW30" s="18"/>
+      <c r="AX30" s="18"/>
+      <c r="AY30" s="18"/>
+      <c r="AZ30" s="18"/>
+      <c r="BA30" s="18"/>
+      <c r="BB30" s="18"/>
+      <c r="BC30" s="18"/>
+      <c r="BD30" s="18"/>
+      <c r="BE30" s="18"/>
+      <c r="BF30" s="18"/>
+      <c r="BG30" s="18"/>
+      <c r="BH30" s="18"/>
+      <c r="BI30" s="19"/>
+      <c r="BJ30" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK30" s="18"/>
+      <c r="BL30" s="18"/>
+      <c r="BM30" s="18"/>
+      <c r="BN30" s="18"/>
+      <c r="BO30" s="18"/>
+      <c r="BP30" s="18"/>
+      <c r="BQ30" s="18"/>
+      <c r="BR30" s="18"/>
+      <c r="BS30" s="18"/>
+      <c r="BT30" s="18"/>
+      <c r="BU30" s="18"/>
+      <c r="BV30" s="18"/>
+      <c r="BW30" s="19"/>
+      <c r="BX30" s="5"/>
+      <c r="BY30" s="5"/>
+      <c r="BZ30" s="5"/>
+      <c r="CA30" s="5"/>
+      <c r="CB30" s="5"/>
+      <c r="CC30" s="5"/>
+      <c r="CD30" s="5"/>
+      <c r="CE30" s="5"/>
+      <c r="CF30" s="5"/>
+      <c r="CG30" s="5"/>
+      <c r="CH30" s="5"/>
+      <c r="CI30" s="5"/>
     </row>
-    <row r="29" spans="3:73" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="32" t="s">
+    <row r="31" spans="3:87" x14ac:dyDescent="0.25">
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="32" t="s">
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="33"/>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="33"/>
-      <c r="AG29" s="34"/>
-      <c r="AH29" s="32" t="s">
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="AI29" s="33"/>
-      <c r="AJ29" s="33"/>
-      <c r="AK29" s="33"/>
-      <c r="AL29" s="33"/>
-      <c r="AM29" s="33"/>
-      <c r="AN29" s="33"/>
-      <c r="AO29" s="33"/>
-      <c r="AP29" s="33"/>
-      <c r="AQ29" s="33"/>
-      <c r="AR29" s="33"/>
-      <c r="AS29" s="33"/>
-      <c r="AT29" s="33"/>
-      <c r="AU29" s="34"/>
-      <c r="AV29" s="32" t="s">
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="55"/>
+      <c r="AP31" s="55"/>
+      <c r="AQ31" s="55"/>
+      <c r="AR31" s="55"/>
+      <c r="AS31" s="55"/>
+      <c r="AT31" s="55"/>
+      <c r="AU31" s="56"/>
+      <c r="AV31" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW31" s="55"/>
+      <c r="AX31" s="55"/>
+      <c r="AY31" s="55"/>
+      <c r="AZ31" s="55"/>
+      <c r="BA31" s="55"/>
+      <c r="BB31" s="55"/>
+      <c r="BC31" s="55"/>
+      <c r="BD31" s="55"/>
+      <c r="BE31" s="55"/>
+      <c r="BF31" s="55"/>
+      <c r="BG31" s="55"/>
+      <c r="BH31" s="55"/>
+      <c r="BI31" s="56"/>
+      <c r="BJ31" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="AW29" s="33"/>
-      <c r="AX29" s="33"/>
-      <c r="AY29" s="33"/>
-      <c r="AZ29" s="33"/>
-      <c r="BA29" s="33"/>
-      <c r="BB29" s="33"/>
-      <c r="BC29" s="33"/>
-      <c r="BD29" s="33"/>
-      <c r="BE29" s="33"/>
-      <c r="BF29" s="33"/>
-      <c r="BG29" s="33"/>
-      <c r="BH29" s="33"/>
-      <c r="BI29" s="34"/>
-      <c r="BJ29" s="5"/>
-      <c r="BK29" s="5"/>
-      <c r="BL29" s="5"/>
-      <c r="BM29" s="5"/>
-      <c r="BN29" s="5"/>
-      <c r="BO29" s="5"/>
-      <c r="BP29" s="5"/>
-      <c r="BQ29" s="5"/>
-      <c r="BR29" s="5"/>
-      <c r="BS29" s="5"/>
-      <c r="BT29" s="5"/>
-      <c r="BU29" s="5"/>
+      <c r="BK31" s="55"/>
+      <c r="BL31" s="55"/>
+      <c r="BM31" s="55"/>
+      <c r="BN31" s="55"/>
+      <c r="BO31" s="55"/>
+      <c r="BP31" s="55"/>
+      <c r="BQ31" s="55"/>
+      <c r="BR31" s="55"/>
+      <c r="BS31" s="55"/>
+      <c r="BT31" s="55"/>
+      <c r="BU31" s="55"/>
+      <c r="BV31" s="55"/>
+      <c r="BW31" s="56"/>
+      <c r="BX31" s="5"/>
+      <c r="BY31" s="5"/>
+      <c r="BZ31" s="5"/>
+      <c r="CA31" s="5"/>
+      <c r="CB31" s="5"/>
+      <c r="CC31" s="5"/>
+      <c r="CD31" s="5"/>
+      <c r="CE31" s="5"/>
+      <c r="CF31" s="5"/>
+      <c r="CG31" s="5"/>
+      <c r="CH31" s="5"/>
+      <c r="CI31" s="5"/>
     </row>
-    <row r="30" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C30" s="68"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI30" s="27"/>
-      <c r="AJ30" s="27"/>
-      <c r="AK30" s="27"/>
-      <c r="AL30" s="27"/>
-      <c r="AM30" s="27"/>
-      <c r="AN30" s="27"/>
-      <c r="AO30" s="27"/>
-      <c r="AP30" s="27"/>
-      <c r="AQ30" s="27"/>
-      <c r="AR30" s="27"/>
-      <c r="AS30" s="27"/>
-      <c r="AT30" s="27"/>
-      <c r="AU30" s="28"/>
-      <c r="AV30" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW30" s="27"/>
-      <c r="AX30" s="27"/>
-      <c r="AY30" s="27"/>
-      <c r="AZ30" s="27"/>
-      <c r="BA30" s="27"/>
-      <c r="BB30" s="27"/>
-      <c r="BC30" s="27"/>
-      <c r="BD30" s="27"/>
-      <c r="BE30" s="27"/>
-      <c r="BF30" s="27"/>
-      <c r="BG30" s="27"/>
-      <c r="BH30" s="27"/>
-      <c r="BI30" s="28"/>
-      <c r="BJ30" s="5"/>
-      <c r="BK30" s="5"/>
-      <c r="BL30" s="5"/>
-      <c r="BM30" s="5"/>
-      <c r="BN30" s="5"/>
-      <c r="BO30" s="5"/>
-      <c r="BP30" s="5"/>
-      <c r="BQ30" s="5"/>
-      <c r="BR30" s="5"/>
-      <c r="BS30" s="5"/>
-      <c r="BT30" s="5"/>
-      <c r="BU30" s="5"/>
+    <row r="32" spans="3:87" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="3:124" x14ac:dyDescent="0.25">
+      <c r="C33" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="68"/>
     </row>
-    <row r="31" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C31" s="71"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="16"/>
-      <c r="AH31" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI31" s="15"/>
-      <c r="AJ31" s="15"/>
-      <c r="AK31" s="15"/>
-      <c r="AL31" s="15"/>
-      <c r="AM31" s="15"/>
-      <c r="AN31" s="15"/>
-      <c r="AO31" s="15"/>
-      <c r="AP31" s="15"/>
-      <c r="AQ31" s="15"/>
-      <c r="AR31" s="15"/>
-      <c r="AS31" s="15"/>
-      <c r="AT31" s="15"/>
-      <c r="AU31" s="16"/>
-      <c r="AV31" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW31" s="15"/>
-      <c r="AX31" s="15"/>
-      <c r="AY31" s="15"/>
-      <c r="AZ31" s="15"/>
-      <c r="BA31" s="15"/>
-      <c r="BB31" s="15"/>
-      <c r="BC31" s="15"/>
-      <c r="BD31" s="15"/>
-      <c r="BE31" s="15"/>
-      <c r="BF31" s="15"/>
-      <c r="BG31" s="15"/>
-      <c r="BH31" s="15"/>
-      <c r="BI31" s="16"/>
-      <c r="BJ31" s="5"/>
-      <c r="BK31" s="5"/>
-      <c r="BL31" s="5"/>
-      <c r="BM31" s="5"/>
-      <c r="BN31" s="5"/>
-      <c r="BO31" s="5"/>
-      <c r="BP31" s="5"/>
-      <c r="BQ31" s="5"/>
-      <c r="BR31" s="5"/>
-      <c r="BS31" s="5"/>
-      <c r="BT31" s="5"/>
-      <c r="BU31" s="5"/>
+    <row r="34" spans="3:124" x14ac:dyDescent="0.25">
+      <c r="C34" s="69"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="71"/>
     </row>
-    <row r="32" spans="3:73" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C33" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="19"/>
+    <row r="35" spans="3:124" x14ac:dyDescent="0.25">
+      <c r="C35" s="69"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="70"/>
+      <c r="Q35" s="71"/>
     </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="22"/>
+    <row r="36" spans="3:124" x14ac:dyDescent="0.25">
+      <c r="C36" s="69"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="71"/>
     </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="22"/>
+    <row r="37" spans="3:124" x14ac:dyDescent="0.25">
+      <c r="C37" s="69"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="71"/>
     </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="22"/>
+    <row r="38" spans="3:124" x14ac:dyDescent="0.25">
+      <c r="C38" s="69"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="71"/>
     </row>
-    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="22"/>
+    <row r="39" spans="3:124" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="72"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="74"/>
+      <c r="CM39" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="CN39" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="CO39" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="CP39" s="76"/>
+      <c r="CQ39" s="76"/>
+      <c r="CR39" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS39" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="CT39" s="76"/>
+      <c r="CU39" s="76"/>
+      <c r="CV39" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="CW39" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="CX39" s="76"/>
+      <c r="CY39" s="76"/>
+      <c r="CZ39" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="DA39" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="DB39" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="DC39" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="DD39" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="DE39" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="DF39" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="DG39" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="DH39" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="DI39" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="DJ39" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="DK39" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="DL39" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="DM39" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="DN39" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="DO39" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="DP39" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="DQ39" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="DR39" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="DS39" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="DT39" s="77" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="22"/>
+    <row r="40" spans="3:124" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="CM40" s="77"/>
+      <c r="CN40" s="75"/>
+      <c r="CO40" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="CP40" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="CQ40" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR40" s="75"/>
+      <c r="CS40" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="CT40" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="CU40" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV40" s="75"/>
+      <c r="CW40" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="CX40" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="CY40" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ40" s="77"/>
+      <c r="DA40" s="77"/>
+      <c r="DB40" s="77"/>
+      <c r="DC40" s="77"/>
+      <c r="DD40" s="77"/>
+      <c r="DE40" s="77"/>
+      <c r="DF40" s="77"/>
+      <c r="DG40" s="77"/>
+      <c r="DH40" s="77"/>
+      <c r="DI40" s="77"/>
+      <c r="DJ40" s="77"/>
+      <c r="DK40" s="77"/>
+      <c r="DL40" s="77"/>
+      <c r="DM40" s="77"/>
+      <c r="DN40" s="77"/>
+      <c r="DO40" s="77"/>
+      <c r="DP40" s="77"/>
+      <c r="DQ40" s="77"/>
+      <c r="DR40" s="77"/>
+      <c r="DS40" s="77"/>
+      <c r="DT40" s="77"/>
     </row>
-    <row r="39" spans="3:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="25"/>
+    <row r="41" spans="3:124" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="CM41" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="CN41" s="79">
+        <v>77</v>
+      </c>
+      <c r="CO41" s="92">
+        <v>0</v>
+      </c>
+      <c r="CP41" s="92">
+        <v>0</v>
+      </c>
+      <c r="CQ41" s="91">
+        <v>1</v>
+      </c>
+      <c r="CR41" s="81">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="CS41" s="80">
+        <v>0.7</v>
+      </c>
+      <c r="CT41" s="79">
+        <v>0.3</v>
+      </c>
+      <c r="CU41" s="79">
+        <v>0</v>
+      </c>
+      <c r="CV41" s="82">
+        <v>2830743</v>
+      </c>
+      <c r="CW41" s="79">
+        <v>0.13</v>
+      </c>
+      <c r="CX41" s="80">
+        <v>0.87</v>
+      </c>
+      <c r="CY41" s="79">
+        <v>0</v>
+      </c>
+      <c r="CZ41" s="83">
+        <f>0.7*0.87</f>
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="DA41" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DB41" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DC41" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD41" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE41" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF41" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DG41" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DH41" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DI41" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DJ41" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DK41" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DL41" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DM41" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DN41" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DO41" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DP41" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DQ41" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DR41" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DS41" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT41" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:124" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="CM42" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="CN42" s="79">
+        <v>41</v>
+      </c>
+      <c r="CO42" s="92">
+        <v>0</v>
+      </c>
+      <c r="CP42" s="91">
+        <v>0.95</v>
+      </c>
+      <c r="CQ42" s="92">
+        <v>0.05</v>
+      </c>
+      <c r="CR42" s="81">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="CS42" s="79">
+        <v>0</v>
+      </c>
+      <c r="CT42" s="79">
+        <v>0</v>
+      </c>
+      <c r="CU42" s="80">
+        <v>1</v>
+      </c>
+      <c r="CV42" s="82">
+        <v>805050</v>
+      </c>
+      <c r="CW42" s="80">
+        <v>1</v>
+      </c>
+      <c r="CX42" s="79">
+        <v>0</v>
+      </c>
+      <c r="CY42" s="79">
+        <v>0</v>
+      </c>
+      <c r="CZ42" s="79">
+        <f>0.95</f>
+        <v>0.95</v>
+      </c>
+      <c r="DA42" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DB42" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC42" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DD42" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE42" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF42" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DG42" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DH42" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DI42" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ42" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DK42" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DL42" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DM42" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DN42" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DO42" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DP42" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DQ42" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DR42" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DS42" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DT42" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:124" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="CM43" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="CN43" s="79">
+        <v>6</v>
+      </c>
+      <c r="CO43" s="91">
+        <v>1</v>
+      </c>
+      <c r="CP43" s="92">
+        <v>0</v>
+      </c>
+      <c r="CQ43" s="92">
+        <v>0</v>
+      </c>
+      <c r="CR43" s="81">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="CS43" s="79">
+        <v>0</v>
+      </c>
+      <c r="CT43" s="79">
+        <v>0</v>
+      </c>
+      <c r="CU43" s="80">
+        <v>1</v>
+      </c>
+      <c r="CV43" s="82">
+        <v>4245806</v>
+      </c>
+      <c r="CW43" s="79">
+        <v>0</v>
+      </c>
+      <c r="CX43" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="CY43" s="80">
+        <v>0.8</v>
+      </c>
+      <c r="CZ43" s="79">
+        <f>0.8</f>
+        <v>0.8</v>
+      </c>
+      <c r="DA43" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DB43" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC43" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DD43" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE43" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF43" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DG43" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DH43" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DI43" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DJ43" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DK43" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DL43" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM43" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DN43" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DO43" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DP43" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DQ43" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DR43" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DS43" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT43" s="79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:124" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="CM44" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="CN44" s="79">
+        <v>47</v>
+      </c>
+      <c r="CO44" s="92">
+        <v>0</v>
+      </c>
+      <c r="CP44" s="91">
+        <v>0.65</v>
+      </c>
+      <c r="CQ44" s="92">
+        <v>0.35</v>
+      </c>
+      <c r="CR44" s="81">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="CS44" s="80">
+        <v>0.72</v>
+      </c>
+      <c r="CT44" s="79">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="CU44" s="79">
+        <v>0</v>
+      </c>
+      <c r="CV44" s="82">
+        <v>2540047</v>
+      </c>
+      <c r="CW44" s="79">
+        <v>0.33</v>
+      </c>
+      <c r="CX44" s="80">
+        <v>0.67</v>
+      </c>
+      <c r="CY44" s="79">
+        <v>0</v>
+      </c>
+      <c r="CZ44" s="79">
+        <f>0.65*0.72*0.67</f>
+        <v>0.31356000000000001</v>
+      </c>
+      <c r="DA44" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DB44" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DC44" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DD44" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE44" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF44" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DG44" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DH44" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DI44" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ44" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DK44" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DL44" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DM44" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DN44" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DO44" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DP44" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DQ44" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DR44" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DS44" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT44" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:124" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="CM45" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="CN45" s="79">
+        <v>83</v>
+      </c>
+      <c r="CO45" s="92">
+        <v>0</v>
+      </c>
+      <c r="CP45" s="92">
+        <v>0</v>
+      </c>
+      <c r="CQ45" s="91">
+        <v>1</v>
+      </c>
+      <c r="CR45" s="81">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="CS45" s="79">
+        <v>0.32</v>
+      </c>
+      <c r="CT45" s="80">
+        <v>0.68</v>
+      </c>
+      <c r="CU45" s="79">
+        <v>0</v>
+      </c>
+      <c r="CV45" s="82">
+        <v>191694</v>
+      </c>
+      <c r="CW45" s="80">
+        <v>1</v>
+      </c>
+      <c r="CX45" s="79">
+        <v>0</v>
+      </c>
+      <c r="CY45" s="79">
+        <v>0</v>
+      </c>
+      <c r="CZ45" s="79">
+        <f>0.68</f>
+        <v>0.68</v>
+      </c>
+      <c r="DA45" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB45" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC45" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DD45" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE45" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF45" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DG45" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DH45" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DI45" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ45" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DK45" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DL45" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DM45" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DN45" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DO45" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DP45" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DQ45" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DR45" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DS45" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT45" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:124" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="CM46" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="CN46" s="93"/>
+      <c r="CO46" s="93"/>
+      <c r="CP46" s="93"/>
+      <c r="CQ46" s="93"/>
+      <c r="CR46" s="93"/>
+      <c r="CS46" s="93"/>
+      <c r="CT46" s="93"/>
+      <c r="CU46" s="93"/>
+      <c r="CV46" s="93"/>
+      <c r="CW46" s="93"/>
+      <c r="CX46" s="93"/>
+      <c r="CY46" s="93"/>
+    </row>
+    <row r="49" spans="126:139" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="DV49" s="88"/>
+      <c r="DW49" s="89"/>
+      <c r="DX49" s="90"/>
+      <c r="DY49" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="DZ49" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="EA49" s="85" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="DV50" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="DW50" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="DX50" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="DY50" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ50" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EA50" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="DV51" s="77"/>
+      <c r="DW51" s="86"/>
+      <c r="DX51" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="DY51" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ51" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EA51" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="DV52" s="77"/>
+      <c r="DW52" s="86"/>
+      <c r="DX52" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="DY52" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ52" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EA52" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="DV53" s="77"/>
+      <c r="DW53" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="DX53" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="DY53" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ53" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EA53" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="DV54" s="77"/>
+      <c r="DW54" s="86"/>
+      <c r="DX54" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="DY54" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ54" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EA54" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="DV55" s="77"/>
+      <c r="DW55" s="86"/>
+      <c r="DX55" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="DY55" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DZ55" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EA55" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="DV56" s="77"/>
+      <c r="DW56" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="DX56" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="DY56" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="DZ56" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EA56" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="DV57" s="77"/>
+      <c r="DW57" s="86"/>
+      <c r="DX57" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="DY57" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ57" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EA57" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="DV58" s="77"/>
+      <c r="DW58" s="86"/>
+      <c r="DX58" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="DY58" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ58" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EA58" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="DV59" s="100"/>
+      <c r="DW59" s="101"/>
+      <c r="DX59" s="102"/>
+      <c r="DY59" s="94"/>
+      <c r="DZ59" s="94"/>
+      <c r="EA59" s="94"/>
+    </row>
+    <row r="60" spans="126:139" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="EC60" s="95"/>
+      <c r="ED60" s="96"/>
+      <c r="EE60" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="EF60" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG60" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="EH60" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="EI60" s="84" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="126:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC61" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="ED61" s="77"/>
+      <c r="EE61" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EF61" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EG61" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EH61" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EI61" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="126:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC62" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="ED62" s="77"/>
+      <c r="EE62" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EF62" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG62" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EH62" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EI62" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="126:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC63" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="ED63" s="77"/>
+      <c r="EE63" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EF63" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG63" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EH63" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI63" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="126:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC64" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="ED64" s="77"/>
+      <c r="EE64" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EF64" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG64" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EH64" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI64" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC65" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="ED65" s="77"/>
+      <c r="EE65" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EF65" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG65" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EH65" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI65" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC66" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="ED66" s="77"/>
+      <c r="EE66" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EF66" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG66" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EH66" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI66" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC67" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="ED67" s="77"/>
+      <c r="EE67" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EF67" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG67" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EH67" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI67" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC68" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="ED68" s="77"/>
+      <c r="EE68" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EF68" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG68" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EH68" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI68" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC69" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="ED69" s="77"/>
+      <c r="EE69" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EF69" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG69" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EH69" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI69" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC70" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="ED70" s="77"/>
+      <c r="EE70" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EF70" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EG70" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EH70" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI70" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC71" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="ED71" s="77"/>
+      <c r="EE71" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EF71" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG71" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EH71" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EI71" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC72" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="ED72" s="77"/>
+      <c r="EE72" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EF72" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG72" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EH72" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI72" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC73" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="ED73" s="77"/>
+      <c r="EE73" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EF73" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG73" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EH73" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI73" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC74" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="ED74" s="77"/>
+      <c r="EE74" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EF74" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EG74" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EH74" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EI74" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC75" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="ED75" s="77"/>
+      <c r="EE75" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EF75" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG75" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EH75" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI75" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC76" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="ED76" s="77"/>
+      <c r="EE76" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EF76" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EG76" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EH76" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EI76" s="79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC77" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="ED77" s="77"/>
+      <c r="EE77" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EF77" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG77" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EH77" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI77" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC78" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="ED78" s="77"/>
+      <c r="EE78" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EF78" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG78" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EH78" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI78" s="79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC79" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="ED79" s="77"/>
+      <c r="EE79" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EF79" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG79" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EH79" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EI79" s="79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC80" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED80" s="77"/>
+      <c r="EE80" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EF80" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG80" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="EH80" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI80" s="79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="EC81" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="ED81" s="98"/>
+      <c r="EE81" s="98"/>
+      <c r="EF81" s="98"/>
+      <c r="EG81" s="98"/>
+      <c r="EH81" s="98"/>
+      <c r="EI81" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BO6:BU6"/>
-    <mergeCell ref="BO2:BU4"/>
-    <mergeCell ref="C25:E31"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="T28:AG28"/>
-    <mergeCell ref="AH28:AU28"/>
-    <mergeCell ref="BO7:BU7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="BJ8:BN8"/>
-    <mergeCell ref="BJ11:BN11"/>
-    <mergeCell ref="BJ13:BN13"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="BJ5:BN5"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="BJ6:BN6"/>
-    <mergeCell ref="BJ7:BN7"/>
-    <mergeCell ref="BJ17:BN17"/>
-    <mergeCell ref="BJ20:BN20"/>
-    <mergeCell ref="BJ19:BN19"/>
-    <mergeCell ref="F4:S4"/>
-    <mergeCell ref="T4:AG4"/>
-    <mergeCell ref="AH4:AU4"/>
-    <mergeCell ref="BJ2:BN4"/>
-    <mergeCell ref="AH2:AU2"/>
-    <mergeCell ref="F2:S2"/>
-    <mergeCell ref="T2:AG2"/>
-    <mergeCell ref="AV2:BI2"/>
-    <mergeCell ref="AV4:BI4"/>
-    <mergeCell ref="F25:S25"/>
-    <mergeCell ref="F26:S26"/>
-    <mergeCell ref="F27:S27"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="F30:S30"/>
-    <mergeCell ref="T25:AG25"/>
-    <mergeCell ref="T31:AG31"/>
-    <mergeCell ref="T30:AG30"/>
-    <mergeCell ref="T29:AG29"/>
-    <mergeCell ref="T27:AG27"/>
-    <mergeCell ref="AH25:AU25"/>
-    <mergeCell ref="BJ9:BN9"/>
-    <mergeCell ref="BJ10:BN10"/>
-    <mergeCell ref="BJ12:BN12"/>
-    <mergeCell ref="BJ14:BN14"/>
-    <mergeCell ref="BJ15:BN15"/>
-    <mergeCell ref="BJ16:BN16"/>
-    <mergeCell ref="BJ18:BN18"/>
-    <mergeCell ref="BJ21:BN21"/>
-    <mergeCell ref="BJ22:BN22"/>
-    <mergeCell ref="BJ23:BN23"/>
-    <mergeCell ref="BJ24:BN24"/>
-    <mergeCell ref="AV25:BI25"/>
-    <mergeCell ref="BO8:BU8"/>
-    <mergeCell ref="BO9:BU9"/>
-    <mergeCell ref="BO10:BU10"/>
-    <mergeCell ref="BO11:BU11"/>
-    <mergeCell ref="BO12:BU12"/>
-    <mergeCell ref="BO13:BU13"/>
-    <mergeCell ref="BO14:BU14"/>
-    <mergeCell ref="BO15:BU15"/>
-    <mergeCell ref="BO16:BU16"/>
-    <mergeCell ref="BO17:BU17"/>
-    <mergeCell ref="BO23:BU23"/>
-    <mergeCell ref="BO24:BU24"/>
-    <mergeCell ref="BO18:BU18"/>
-    <mergeCell ref="BO19:BU19"/>
-    <mergeCell ref="BO20:BU20"/>
-    <mergeCell ref="BO21:BU21"/>
-    <mergeCell ref="BO22:BU22"/>
+  <mergeCells count="162">
+    <mergeCell ref="EC81:EI81"/>
+    <mergeCell ref="CM46:CY46"/>
+    <mergeCell ref="EC76:ED76"/>
+    <mergeCell ref="EC77:ED77"/>
+    <mergeCell ref="EC78:ED78"/>
+    <mergeCell ref="EC79:ED79"/>
+    <mergeCell ref="EC80:ED80"/>
+    <mergeCell ref="EC71:ED71"/>
+    <mergeCell ref="EC72:ED72"/>
+    <mergeCell ref="EC73:ED73"/>
+    <mergeCell ref="EC74:ED74"/>
+    <mergeCell ref="EC75:ED75"/>
+    <mergeCell ref="EC61:ED61"/>
+    <mergeCell ref="EC62:ED62"/>
+    <mergeCell ref="EC60:ED60"/>
+    <mergeCell ref="DV50:DV58"/>
+    <mergeCell ref="DV49:DX49"/>
+    <mergeCell ref="EC63:ED63"/>
+    <mergeCell ref="EC64:ED64"/>
+    <mergeCell ref="EC65:ED65"/>
+    <mergeCell ref="EC66:ED66"/>
+    <mergeCell ref="EC67:ED67"/>
+    <mergeCell ref="EC68:ED68"/>
+    <mergeCell ref="EC69:ED69"/>
+    <mergeCell ref="EC70:ED70"/>
+    <mergeCell ref="DW50:DW52"/>
+    <mergeCell ref="DW53:DW55"/>
+    <mergeCell ref="DW56:DW58"/>
+    <mergeCell ref="DB39:DB40"/>
+    <mergeCell ref="DE39:DE40"/>
+    <mergeCell ref="DH39:DH40"/>
+    <mergeCell ref="DJ39:DJ40"/>
+    <mergeCell ref="DM39:DM40"/>
+    <mergeCell ref="DO39:DO40"/>
+    <mergeCell ref="DQ39:DQ40"/>
+    <mergeCell ref="DS39:DS40"/>
+    <mergeCell ref="DR39:DR40"/>
+    <mergeCell ref="DT39:DT40"/>
+    <mergeCell ref="DI39:DI40"/>
+    <mergeCell ref="DK39:DK40"/>
+    <mergeCell ref="DL39:DL40"/>
+    <mergeCell ref="DN39:DN40"/>
+    <mergeCell ref="DP39:DP40"/>
+    <mergeCell ref="CZ39:CZ40"/>
+    <mergeCell ref="DC39:DC40"/>
+    <mergeCell ref="DD39:DD40"/>
+    <mergeCell ref="DF39:DF40"/>
+    <mergeCell ref="DG39:DG40"/>
+    <mergeCell ref="BJ31:BW31"/>
+    <mergeCell ref="CO39:CQ39"/>
+    <mergeCell ref="CS39:CU39"/>
+    <mergeCell ref="CW39:CY39"/>
+    <mergeCell ref="DA39:DA40"/>
+    <mergeCell ref="CN39:CN40"/>
+    <mergeCell ref="CR39:CR40"/>
+    <mergeCell ref="CV39:CV40"/>
+    <mergeCell ref="CM39:CM40"/>
+    <mergeCell ref="BJ26:BW26"/>
+    <mergeCell ref="BJ27:BW27"/>
+    <mergeCell ref="BJ28:BW28"/>
+    <mergeCell ref="BJ29:BW29"/>
+    <mergeCell ref="BJ30:BW30"/>
     <mergeCell ref="AV31:BI31"/>
     <mergeCell ref="C33:Q39"/>
     <mergeCell ref="AV26:BI26"/>
@@ -10097,26 +13007,157 @@
     <mergeCell ref="AH26:AU26"/>
     <mergeCell ref="F31:S31"/>
     <mergeCell ref="T26:AG26"/>
+    <mergeCell ref="CC23:CI23"/>
+    <mergeCell ref="CC24:CI24"/>
+    <mergeCell ref="CC18:CI18"/>
+    <mergeCell ref="CC19:CI19"/>
+    <mergeCell ref="CC20:CI20"/>
+    <mergeCell ref="CC21:CI21"/>
+    <mergeCell ref="CC22:CI22"/>
+    <mergeCell ref="CC13:CI13"/>
+    <mergeCell ref="CC14:CI14"/>
+    <mergeCell ref="CC15:CI15"/>
+    <mergeCell ref="CC16:CI16"/>
+    <mergeCell ref="CC17:CI17"/>
+    <mergeCell ref="CC8:CI8"/>
+    <mergeCell ref="CC9:CI9"/>
+    <mergeCell ref="CC10:CI10"/>
+    <mergeCell ref="CC11:CI11"/>
+    <mergeCell ref="CC12:CI12"/>
+    <mergeCell ref="AH25:AU25"/>
+    <mergeCell ref="BX9:CB9"/>
+    <mergeCell ref="BX10:CB10"/>
+    <mergeCell ref="BX12:CB12"/>
+    <mergeCell ref="BX14:CB14"/>
+    <mergeCell ref="BX15:CB15"/>
+    <mergeCell ref="BX16:CB16"/>
+    <mergeCell ref="BX18:CB18"/>
+    <mergeCell ref="BX21:CB21"/>
+    <mergeCell ref="BX22:CB22"/>
+    <mergeCell ref="BX23:CB23"/>
+    <mergeCell ref="BX24:CB24"/>
+    <mergeCell ref="AV25:BI25"/>
+    <mergeCell ref="BJ25:BW25"/>
+    <mergeCell ref="T25:AG25"/>
+    <mergeCell ref="T31:AG31"/>
+    <mergeCell ref="T30:AG30"/>
+    <mergeCell ref="T29:AG29"/>
+    <mergeCell ref="T27:AG27"/>
+    <mergeCell ref="F25:S25"/>
+    <mergeCell ref="F26:S26"/>
+    <mergeCell ref="F27:S27"/>
+    <mergeCell ref="F29:S29"/>
+    <mergeCell ref="F30:S30"/>
+    <mergeCell ref="F4:S4"/>
+    <mergeCell ref="T4:AG4"/>
+    <mergeCell ref="AH4:AU4"/>
+    <mergeCell ref="BX2:CB4"/>
+    <mergeCell ref="AH2:AU2"/>
+    <mergeCell ref="F2:S2"/>
+    <mergeCell ref="T2:AG2"/>
+    <mergeCell ref="AV2:BI2"/>
+    <mergeCell ref="AV4:BI4"/>
+    <mergeCell ref="BJ2:BW2"/>
+    <mergeCell ref="BJ4:BW4"/>
+    <mergeCell ref="BX5:CB5"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="BX6:CB6"/>
+    <mergeCell ref="BX7:CB7"/>
+    <mergeCell ref="BX17:CB17"/>
+    <mergeCell ref="BX20:CB20"/>
+    <mergeCell ref="BX19:CB19"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CC6:CI6"/>
+    <mergeCell ref="CC2:CI4"/>
+    <mergeCell ref="C25:E31"/>
+    <mergeCell ref="F28:S28"/>
+    <mergeCell ref="T28:AG28"/>
+    <mergeCell ref="AH28:AU28"/>
+    <mergeCell ref="CC7:CI7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="BX8:CB8"/>
+    <mergeCell ref="BX11:CB11"/>
+    <mergeCell ref="BX13:CB13"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="S5:S24">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="17" operator="greaterThan">
       <formula>1.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AG24">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="greaterThan">
       <formula>1.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU5:AU24">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="greaterThan">
       <formula>1.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI5:BI24">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="greaterThan">
       <formula>1.02</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF5:AF24">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:R24">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT5:AT24">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH5:BH24">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BW5:BW24">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
+      <formula>1.02</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BV5:BV24">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
+      <formula>0.98</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DA41:DT45">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",DA41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EE61:EI80">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",EE61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DY50:EA58">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",DY50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Anying Xiang/SEP-B/Sprint 4/Experiment/Analysis.xlsx
+++ b/Anying Xiang/SEP-B/Sprint 4/Experiment/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\G-PostGraduate\SEP-B\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF134A79-FE0D-4E1C-A8E3-AB9447E93CB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF813C6C-9B2D-4714-9363-08329378E1CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3760,6 +3760,140 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="26" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3770,13 +3904,58 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3823,188 +4002,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="26" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - 着色 4" xfId="3" builtinId="43"/>
@@ -4016,147 +4016,7 @@
     <cellStyle name="着色 2" xfId="2" builtinId="33"/>
     <cellStyle name="着色 6" xfId="5" builtinId="49"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -5670,8 +5530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:EI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DS46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="DZ56" sqref="DZ56"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BQ12" sqref="BQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5721,102 +5581,102 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43" t="s">
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43" t="s">
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="43" t="s">
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="76"/>
+      <c r="AP2" s="76"/>
+      <c r="AQ2" s="76"/>
+      <c r="AR2" s="76"/>
+      <c r="AS2" s="76"/>
+      <c r="AT2" s="76"/>
+      <c r="AU2" s="76"/>
+      <c r="AV2" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="43" t="s">
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
+      <c r="BB2" s="75"/>
+      <c r="BC2" s="75"/>
+      <c r="BD2" s="75"/>
+      <c r="BE2" s="75"/>
+      <c r="BF2" s="75"/>
+      <c r="BG2" s="75"/>
+      <c r="BH2" s="75"/>
+      <c r="BI2" s="75"/>
+      <c r="BJ2" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="BK2" s="43"/>
-      <c r="BL2" s="43"/>
-      <c r="BM2" s="43"/>
-      <c r="BN2" s="43"/>
-      <c r="BO2" s="43"/>
-      <c r="BP2" s="43"/>
-      <c r="BQ2" s="43"/>
-      <c r="BR2" s="43"/>
-      <c r="BS2" s="43"/>
-      <c r="BT2" s="43"/>
-      <c r="BU2" s="43"/>
-      <c r="BV2" s="43"/>
-      <c r="BW2" s="43"/>
-      <c r="BX2" s="45" t="s">
+      <c r="BK2" s="75"/>
+      <c r="BL2" s="75"/>
+      <c r="BM2" s="75"/>
+      <c r="BN2" s="75"/>
+      <c r="BO2" s="75"/>
+      <c r="BP2" s="75"/>
+      <c r="BQ2" s="75"/>
+      <c r="BR2" s="75"/>
+      <c r="BS2" s="75"/>
+      <c r="BT2" s="75"/>
+      <c r="BU2" s="75"/>
+      <c r="BV2" s="75"/>
+      <c r="BW2" s="75"/>
+      <c r="BX2" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="BY2" s="46"/>
-      <c r="BZ2" s="46"/>
-      <c r="CA2" s="46"/>
-      <c r="CB2" s="47"/>
-      <c r="CC2" s="20" t="s">
+      <c r="BY2" s="78"/>
+      <c r="BZ2" s="78"/>
+      <c r="CA2" s="78"/>
+      <c r="CB2" s="79"/>
+      <c r="CC2" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="CD2" s="21"/>
-      <c r="CE2" s="21"/>
-      <c r="CF2" s="21"/>
-      <c r="CG2" s="21"/>
-      <c r="CH2" s="21"/>
-      <c r="CI2" s="22"/>
+      <c r="CD2" s="88"/>
+      <c r="CE2" s="88"/>
+      <c r="CF2" s="88"/>
+      <c r="CG2" s="88"/>
+      <c r="CH2" s="88"/>
+      <c r="CI2" s="89"/>
     </row>
     <row r="3" spans="3:87" ht="55.2" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
@@ -6038,117 +5898,117 @@
       <c r="BW3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="BX3" s="48"/>
-      <c r="BY3" s="49"/>
-      <c r="BZ3" s="49"/>
-      <c r="CA3" s="49"/>
-      <c r="CB3" s="50"/>
-      <c r="CC3" s="23"/>
-      <c r="CD3" s="24"/>
-      <c r="CE3" s="24"/>
-      <c r="CF3" s="24"/>
-      <c r="CG3" s="24"/>
-      <c r="CH3" s="24"/>
-      <c r="CI3" s="25"/>
+      <c r="BX3" s="80"/>
+      <c r="BY3" s="81"/>
+      <c r="BZ3" s="81"/>
+      <c r="CA3" s="81"/>
+      <c r="CB3" s="82"/>
+      <c r="CC3" s="90"/>
+      <c r="CD3" s="91"/>
+      <c r="CE3" s="91"/>
+      <c r="CF3" s="91"/>
+      <c r="CG3" s="91"/>
+      <c r="CH3" s="91"/>
+      <c r="CI3" s="92"/>
     </row>
     <row r="4" spans="3:87" x14ac:dyDescent="0.25">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43" t="s">
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43" t="s">
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43" t="s">
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
+      <c r="AH4" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="43" t="s">
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="75"/>
+      <c r="AN4" s="75"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="AW4" s="43"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="43"/>
-      <c r="AZ4" s="43"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="43"/>
-      <c r="BC4" s="43"/>
-      <c r="BD4" s="43"/>
-      <c r="BE4" s="43"/>
-      <c r="BF4" s="43"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="43"/>
-      <c r="BI4" s="43"/>
-      <c r="BJ4" s="43" t="s">
+      <c r="AW4" s="75"/>
+      <c r="AX4" s="75"/>
+      <c r="AY4" s="75"/>
+      <c r="AZ4" s="75"/>
+      <c r="BA4" s="75"/>
+      <c r="BB4" s="75"/>
+      <c r="BC4" s="75"/>
+      <c r="BD4" s="75"/>
+      <c r="BE4" s="75"/>
+      <c r="BF4" s="75"/>
+      <c r="BG4" s="75"/>
+      <c r="BH4" s="75"/>
+      <c r="BI4" s="75"/>
+      <c r="BJ4" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="BK4" s="43"/>
-      <c r="BL4" s="43"/>
-      <c r="BM4" s="43"/>
-      <c r="BN4" s="43"/>
-      <c r="BO4" s="43"/>
-      <c r="BP4" s="43"/>
-      <c r="BQ4" s="43"/>
-      <c r="BR4" s="43"/>
-      <c r="BS4" s="43"/>
-      <c r="BT4" s="43"/>
-      <c r="BU4" s="43"/>
-      <c r="BV4" s="43"/>
-      <c r="BW4" s="43"/>
-      <c r="BX4" s="48"/>
-      <c r="BY4" s="49"/>
-      <c r="BZ4" s="49"/>
-      <c r="CA4" s="49"/>
-      <c r="CB4" s="50"/>
-      <c r="CC4" s="23"/>
-      <c r="CD4" s="24"/>
-      <c r="CE4" s="24"/>
-      <c r="CF4" s="24"/>
-      <c r="CG4" s="24"/>
-      <c r="CH4" s="24"/>
-      <c r="CI4" s="25"/>
+      <c r="BK4" s="75"/>
+      <c r="BL4" s="75"/>
+      <c r="BM4" s="75"/>
+      <c r="BN4" s="75"/>
+      <c r="BO4" s="75"/>
+      <c r="BP4" s="75"/>
+      <c r="BQ4" s="75"/>
+      <c r="BR4" s="75"/>
+      <c r="BS4" s="75"/>
+      <c r="BT4" s="75"/>
+      <c r="BU4" s="75"/>
+      <c r="BV4" s="75"/>
+      <c r="BW4" s="75"/>
+      <c r="BX4" s="80"/>
+      <c r="BY4" s="81"/>
+      <c r="BZ4" s="81"/>
+      <c r="CA4" s="81"/>
+      <c r="CB4" s="82"/>
+      <c r="CC4" s="90"/>
+      <c r="CD4" s="91"/>
+      <c r="CE4" s="91"/>
+      <c r="CF4" s="91"/>
+      <c r="CG4" s="91"/>
+      <c r="CH4" s="91"/>
+      <c r="CI4" s="92"/>
     </row>
     <row r="5" spans="3:87" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="8" t="s">
@@ -6329,72 +6189,72 @@
         <v>1.0435030536918306</v>
       </c>
       <c r="BJ5" s="10">
-        <v>1.160860345349894</v>
+        <v>1.3778409090909092</v>
       </c>
       <c r="BK5" s="4">
-        <v>1.3889112093210125</v>
+        <v>1.8128631536766182</v>
       </c>
       <c r="BL5" s="4">
-        <v>1.0300847985562041</v>
+        <v>1.0115707830656087</v>
       </c>
       <c r="BM5" s="4">
-        <v>1.0737928120555496</v>
+        <v>1.0508144145241936</v>
       </c>
       <c r="BN5" s="4">
-        <v>0.81217952875590083</v>
+        <v>1.1339989450439971</v>
       </c>
       <c r="BO5" s="4">
-        <v>1.0318380194697034</v>
+        <v>0.89613666290565941</v>
       </c>
       <c r="BP5" s="4">
-        <v>1.5081541632804347</v>
+        <v>1.3293029063658459</v>
       </c>
       <c r="BQ5" s="4">
-        <v>0.99051624474329647</v>
+        <v>1.265309087380297</v>
       </c>
       <c r="BR5" s="4">
-        <v>0.9772853509024797</v>
+        <v>1.20851576036403</v>
       </c>
       <c r="BS5" s="4">
-        <v>1.1412163510818047</v>
+        <v>1.3061460378767753</v>
       </c>
       <c r="BT5" s="4">
-        <v>0.87431635016114306</v>
+        <v>1.0092381661399408</v>
       </c>
       <c r="BU5" s="4">
-        <v>2.0553191382598532</v>
+        <v>1.0034732855215165</v>
       </c>
       <c r="BV5" s="4">
-        <v>0.68221026391801531</v>
+        <v>0.6835136315748902</v>
       </c>
       <c r="BW5" s="3">
-        <v>0.98423587060666862</v>
-      </c>
-      <c r="BX5" s="14" t="s">
+        <v>1.101315131430012</v>
+      </c>
+      <c r="BX5" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="BY5" s="15"/>
-      <c r="BZ5" s="15"/>
-      <c r="CA5" s="15"/>
-      <c r="CB5" s="16"/>
-      <c r="CC5" s="14" t="s">
+      <c r="BY5" s="67"/>
+      <c r="BZ5" s="67"/>
+      <c r="CA5" s="67"/>
+      <c r="CB5" s="68"/>
+      <c r="CC5" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="CD5" s="15"/>
-      <c r="CE5" s="15"/>
-      <c r="CF5" s="15"/>
-      <c r="CG5" s="15"/>
-      <c r="CH5" s="15"/>
-      <c r="CI5" s="16"/>
+      <c r="CD5" s="67"/>
+      <c r="CE5" s="67"/>
+      <c r="CF5" s="67"/>
+      <c r="CG5" s="67"/>
+      <c r="CH5" s="67"/>
+      <c r="CI5" s="68"/>
     </row>
     <row r="6" spans="3:87" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="83" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="102" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="10">
@@ -6566,68 +6426,68 @@
         <v>1.0224034553860806</v>
       </c>
       <c r="BJ6" s="10">
-        <v>0.9806119357770372</v>
+        <v>0.9446022727272726</v>
       </c>
       <c r="BK6" s="4">
-        <v>1.0184813177983125</v>
+        <v>1.0104187537567622</v>
       </c>
       <c r="BL6" s="4">
-        <v>1.00291554161578</v>
+        <v>1.0005943051939354</v>
       </c>
       <c r="BM6" s="4">
-        <v>1.001129079554556</v>
+        <v>0.99920730899773869</v>
       </c>
       <c r="BN6" s="4">
-        <v>1.0066716030338183</v>
+        <v>0.85939993486697208</v>
       </c>
       <c r="BO6" s="4">
-        <v>1.0696909452043111</v>
+        <v>0.70097888729905022</v>
       </c>
       <c r="BP6" s="4">
-        <v>1.0155400587990364</v>
+        <v>1.3920986592228828</v>
       </c>
       <c r="BQ6" s="4">
-        <v>1.021979034847746</v>
+        <v>0.98606510540290948</v>
       </c>
       <c r="BR6" s="4">
-        <v>1.0087754658651595</v>
+        <v>1.0626472902358086</v>
       </c>
       <c r="BS6" s="4">
-        <v>0.99743569296419476</v>
+        <v>1.2008630115068839</v>
       </c>
       <c r="BT6" s="4">
-        <v>0.93606580810056661</v>
+        <v>0.98956776289054726</v>
       </c>
       <c r="BU6" s="4">
-        <v>1.2185106319683416</v>
+        <v>0.90106611177803686</v>
       </c>
       <c r="BV6" s="4">
-        <v>1.0069006449570688</v>
+        <v>0.99339620217385716</v>
       </c>
       <c r="BW6" s="3">
-        <v>0.97807321236683142</v>
-      </c>
-      <c r="BX6" s="14" t="s">
+        <v>0.94288103901348552</v>
+      </c>
+      <c r="BX6" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="BY6" s="15"/>
-      <c r="BZ6" s="15"/>
-      <c r="CA6" s="15"/>
-      <c r="CB6" s="16"/>
-      <c r="CC6" s="17"/>
-      <c r="CD6" s="18"/>
-      <c r="CE6" s="18"/>
-      <c r="CF6" s="18"/>
-      <c r="CG6" s="18"/>
-      <c r="CH6" s="18"/>
-      <c r="CI6" s="19"/>
+      <c r="BY6" s="67"/>
+      <c r="BZ6" s="67"/>
+      <c r="CA6" s="67"/>
+      <c r="CB6" s="68"/>
+      <c r="CC6" s="45"/>
+      <c r="CD6" s="46"/>
+      <c r="CE6" s="46"/>
+      <c r="CF6" s="46"/>
+      <c r="CG6" s="46"/>
+      <c r="CH6" s="46"/>
+      <c r="CI6" s="47"/>
     </row>
     <row r="7" spans="3:87" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="39"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="38"/>
+      <c r="E7" s="102"/>
       <c r="F7" s="10">
         <v>1.0392351626520984</v>
       </c>
@@ -6797,61 +6657,61 @@
         <v>0.87032612216988892</v>
       </c>
       <c r="BJ7" s="10">
-        <v>1.0917903665555893</v>
+        <v>1.003314393939394</v>
       </c>
       <c r="BK7" s="4">
-        <v>1.0277219766974688</v>
+        <v>1.0084151472650771</v>
       </c>
       <c r="BL7" s="4">
-        <v>1.0206358262411368</v>
+        <v>0.99917483163419019</v>
       </c>
       <c r="BM7" s="4">
-        <v>1.0022071117614737</v>
+        <v>1.0313422989316541</v>
       </c>
       <c r="BN7" s="4">
-        <v>0.65972021488302857</v>
+        <v>1.003457553367735</v>
       </c>
       <c r="BO7" s="4">
-        <v>0.61079126910948334</v>
+        <v>0.96745900162807341</v>
       </c>
       <c r="BP7" s="4">
-        <v>2.1095240743785673</v>
+        <v>1.0362993624533208</v>
       </c>
       <c r="BQ7" s="4">
-        <v>1.1122653282177284</v>
+        <v>0.97685876029500296</v>
       </c>
       <c r="BR7" s="4">
-        <v>1.0036566747573989</v>
+        <v>1.0159881108942641</v>
       </c>
       <c r="BS7" s="4">
-        <v>1.3417062217896683</v>
+        <v>0.95156931659920674</v>
       </c>
       <c r="BT7" s="4">
-        <v>0.93687714006051626</v>
+        <v>0.89553937550634277</v>
       </c>
       <c r="BU7" s="4">
-        <v>1.1238635870809943</v>
+        <v>0.86242380288265175</v>
       </c>
       <c r="BV7" s="4">
-        <v>0.76986507339848853</v>
+        <v>1.0108127553511319</v>
       </c>
       <c r="BW7" s="3">
-        <v>0.88599826061978848</v>
-      </c>
-      <c r="BX7" s="14" t="s">
+        <v>1.0474027051092676</v>
+      </c>
+      <c r="BX7" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="BY7" s="15"/>
-      <c r="BZ7" s="15"/>
-      <c r="CA7" s="15"/>
-      <c r="CB7" s="16"/>
-      <c r="CC7" s="14"/>
-      <c r="CD7" s="15"/>
-      <c r="CE7" s="15"/>
-      <c r="CF7" s="15"/>
-      <c r="CG7" s="15"/>
-      <c r="CH7" s="15"/>
-      <c r="CI7" s="16"/>
+      <c r="BY7" s="67"/>
+      <c r="BZ7" s="67"/>
+      <c r="CA7" s="67"/>
+      <c r="CB7" s="68"/>
+      <c r="CC7" s="66"/>
+      <c r="CD7" s="67"/>
+      <c r="CE7" s="67"/>
+      <c r="CF7" s="67"/>
+      <c r="CG7" s="67"/>
+      <c r="CH7" s="67"/>
+      <c r="CI7" s="68"/>
     </row>
     <row r="8" spans="3:87" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
@@ -7032,70 +6892,70 @@
         <v>0.98845782426343676</v>
       </c>
       <c r="BJ8" s="10">
-        <v>1.0003029385034838</v>
+        <v>0.9962121212121211</v>
       </c>
       <c r="BK8" s="4">
-        <v>1.0359582161510648</v>
+        <v>1.0060108194750552</v>
       </c>
       <c r="BL8" s="4">
-        <v>0.99582374898625525</v>
+        <v>1.0037741324510296</v>
       </c>
       <c r="BM8" s="4">
-        <v>1.0068347490132705</v>
+        <v>1.0030568887223719</v>
       </c>
       <c r="BN8" s="4">
-        <v>0.92306480867831187</v>
+        <v>1.0142151713283452</v>
       </c>
       <c r="BO8" s="4">
-        <v>1.2653252627105736</v>
+        <v>1.0133284269085217</v>
       </c>
       <c r="BP8" s="4">
-        <v>1.8536150740601107</v>
+        <v>1.1454747601727011</v>
       </c>
       <c r="BQ8" s="4">
-        <v>1.1727006822851593</v>
+        <v>0.99989625374485303</v>
       </c>
       <c r="BR8" s="4">
-        <v>1.1438189256223434</v>
+        <v>1.0642963205401683</v>
       </c>
       <c r="BS8" s="4">
-        <v>1.1431629237513456</v>
+        <v>0.95303436721696833</v>
       </c>
       <c r="BT8" s="4">
-        <v>1.0650827686183839</v>
+        <v>0.92475399509251999</v>
       </c>
       <c r="BU8" s="4">
-        <v>1.2093166415116117</v>
+        <v>0.96126936249004946</v>
       </c>
       <c r="BV8" s="4">
-        <v>0.90110790171329092</v>
+        <v>0.99998972171544565</v>
       </c>
       <c r="BW8" s="3">
-        <v>0.81252068800036736</v>
-      </c>
-      <c r="BX8" s="14" t="s">
+        <v>0.99702456679495122</v>
+      </c>
+      <c r="BX8" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="BY8" s="15"/>
-      <c r="BZ8" s="15"/>
-      <c r="CA8" s="15"/>
-      <c r="CB8" s="16"/>
-      <c r="CC8" s="14"/>
-      <c r="CD8" s="15"/>
-      <c r="CE8" s="15"/>
-      <c r="CF8" s="15"/>
-      <c r="CG8" s="15"/>
-      <c r="CH8" s="15"/>
-      <c r="CI8" s="16"/>
+      <c r="BY8" s="67"/>
+      <c r="BZ8" s="67"/>
+      <c r="CA8" s="67"/>
+      <c r="CB8" s="68"/>
+      <c r="CC8" s="66"/>
+      <c r="CD8" s="67"/>
+      <c r="CE8" s="67"/>
+      <c r="CF8" s="67"/>
+      <c r="CG8" s="67"/>
+      <c r="CH8" s="67"/>
+      <c r="CI8" s="68"/>
     </row>
     <row r="9" spans="3:87" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="83" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="84" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="10">
@@ -7267,66 +7127,66 @@
         <v>0.88390789022774152</v>
       </c>
       <c r="BJ9" s="10">
-        <v>0.98545895183277799</v>
+        <v>0.94199810606060597</v>
       </c>
       <c r="BK9" s="4">
-        <v>1.015468059461631</v>
+        <v>1.0094169505109198</v>
       </c>
       <c r="BL9" s="4">
-        <v>1.0023467418234229</v>
+        <v>1.007841633023328</v>
       </c>
       <c r="BM9" s="4">
-        <v>1.0091530641317787</v>
+        <v>1.0369769671652667</v>
       </c>
       <c r="BN9" s="4">
-        <v>1.0201254462568117</v>
+        <v>0.8689903840530665</v>
       </c>
       <c r="BO9" s="4">
-        <v>1.0842544468153177</v>
+        <v>0.6869802803006525</v>
       </c>
       <c r="BP9" s="4">
-        <v>1.0518707832947187</v>
+        <v>1.0716079532305443</v>
       </c>
       <c r="BQ9" s="4">
-        <v>1.1133733097555301</v>
+        <v>0.98780041129668117</v>
       </c>
       <c r="BR9" s="4">
-        <v>1.0276563857994723</v>
+        <v>0.94629765807376998</v>
       </c>
       <c r="BS9" s="4">
-        <v>1.081806354323815</v>
+        <v>1.1150162065151408</v>
       </c>
       <c r="BT9" s="4">
-        <v>1.0036119047700771</v>
+        <v>0.91216648515979082</v>
       </c>
       <c r="BU9" s="4">
-        <v>1.3644555307489636</v>
+        <v>0.82052063513383788</v>
       </c>
       <c r="BV9" s="4">
-        <v>0.98714834012582597</v>
+        <v>0.99797774751393997</v>
       </c>
       <c r="BW9" s="3">
-        <v>0.92620253689771592</v>
-      </c>
-      <c r="BX9" s="14"/>
-      <c r="BY9" s="15"/>
-      <c r="BZ9" s="15"/>
-      <c r="CA9" s="15"/>
-      <c r="CB9" s="16"/>
-      <c r="CC9" s="17"/>
-      <c r="CD9" s="18"/>
-      <c r="CE9" s="18"/>
-      <c r="CF9" s="18"/>
-      <c r="CG9" s="18"/>
-      <c r="CH9" s="18"/>
-      <c r="CI9" s="19"/>
+        <v>1.0450845876374246</v>
+      </c>
+      <c r="BX9" s="66"/>
+      <c r="BY9" s="67"/>
+      <c r="BZ9" s="67"/>
+      <c r="CA9" s="67"/>
+      <c r="CB9" s="68"/>
+      <c r="CC9" s="45"/>
+      <c r="CD9" s="46"/>
+      <c r="CE9" s="46"/>
+      <c r="CF9" s="46"/>
+      <c r="CG9" s="46"/>
+      <c r="CH9" s="46"/>
+      <c r="CI9" s="47"/>
     </row>
     <row r="10" spans="3:87" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="39"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="84"/>
       <c r="F10" s="10">
         <v>1.0427116960516514</v>
       </c>
@@ -7496,61 +7356,61 @@
         <v>0.98470598971580525</v>
       </c>
       <c r="BJ10" s="10">
-        <v>0.98394425931535889</v>
+        <v>1.0040246212121211</v>
       </c>
       <c r="BK10" s="4">
-        <v>1.017476898352752</v>
+        <v>1.0132238028451213</v>
       </c>
       <c r="BL10" s="4">
-        <v>1.0021773384781409</v>
+        <v>0.9987374817071224</v>
       </c>
       <c r="BM10" s="4">
-        <v>0.99988587483472491</v>
+        <v>0.99583834544870287</v>
       </c>
       <c r="BN10" s="4">
-        <v>1.0136192216840771</v>
+        <v>0.99042572703278542</v>
       </c>
       <c r="BO10" s="4">
-        <v>0.97167172589445139</v>
+        <v>0.96503153352078996</v>
       </c>
       <c r="BP10" s="4">
-        <v>1.0323175531619047</v>
+        <v>1.1552912159782061</v>
       </c>
       <c r="BQ10" s="4">
-        <v>1.0722960118696949</v>
+        <v>0.97578156089048984</v>
       </c>
       <c r="BR10" s="4">
-        <v>1.0180550246639568</v>
+        <v>1.053328964993909</v>
       </c>
       <c r="BS10" s="4">
-        <v>0.99801751441118924</v>
+        <v>0.93845219927084222</v>
       </c>
       <c r="BT10" s="4">
-        <v>1.0004056591426389</v>
+        <v>0.91445934407750518</v>
       </c>
       <c r="BU10" s="4">
-        <v>0.92978728894932627</v>
+        <v>0.99318062946182695</v>
       </c>
       <c r="BV10" s="4">
-        <v>0.99798599295691048</v>
+        <v>1.011097977747514</v>
       </c>
       <c r="BW10" s="3">
-        <v>0.99262998126637458</v>
-      </c>
-      <c r="BX10" s="14" t="s">
+        <v>1.0087355925960566</v>
+      </c>
+      <c r="BX10" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="BY10" s="15"/>
-      <c r="BZ10" s="15"/>
-      <c r="CA10" s="15"/>
-      <c r="CB10" s="16"/>
-      <c r="CC10" s="17"/>
-      <c r="CD10" s="18"/>
-      <c r="CE10" s="18"/>
-      <c r="CF10" s="18"/>
-      <c r="CG10" s="18"/>
-      <c r="CH10" s="18"/>
-      <c r="CI10" s="19"/>
+      <c r="BY10" s="67"/>
+      <c r="BZ10" s="67"/>
+      <c r="CA10" s="67"/>
+      <c r="CB10" s="68"/>
+      <c r="CC10" s="45"/>
+      <c r="CD10" s="46"/>
+      <c r="CE10" s="46"/>
+      <c r="CF10" s="46"/>
+      <c r="CG10" s="46"/>
+      <c r="CH10" s="46"/>
+      <c r="CI10" s="47"/>
     </row>
     <row r="11" spans="3:87" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
@@ -7731,68 +7591,68 @@
         <v>1.0124450524900399</v>
       </c>
       <c r="BJ11" s="10">
-        <v>0.99182066040593775</v>
+        <v>1.0142045454545454</v>
       </c>
       <c r="BK11" s="4">
-        <v>1.0347529128163921</v>
+        <v>1.0084151472650771</v>
       </c>
       <c r="BL11" s="4">
-        <v>1.0061769548519413</v>
+        <v>0.98691288389549425</v>
       </c>
       <c r="BM11" s="4">
-        <v>0.99290930839467839</v>
+        <v>1.0161361137634382</v>
       </c>
       <c r="BN11" s="4">
-        <v>0.90664677067131794</v>
+        <v>1.2366806700833506</v>
       </c>
       <c r="BO11" s="4">
-        <v>1.2218423848235243</v>
+        <v>1.0435767779663423</v>
       </c>
       <c r="BP11" s="4">
-        <v>1.4766996952740863</v>
+        <v>0.46119219934099764</v>
       </c>
       <c r="BQ11" s="4">
-        <v>1.0956538116311603</v>
+        <v>0.93878588570557209</v>
       </c>
       <c r="BR11" s="4">
-        <v>1.0418802278156996</v>
+        <v>0.9407986384753696</v>
       </c>
       <c r="BS11" s="4">
-        <v>1.1434861601215389</v>
+        <v>0.65095931265948381</v>
       </c>
       <c r="BT11" s="4">
-        <v>0.77160913023384226</v>
+        <v>0.72531482222032417</v>
       </c>
       <c r="BU11" s="4">
-        <v>1.1261286173011105</v>
+        <v>0.99291673860095508</v>
       </c>
       <c r="BV11" s="4">
-        <v>0.93196692122027458</v>
+        <v>0.88092350386720453</v>
       </c>
       <c r="BW11" s="3">
-        <v>0.91718486425178114</v>
-      </c>
-      <c r="BX11" s="14"/>
-      <c r="BY11" s="15"/>
-      <c r="BZ11" s="15"/>
-      <c r="CA11" s="15"/>
-      <c r="CB11" s="16"/>
-      <c r="CC11" s="14"/>
-      <c r="CD11" s="15"/>
-      <c r="CE11" s="15"/>
-      <c r="CF11" s="15"/>
-      <c r="CG11" s="15"/>
-      <c r="CH11" s="15"/>
-      <c r="CI11" s="16"/>
+        <v>1.211050472065192</v>
+      </c>
+      <c r="BX11" s="66"/>
+      <c r="BY11" s="67"/>
+      <c r="BZ11" s="67"/>
+      <c r="CA11" s="67"/>
+      <c r="CB11" s="68"/>
+      <c r="CC11" s="66"/>
+      <c r="CD11" s="67"/>
+      <c r="CE11" s="67"/>
+      <c r="CF11" s="67"/>
+      <c r="CG11" s="67"/>
+      <c r="CH11" s="67"/>
+      <c r="CI11" s="68"/>
     </row>
     <row r="12" spans="3:87" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="83" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="84" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="10">
@@ -7964,68 +7824,68 @@
         <v>0.82906020385054902</v>
       </c>
       <c r="BJ12" s="10">
-        <v>0.98788245986064838</v>
+        <v>0.93394886363636365</v>
       </c>
       <c r="BK12" s="4">
-        <v>1.0341502611490558</v>
+        <v>1.0088158685634143</v>
       </c>
       <c r="BL12" s="4">
-        <v>1.0054762163556294</v>
+        <v>1.0156215743990795</v>
       </c>
       <c r="BM12" s="4">
-        <v>0.98131664972278987</v>
+        <v>1.0161043846253022</v>
       </c>
       <c r="BN12" s="4">
-        <v>1.0064290549720325</v>
+        <v>0.87703388484032097</v>
       </c>
       <c r="BO12" s="4">
-        <v>1.0614123005708462</v>
+        <v>0.69045882413779713</v>
       </c>
       <c r="BP12" s="4">
-        <v>1.0151273059747876</v>
+        <v>1.2458629027542447</v>
       </c>
       <c r="BQ12" s="4">
-        <v>0.95922023592404515</v>
+        <v>0.9981701611424304</v>
       </c>
       <c r="BR12" s="4">
-        <v>1.0084925423558948</v>
+        <v>1.0177579336866032</v>
       </c>
       <c r="BS12" s="4">
-        <v>0.9973494979385944</v>
+        <v>1.181324904038149</v>
       </c>
       <c r="BT12" s="4">
-        <v>0.93561614386367498</v>
+        <v>0.97632111769410568</v>
       </c>
       <c r="BU12" s="4">
-        <v>1.1388781263563927</v>
+        <v>0.94730522901748282</v>
       </c>
       <c r="BV12" s="4">
-        <v>0.98805840224745778</v>
+        <v>1.0022226790348692</v>
       </c>
       <c r="BW12" s="3">
-        <v>0.99416814683047028</v>
-      </c>
-      <c r="BX12" s="14" t="s">
+        <v>0.96997048312927914</v>
+      </c>
+      <c r="BX12" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="BY12" s="15"/>
-      <c r="BZ12" s="15"/>
-      <c r="CA12" s="15"/>
-      <c r="CB12" s="16"/>
-      <c r="CC12" s="17"/>
-      <c r="CD12" s="18"/>
-      <c r="CE12" s="18"/>
-      <c r="CF12" s="18"/>
-      <c r="CG12" s="18"/>
-      <c r="CH12" s="18"/>
-      <c r="CI12" s="19"/>
+      <c r="BY12" s="67"/>
+      <c r="BZ12" s="67"/>
+      <c r="CA12" s="67"/>
+      <c r="CB12" s="68"/>
+      <c r="CC12" s="45"/>
+      <c r="CD12" s="46"/>
+      <c r="CE12" s="46"/>
+      <c r="CF12" s="46"/>
+      <c r="CG12" s="46"/>
+      <c r="CH12" s="46"/>
+      <c r="CI12" s="47"/>
     </row>
     <row r="13" spans="3:87" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="39"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="84"/>
       <c r="F13" s="10">
         <v>1.0370002483238141</v>
       </c>
@@ -8195,70 +8055,70 @@
         <v>0.88533027552387078</v>
       </c>
       <c r="BJ13" s="10">
-        <v>1.0027264465313543</v>
+        <v>0.9422348484848484</v>
       </c>
       <c r="BK13" s="4">
-        <v>1.0206910405785456</v>
+        <v>1.0118212783009417</v>
       </c>
       <c r="BL13" s="4">
-        <v>1.0047057583959464</v>
+        <v>1.0153100923675615</v>
       </c>
       <c r="BM13" s="4">
-        <v>0.97480905216425051</v>
+        <v>1.0066818705917087</v>
       </c>
       <c r="BN13" s="4">
-        <v>0.90193365799638703</v>
+        <v>0.8862313731229472</v>
       </c>
       <c r="BO13" s="4">
-        <v>1.236803739349059</v>
+        <v>0.70879411256690406</v>
       </c>
       <c r="BP13" s="4">
-        <v>1.7969202158446194</v>
+        <v>1.2613327751085202</v>
       </c>
       <c r="BQ13" s="4">
-        <v>1.0726921656805146</v>
+        <v>0.98769865702283322</v>
       </c>
       <c r="BR13" s="4">
-        <v>1.1142510090415747</v>
+        <v>1.0293486070545486</v>
       </c>
       <c r="BS13" s="4">
-        <v>1.1425451893850815</v>
+        <v>1.1116602418109294</v>
       </c>
       <c r="BT13" s="4">
-        <v>1.0037438653541479</v>
+        <v>1.049307689582476</v>
       </c>
       <c r="BU13" s="4">
-        <v>3.2134752004369846</v>
+        <v>1.2311901112831045</v>
       </c>
       <c r="BV13" s="4">
-        <v>0.93660823804059667</v>
+        <v>0.98684122619934733</v>
       </c>
       <c r="BW13" s="3">
-        <v>0.72430260102518285</v>
-      </c>
-      <c r="BX13" s="14" t="s">
+        <v>0.94226870901739435</v>
+      </c>
+      <c r="BX13" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="BY13" s="15"/>
-      <c r="BZ13" s="15"/>
-      <c r="CA13" s="15"/>
-      <c r="CB13" s="16"/>
-      <c r="CC13" s="14"/>
-      <c r="CD13" s="15"/>
-      <c r="CE13" s="15"/>
-      <c r="CF13" s="15"/>
-      <c r="CG13" s="15"/>
-      <c r="CH13" s="15"/>
-      <c r="CI13" s="16"/>
+      <c r="BY13" s="67"/>
+      <c r="BZ13" s="67"/>
+      <c r="CA13" s="67"/>
+      <c r="CB13" s="68"/>
+      <c r="CC13" s="66"/>
+      <c r="CD13" s="67"/>
+      <c r="CE13" s="67"/>
+      <c r="CF13" s="67"/>
+      <c r="CG13" s="67"/>
+      <c r="CH13" s="67"/>
+      <c r="CI13" s="68"/>
     </row>
     <row r="14" spans="3:87" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="83" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="84" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="10">
@@ -8430,68 +8290,68 @@
         <v>0.82223082577775175</v>
       </c>
       <c r="BJ14" s="10">
-        <v>0.98727658285368092</v>
+        <v>1.0080492424242424</v>
       </c>
       <c r="BK14" s="4">
-        <v>1.0249096022498996</v>
+        <v>1.0132238028451213</v>
       </c>
       <c r="BL14" s="4">
-        <v>1.0064364201004128</v>
+        <v>0.9890363162475837</v>
       </c>
       <c r="BM14" s="4">
-        <v>1.0030246819313928</v>
+        <v>0.98291145795010637</v>
       </c>
       <c r="BN14" s="4">
-        <v>0.90231292282468911</v>
+        <v>1.2262896362906905</v>
       </c>
       <c r="BO14" s="4">
-        <v>1.2858172302136655</v>
+        <v>1.0831073459350342</v>
       </c>
       <c r="BP14" s="4">
-        <v>1.7993919599184109</v>
+        <v>0.63144409922633349</v>
       </c>
       <c r="BQ14" s="4">
-        <v>1.1372098259566017</v>
+        <v>0.92829121233459966</v>
       </c>
       <c r="BR14" s="4">
-        <v>1.1151266676493237</v>
+        <v>0.99933061505445464</v>
       </c>
       <c r="BS14" s="4">
-        <v>1.1415323928100847</v>
+        <v>0.64945246261994316</v>
       </c>
       <c r="BT14" s="4">
-        <v>0.93517627069188114</v>
+        <v>0.94186898536038666</v>
       </c>
       <c r="BU14" s="4">
-        <v>0.97039385612120876</v>
+        <v>0.86982789424947882</v>
       </c>
       <c r="BV14" s="4">
-        <v>0.94491354409844497</v>
+        <v>0.86256134851093358</v>
       </c>
       <c r="BW14" s="3">
-        <v>0.85157909931599762</v>
-      </c>
-      <c r="BX14" s="14" t="s">
+        <v>1.1230033858745101</v>
+      </c>
+      <c r="BX14" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="BY14" s="15"/>
-      <c r="BZ14" s="15"/>
-      <c r="CA14" s="15"/>
-      <c r="CB14" s="16"/>
-      <c r="CC14" s="17"/>
-      <c r="CD14" s="18"/>
-      <c r="CE14" s="18"/>
-      <c r="CF14" s="18"/>
-      <c r="CG14" s="18"/>
-      <c r="CH14" s="18"/>
-      <c r="CI14" s="19"/>
+      <c r="BY14" s="67"/>
+      <c r="BZ14" s="67"/>
+      <c r="CA14" s="67"/>
+      <c r="CB14" s="68"/>
+      <c r="CC14" s="45"/>
+      <c r="CD14" s="46"/>
+      <c r="CE14" s="46"/>
+      <c r="CF14" s="46"/>
+      <c r="CG14" s="46"/>
+      <c r="CH14" s="46"/>
+      <c r="CI14" s="47"/>
     </row>
     <row r="15" spans="3:87" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="39"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="84"/>
       <c r="F15" s="10">
         <v>1.036006953066799</v>
       </c>
@@ -8661,61 +8521,61 @@
         <v>1.0589085571624313</v>
       </c>
       <c r="BJ15" s="10">
-        <v>1.0842169039684943</v>
+        <v>0.94034090909090906</v>
       </c>
       <c r="BK15" s="4">
-        <v>1.0070309361189234</v>
+        <v>1.0102183931075939</v>
       </c>
       <c r="BL15" s="4">
-        <v>1.0164016428003368</v>
+        <v>0.98687541136113355</v>
       </c>
       <c r="BM15" s="4">
-        <v>0.9997285698144972</v>
+        <v>1.0207360399361678</v>
       </c>
       <c r="BN15" s="4">
-        <v>0.71059198994047601</v>
+        <v>0.81673375756991384</v>
       </c>
       <c r="BO15" s="4">
-        <v>1.3154255675532844</v>
+        <v>0.70219980836498341</v>
       </c>
       <c r="BP15" s="4">
-        <v>2.0723359245119686</v>
+        <v>1.3219630494071819</v>
       </c>
       <c r="BQ15" s="4">
-        <v>1.0462409469547962</v>
+        <v>1.0057811861622326</v>
       </c>
       <c r="BR15" s="4">
-        <v>1.0336380248502341</v>
+        <v>1.0095003491268091</v>
       </c>
       <c r="BS15" s="4">
-        <v>1.3416415704962767</v>
+        <v>1.1838307347707533</v>
       </c>
       <c r="BT15" s="4">
-        <v>1.0677220486731624</v>
+        <v>1.0402604534695314</v>
       </c>
       <c r="BU15" s="4">
-        <v>1.0927343407541641</v>
+        <v>1.1320109469082977</v>
       </c>
       <c r="BV15" s="4">
-        <v>0.78166026985320303</v>
+        <v>0.97499550325050754</v>
       </c>
       <c r="BW15" s="3">
-        <v>0.82241060201834137</v>
-      </c>
-      <c r="BX15" s="14" t="s">
+        <v>0.93293095209833621</v>
+      </c>
+      <c r="BX15" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="BY15" s="15"/>
-      <c r="BZ15" s="15"/>
-      <c r="CA15" s="15"/>
-      <c r="CB15" s="16"/>
-      <c r="CC15" s="63"/>
-      <c r="CD15" s="64"/>
-      <c r="CE15" s="64"/>
-      <c r="CF15" s="64"/>
-      <c r="CG15" s="64"/>
-      <c r="CH15" s="64"/>
-      <c r="CI15" s="65"/>
+      <c r="BY15" s="67"/>
+      <c r="BZ15" s="67"/>
+      <c r="CA15" s="67"/>
+      <c r="CB15" s="68"/>
+      <c r="CC15" s="69"/>
+      <c r="CD15" s="70"/>
+      <c r="CE15" s="70"/>
+      <c r="CF15" s="70"/>
+      <c r="CG15" s="70"/>
+      <c r="CH15" s="70"/>
+      <c r="CI15" s="71"/>
     </row>
     <row r="16" spans="3:87" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8" t="s">
@@ -8896,70 +8756,70 @@
         <v>0.97204043647316241</v>
       </c>
       <c r="BJ16" s="10">
-        <v>1.0145410481672221</v>
+        <v>0.99360795454545447</v>
       </c>
       <c r="BK16" s="4">
-        <v>1.0347529128163921</v>
+        <v>1.0048086555800442</v>
       </c>
       <c r="BL16" s="4">
-        <v>1.0147658699451885</v>
+        <v>0.99882090603775486</v>
       </c>
       <c r="BM16" s="4">
-        <v>0.9911305017373766</v>
+        <v>1.0435078474948389</v>
       </c>
       <c r="BN16" s="4">
-        <v>1.209500365836857</v>
+        <v>0.95841979139539413</v>
       </c>
       <c r="BO16" s="4">
-        <v>1.2001331601293976</v>
+        <v>0.95533527083571068</v>
       </c>
       <c r="BP16" s="4">
-        <v>0.92860039039347475</v>
+        <v>0.97075247527460073</v>
       </c>
       <c r="BQ16" s="4">
-        <v>1.2038485071110347</v>
+        <v>0.97546367815707469</v>
       </c>
       <c r="BR16" s="4">
-        <v>1.1428625680692373</v>
+        <v>0.96312524015305034</v>
       </c>
       <c r="BS16" s="4">
-        <v>0.86730978190749319</v>
+        <v>0.93823103190347246</v>
       </c>
       <c r="BT16" s="4">
-        <v>0.77545075581757805</v>
+        <v>0.78267661654359144</v>
       </c>
       <c r="BU16" s="4">
-        <v>1.5414893536948899</v>
+        <v>1.2499999087514313</v>
       </c>
       <c r="BV16" s="4">
-        <v>0.92644719661298625</v>
+        <v>1.0150833825834469</v>
       </c>
       <c r="BW16" s="3">
-        <v>0.96938593419094843</v>
-      </c>
-      <c r="BX16" s="14" t="s">
+        <v>1.0553251606454495</v>
+      </c>
+      <c r="BX16" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="BY16" s="15"/>
-      <c r="BZ16" s="15"/>
-      <c r="CA16" s="15"/>
-      <c r="CB16" s="16"/>
-      <c r="CC16" s="17"/>
-      <c r="CD16" s="18"/>
-      <c r="CE16" s="18"/>
-      <c r="CF16" s="18"/>
-      <c r="CG16" s="18"/>
-      <c r="CH16" s="18"/>
-      <c r="CI16" s="19"/>
+      <c r="BY16" s="67"/>
+      <c r="BZ16" s="67"/>
+      <c r="CA16" s="67"/>
+      <c r="CB16" s="68"/>
+      <c r="CC16" s="45"/>
+      <c r="CD16" s="46"/>
+      <c r="CE16" s="46"/>
+      <c r="CF16" s="46"/>
+      <c r="CG16" s="46"/>
+      <c r="CH16" s="46"/>
+      <c r="CI16" s="47"/>
     </row>
     <row r="17" spans="3:87" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="83" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="84" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="10">
@@ -9131,68 +8991,68 @@
         <v>0.84461664977929718</v>
       </c>
       <c r="BJ17" s="10">
-        <v>0.98273250530142375</v>
+        <v>1.009469696969697</v>
       </c>
       <c r="BK17" s="4">
-        <v>1.0299316994777019</v>
+        <v>1.0090162292125826</v>
       </c>
       <c r="BL17" s="4">
-        <v>1.0131078038118337</v>
+        <v>1.0057727231926217</v>
       </c>
       <c r="BM17" s="4">
-        <v>1.0021343770315678</v>
+        <v>1.0027979948259613</v>
       </c>
       <c r="BN17" s="4">
-        <v>1.0232853532945292</v>
+        <v>1.0403830514453523</v>
       </c>
       <c r="BO17" s="4">
-        <v>1.0962833895750281</v>
+        <v>1.0334799511593999</v>
       </c>
       <c r="BP17" s="4">
-        <v>1.0693803831443787</v>
+        <v>1.1552434052340208</v>
       </c>
       <c r="BQ17" s="4">
-        <v>1.0616051318507986</v>
+        <v>0.99916974884461973</v>
       </c>
       <c r="BR17" s="4">
-        <v>1.0342204654321434</v>
+        <v>1.0842071908263926</v>
       </c>
       <c r="BS17" s="4">
-        <v>0.99744286750934275</v>
+        <v>0.93901919950666479</v>
       </c>
       <c r="BT17" s="4">
-        <v>1.0627416237609022</v>
+        <v>0.97051144172755732</v>
       </c>
       <c r="BU17" s="4">
-        <v>1.1632259019529905</v>
+        <v>0.99137628026304403</v>
       </c>
       <c r="BV17" s="4">
-        <v>0.96504570094567321</v>
+        <v>0.98995811599044115</v>
       </c>
       <c r="BW17" s="3">
-        <v>0.94983327094635361</v>
-      </c>
-      <c r="BX17" s="14" t="s">
+        <v>0.9860435157765598</v>
+      </c>
+      <c r="BX17" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="BY17" s="15"/>
-      <c r="BZ17" s="15"/>
-      <c r="CA17" s="15"/>
-      <c r="CB17" s="16"/>
-      <c r="CC17" s="63"/>
-      <c r="CD17" s="64"/>
-      <c r="CE17" s="64"/>
-      <c r="CF17" s="64"/>
-      <c r="CG17" s="64"/>
-      <c r="CH17" s="64"/>
-      <c r="CI17" s="65"/>
+      <c r="BY17" s="67"/>
+      <c r="BZ17" s="67"/>
+      <c r="CA17" s="67"/>
+      <c r="CB17" s="68"/>
+      <c r="CC17" s="69"/>
+      <c r="CD17" s="70"/>
+      <c r="CE17" s="70"/>
+      <c r="CF17" s="70"/>
+      <c r="CG17" s="70"/>
+      <c r="CH17" s="70"/>
+      <c r="CI17" s="71"/>
     </row>
     <row r="18" spans="3:87" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="39"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="10">
         <v>0.93642910355103048</v>
       </c>
@@ -9362,70 +9222,70 @@
         <v>1.0753906201519212</v>
       </c>
       <c r="BJ18" s="10">
-        <v>1.0636170857315965</v>
+        <v>0.93868371212121204</v>
       </c>
       <c r="BK18" s="4">
-        <v>1.0192848533547609</v>
+        <v>1.0162292125826489</v>
       </c>
       <c r="BL18" s="4">
-        <v>1.0341101950791665</v>
+        <v>1.0116279190701905</v>
       </c>
       <c r="BM18" s="4">
-        <v>1.015360112046821</v>
+        <v>1.0109772581338472</v>
       </c>
       <c r="BN18" s="4">
-        <v>0.66345235767192257</v>
+        <v>0.88657477397632856</v>
       </c>
       <c r="BO18" s="4">
-        <v>0.64963317362477269</v>
+        <v>0.70481891661258156</v>
       </c>
       <c r="BP18" s="4">
-        <v>2.1243926669343192</v>
+        <v>1.2613614259353949</v>
       </c>
       <c r="BQ18" s="4">
-        <v>1.1475756368964773</v>
+        <v>0.97707738855507709</v>
       </c>
       <c r="BR18" s="4">
-        <v>1.0100307157920536</v>
+        <v>1.0295719194979378</v>
       </c>
       <c r="BS18" s="4">
-        <v>1.3431212551185454</v>
+        <v>1.1126714883404145</v>
       </c>
       <c r="BT18" s="4">
-        <v>1.0006207207079947</v>
+        <v>0.96790630443588577</v>
       </c>
       <c r="BU18" s="4">
-        <v>1.138757876710242</v>
+        <v>1.1193456455635493</v>
       </c>
       <c r="BV18" s="4">
-        <v>0.75865548213508482</v>
+        <v>0.99188015520209682</v>
       </c>
       <c r="BW18" s="3">
-        <v>0.86534793459515802</v>
-      </c>
-      <c r="BX18" s="14" t="s">
+        <v>0.9653070947571436</v>
+      </c>
+      <c r="BX18" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="BY18" s="15"/>
-      <c r="BZ18" s="15"/>
-      <c r="CA18" s="15"/>
-      <c r="CB18" s="16"/>
-      <c r="CC18" s="17"/>
-      <c r="CD18" s="18"/>
-      <c r="CE18" s="18"/>
-      <c r="CF18" s="18"/>
-      <c r="CG18" s="18"/>
-      <c r="CH18" s="18"/>
-      <c r="CI18" s="19"/>
+      <c r="BY18" s="67"/>
+      <c r="BZ18" s="67"/>
+      <c r="CA18" s="67"/>
+      <c r="CB18" s="68"/>
+      <c r="CC18" s="45"/>
+      <c r="CD18" s="46"/>
+      <c r="CE18" s="46"/>
+      <c r="CF18" s="46"/>
+      <c r="CG18" s="46"/>
+      <c r="CH18" s="46"/>
+      <c r="CI18" s="47"/>
     </row>
     <row r="19" spans="3:87" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="83" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="84" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="10">
@@ -9597,68 +9457,68 @@
         <v>0.85541354149824111</v>
       </c>
       <c r="BJ19" s="10">
-        <v>1.1078461072402304</v>
+        <v>1.0501893939393938</v>
       </c>
       <c r="BK19" s="4">
-        <v>1.0132583366813981</v>
+        <v>1.0112201963534362</v>
       </c>
       <c r="BL19" s="4">
-        <v>1.0028318495458419</v>
+        <v>0.99942807803565192</v>
       </c>
       <c r="BM19" s="4">
-        <v>1.0011612603066156</v>
+        <v>0.9924459645199244</v>
       </c>
       <c r="BN19" s="4">
-        <v>1.2789507826920423</v>
+        <v>1.0215428673415508</v>
       </c>
       <c r="BO19" s="4">
-        <v>1.1710558327672069</v>
+        <v>0.98071473222215877</v>
       </c>
       <c r="BP19" s="4">
-        <v>1.4788878649362163</v>
+        <v>1.2064428579969075</v>
       </c>
       <c r="BQ19" s="4">
-        <v>1.1450470986067094</v>
+        <v>0.97024886759414863</v>
       </c>
       <c r="BR19" s="4">
-        <v>1.3263817871269497</v>
+        <v>1.0920901227084296</v>
       </c>
       <c r="BS19" s="4">
-        <v>0.86841594805323841</v>
+        <v>0.93817897378214099</v>
       </c>
       <c r="BT19" s="4">
-        <v>0.93746364673935578</v>
+        <v>0.96287062102529064</v>
       </c>
       <c r="BU19" s="4">
-        <v>0.93031918306225481</v>
+        <v>0.94357608250914593</v>
       </c>
       <c r="BV19" s="4">
-        <v>0.84729157599018712</v>
+        <v>0.92300023126140252</v>
       </c>
       <c r="BW19" s="3">
-        <v>0.92390380987227361</v>
-      </c>
-      <c r="BX19" s="14" t="s">
+        <v>1.0032316831530763</v>
+      </c>
+      <c r="BX19" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="BY19" s="15"/>
-      <c r="BZ19" s="15"/>
-      <c r="CA19" s="15"/>
-      <c r="CB19" s="16"/>
-      <c r="CC19" s="14"/>
-      <c r="CD19" s="15"/>
-      <c r="CE19" s="15"/>
-      <c r="CF19" s="15"/>
-      <c r="CG19" s="15"/>
-      <c r="CH19" s="15"/>
-      <c r="CI19" s="16"/>
+      <c r="BY19" s="67"/>
+      <c r="BZ19" s="67"/>
+      <c r="CA19" s="67"/>
+      <c r="CB19" s="68"/>
+      <c r="CC19" s="66"/>
+      <c r="CD19" s="67"/>
+      <c r="CE19" s="67"/>
+      <c r="CF19" s="67"/>
+      <c r="CG19" s="67"/>
+      <c r="CH19" s="67"/>
+      <c r="CI19" s="68"/>
     </row>
     <row r="20" spans="3:87" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="39"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="10">
         <v>0.91606655078221999</v>
       </c>
@@ -9828,70 +9688,70 @@
         <v>1.1263525595484942</v>
       </c>
       <c r="BJ20" s="10">
-        <v>0.83792790063617095</v>
+        <v>0.96922348484848475</v>
       </c>
       <c r="BK20" s="4">
-        <v>1.0265166733627964</v>
+        <v>1.0134241634942898</v>
       </c>
       <c r="BL20" s="4">
-        <v>1.0168360535541074</v>
+        <v>1.006525838128201</v>
       </c>
       <c r="BM20" s="4">
-        <v>1.0104525391240746</v>
+        <v>1.006373677285157</v>
       </c>
       <c r="BN20" s="4">
-        <v>0.61591028438588913</v>
+        <v>1.2062529613574231</v>
       </c>
       <c r="BO20" s="4">
-        <v>1.274314562481025</v>
+        <v>1.0662419952582456</v>
       </c>
       <c r="BP20" s="4">
-        <v>1.0273372626990138</v>
+        <v>0.62553691574877057</v>
       </c>
       <c r="BQ20" s="4">
-        <v>1.0973906366404915</v>
+        <v>0.94000669517307767</v>
       </c>
       <c r="BR20" s="4">
-        <v>0.71351296118029772</v>
+        <v>0.98468494346341207</v>
       </c>
       <c r="BS20" s="4">
-        <v>0.9918933065955251</v>
+        <v>0.64957142530357304</v>
       </c>
       <c r="BT20" s="4">
-        <v>0.81541647505602421</v>
+        <v>0.91382591015506709</v>
       </c>
       <c r="BU20" s="4">
-        <v>0.96961895378148399</v>
+        <v>1.1586378267656872</v>
       </c>
       <c r="BV20" s="4">
-        <v>1.0246191587860562</v>
+        <v>0.87715908214918925</v>
       </c>
       <c r="BW20" s="3">
-        <v>1.0285875187184674</v>
-      </c>
-      <c r="BX20" s="14" t="s">
+        <v>1.0996574530556655</v>
+      </c>
+      <c r="BX20" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="BY20" s="15"/>
-      <c r="BZ20" s="15"/>
-      <c r="CA20" s="15"/>
-      <c r="CB20" s="16"/>
-      <c r="CC20" s="14"/>
-      <c r="CD20" s="15"/>
-      <c r="CE20" s="15"/>
-      <c r="CF20" s="15"/>
-      <c r="CG20" s="15"/>
-      <c r="CH20" s="15"/>
-      <c r="CI20" s="16"/>
+      <c r="BY20" s="67"/>
+      <c r="BZ20" s="67"/>
+      <c r="CA20" s="67"/>
+      <c r="CB20" s="68"/>
+      <c r="CC20" s="66"/>
+      <c r="CD20" s="67"/>
+      <c r="CE20" s="67"/>
+      <c r="CF20" s="67"/>
+      <c r="CG20" s="67"/>
+      <c r="CH20" s="67"/>
+      <c r="CI20" s="68"/>
     </row>
     <row r="21" spans="3:87" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="83" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="1">
         <v>0.4</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="84">
         <v>0.6</v>
       </c>
       <c r="F21" s="10">
@@ -10063,68 +9923,68 @@
         <v>0.82299134397975071</v>
       </c>
       <c r="BJ21" s="10">
-        <v>0.98606482883974556</v>
+        <v>0.93678977272727271</v>
       </c>
       <c r="BK21" s="4">
-        <v>1.0054238650060265</v>
+        <v>1.0108194750550994</v>
       </c>
       <c r="BL21" s="4">
-        <v>1.0477649045251969</v>
+        <v>1.0286541725784688</v>
       </c>
       <c r="BM21" s="4">
-        <v>1.0461777766529283</v>
+        <v>1.0353877245946046</v>
       </c>
       <c r="BN21" s="4">
-        <v>0.58863317232811008</v>
+        <v>0.86816324549561408</v>
       </c>
       <c r="BO21" s="4">
-        <v>0.67144891309709354</v>
+        <v>0.69114324375596214</v>
       </c>
       <c r="BP21" s="4">
-        <v>1.5560361882058154</v>
+        <v>1.23403429368967</v>
       </c>
       <c r="BQ21" s="4">
-        <v>1.2069102913757999</v>
+        <v>0.98612151263055636</v>
       </c>
       <c r="BR21" s="4">
-        <v>0.81812985144006134</v>
+        <v>1.0077587023341885</v>
       </c>
       <c r="BS21" s="4">
-        <v>1.1650943828496456</v>
+        <v>1.0960398424951909</v>
       </c>
       <c r="BT21" s="4">
-        <v>5.0612673163567115</v>
+        <v>3.4787014339690283</v>
       </c>
       <c r="BU21" s="4">
-        <v>1.139513603622041</v>
+        <v>1.5095513526870332</v>
       </c>
       <c r="BV21" s="4">
-        <v>0.81610018596921619</v>
+        <v>1.0305033789860472</v>
       </c>
       <c r="BW21" s="3">
-        <v>0.56774708046855094</v>
-      </c>
-      <c r="BX21" s="14" t="s">
+        <v>0.66248779147228376</v>
+      </c>
+      <c r="BX21" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="BY21" s="15"/>
-      <c r="BZ21" s="15"/>
-      <c r="CA21" s="15"/>
-      <c r="CB21" s="16"/>
-      <c r="CC21" s="17"/>
-      <c r="CD21" s="18"/>
-      <c r="CE21" s="18"/>
-      <c r="CF21" s="18"/>
-      <c r="CG21" s="18"/>
-      <c r="CH21" s="18"/>
-      <c r="CI21" s="19"/>
+      <c r="BY21" s="67"/>
+      <c r="BZ21" s="67"/>
+      <c r="CA21" s="67"/>
+      <c r="CB21" s="68"/>
+      <c r="CC21" s="45"/>
+      <c r="CD21" s="46"/>
+      <c r="CE21" s="46"/>
+      <c r="CF21" s="46"/>
+      <c r="CG21" s="46"/>
+      <c r="CH21" s="46"/>
+      <c r="CI21" s="47"/>
     </row>
     <row r="22" spans="3:87" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="39"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="1">
         <v>0.8</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="84"/>
       <c r="F22" s="10">
         <v>0.9982617333002235</v>
       </c>
@@ -10294,70 +10154,70 @@
         <v>0.95431559406822508</v>
       </c>
       <c r="BJ22" s="10">
-        <v>0.94577400787640109</v>
+        <v>0.99597537878787878</v>
       </c>
       <c r="BK22" s="4">
-        <v>1.0030132583366813</v>
+        <v>1.0138248847926268</v>
       </c>
       <c r="BL22" s="4">
-        <v>1.0139184019084666</v>
+        <v>1.0088595145395052</v>
       </c>
       <c r="BM22" s="4">
-        <v>1.0117759939009783</v>
+        <v>1.0124409845306344</v>
       </c>
       <c r="BN22" s="4">
-        <v>1.0827526565202088</v>
+        <v>1.2013833736512474</v>
       </c>
       <c r="BO22" s="4">
-        <v>1.195354017365774</v>
+        <v>1.0411855662172191</v>
       </c>
       <c r="BP22" s="4">
-        <v>1.0341365293116178</v>
+        <v>0.61091648554560318</v>
       </c>
       <c r="BQ22" s="4">
-        <v>1.1484258927853834</v>
+        <v>0.92241360097747216</v>
       </c>
       <c r="BR22" s="4">
-        <v>1.0712194742476291</v>
+        <v>0.97609498995346089</v>
       </c>
       <c r="BS22" s="4">
-        <v>0.75212822732946227</v>
+        <v>0.63998575378853451</v>
       </c>
       <c r="BT22" s="4">
-        <v>0.81887051941340538</v>
+        <v>0.87147412378445399</v>
       </c>
       <c r="BU22" s="4">
-        <v>0.89561631796658747</v>
+        <v>0.89854327134878886</v>
       </c>
       <c r="BV22" s="4">
-        <v>0.99409250979305974</v>
+        <v>0.89811650435542312</v>
       </c>
       <c r="BW22" s="3">
-        <v>1.0248839148399016</v>
-      </c>
-      <c r="BX22" s="14" t="s">
+        <v>1.1636462093251916</v>
+      </c>
+      <c r="BX22" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="BY22" s="15"/>
-      <c r="BZ22" s="15"/>
-      <c r="CA22" s="15"/>
-      <c r="CB22" s="16"/>
-      <c r="CC22" s="17"/>
-      <c r="CD22" s="18"/>
-      <c r="CE22" s="18"/>
-      <c r="CF22" s="18"/>
-      <c r="CG22" s="18"/>
-      <c r="CH22" s="18"/>
-      <c r="CI22" s="19"/>
+      <c r="BY22" s="67"/>
+      <c r="BZ22" s="67"/>
+      <c r="CA22" s="67"/>
+      <c r="CB22" s="68"/>
+      <c r="CC22" s="45"/>
+      <c r="CD22" s="46"/>
+      <c r="CE22" s="46"/>
+      <c r="CF22" s="46"/>
+      <c r="CG22" s="46"/>
+      <c r="CH22" s="46"/>
+      <c r="CI22" s="47"/>
     </row>
     <row r="23" spans="3:87" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="83" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="1">
         <v>0.3</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="84">
         <v>0.5</v>
       </c>
       <c r="F23" s="10">
@@ -10529,68 +10389,68 @@
         <v>1.0471681270394511</v>
       </c>
       <c r="BJ23" s="10">
-        <v>0.937291729778855</v>
+        <v>0.98863636363636354</v>
       </c>
       <c r="BK23" s="4">
-        <v>0.99718762555243068</v>
+        <v>1.0066119014225607</v>
       </c>
       <c r="BL23" s="4">
-        <v>1.0126315456458066</v>
+        <v>1.0098853432061017</v>
       </c>
       <c r="BM23" s="4">
-        <v>1.0135555971676737</v>
+        <v>1.0061492387838238</v>
       </c>
       <c r="BN23" s="4">
-        <v>0.95932211108318466</v>
+        <v>0.9904846263328172</v>
       </c>
       <c r="BO23" s="4">
-        <v>1.0392587808629905</v>
+        <v>1.0094494811990118</v>
       </c>
       <c r="BP23" s="4">
-        <v>0.86351581122100129</v>
+        <v>1.0316702000388438</v>
       </c>
       <c r="BQ23" s="4">
-        <v>1.079068910862812</v>
+        <v>0.99283687454458547</v>
       </c>
       <c r="BR23" s="4">
-        <v>0.93659402045108753</v>
+        <v>1.0061986848660331</v>
       </c>
       <c r="BS23" s="4">
-        <v>0.86755196802395662</v>
+        <v>0.92266065171288103</v>
       </c>
       <c r="BT23" s="4">
-        <v>0.78391003094209044</v>
+        <v>0.74406885435836512</v>
       </c>
       <c r="BU23" s="4">
-        <v>0.95034048033192486</v>
+        <v>1.0979027793949052</v>
       </c>
       <c r="BV23" s="4">
-        <v>1.000154314881494</v>
+        <v>1.0073926561656859</v>
       </c>
       <c r="BW23" s="3">
-        <v>1.0817401746416786</v>
-      </c>
-      <c r="BX23" s="14" t="s">
+        <v>1.051538403355837</v>
+      </c>
+      <c r="BX23" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="BY23" s="15"/>
-      <c r="BZ23" s="15"/>
-      <c r="CA23" s="15"/>
-      <c r="CB23" s="16"/>
-      <c r="CC23" s="17"/>
-      <c r="CD23" s="18"/>
-      <c r="CE23" s="18"/>
-      <c r="CF23" s="18"/>
-      <c r="CG23" s="18"/>
-      <c r="CH23" s="18"/>
-      <c r="CI23" s="19"/>
+      <c r="BY23" s="67"/>
+      <c r="BZ23" s="67"/>
+      <c r="CA23" s="67"/>
+      <c r="CB23" s="68"/>
+      <c r="CC23" s="45"/>
+      <c r="CD23" s="46"/>
+      <c r="CE23" s="46"/>
+      <c r="CF23" s="46"/>
+      <c r="CG23" s="46"/>
+      <c r="CH23" s="46"/>
+      <c r="CI23" s="47"/>
     </row>
     <row r="24" spans="3:87" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="39"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="1">
         <v>0.7</v>
       </c>
-      <c r="E24" s="40"/>
+      <c r="E24" s="84"/>
       <c r="F24" s="11">
         <v>0.98609386640178787</v>
       </c>
@@ -10760,148 +10620,148 @@
         <v>0.98910413050554502</v>
       </c>
       <c r="BJ24" s="11">
-        <v>1.014843986670706</v>
+        <v>0.94294507575757569</v>
       </c>
       <c r="BK24" s="12">
-        <v>0.99377259943752505</v>
+        <v>1.0138248847926268</v>
       </c>
       <c r="BL24" s="12">
-        <v>1.016091268940047</v>
+        <v>1.0058723754280909</v>
       </c>
       <c r="BM24" s="12">
-        <v>0.98969502242045215</v>
+        <v>1.0021725514740973</v>
       </c>
       <c r="BN24" s="12">
-        <v>0.66314030947964486</v>
+        <v>0.84394142050991139</v>
       </c>
       <c r="BO24" s="12">
-        <v>0.62564170982728862</v>
+        <v>0.6940090907923917</v>
       </c>
       <c r="BP24" s="12">
-        <v>1.8298353471727899</v>
+        <v>1.2354003641958446</v>
       </c>
       <c r="BQ24" s="12">
-        <v>1.1348119335148901</v>
+        <v>0.98712354270131863</v>
       </c>
       <c r="BR24" s="12">
-        <v>0.93991496295490218</v>
+        <v>0.99329975428134576</v>
       </c>
       <c r="BS24" s="12">
-        <v>1.1670837013385973</v>
+        <v>1.1648613479408718</v>
       </c>
       <c r="BT24" s="12">
-        <v>0.8445594025492078</v>
+        <v>0.74568168935340851</v>
       </c>
       <c r="BU24" s="12">
-        <v>0.81242327588709651</v>
+        <v>1.275555712908643</v>
       </c>
       <c r="BV24" s="12">
-        <v>0.75348395520911648</v>
+        <v>0.98924377521391682</v>
       </c>
       <c r="BW24" s="13">
-        <v>0.9569168020022869</v>
-      </c>
-      <c r="BX24" s="60" t="s">
+        <v>0.99133186421211372</v>
+      </c>
+      <c r="BX24" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="BY24" s="61"/>
-      <c r="BZ24" s="61"/>
-      <c r="CA24" s="61"/>
-      <c r="CB24" s="62"/>
-      <c r="CC24" s="60"/>
-      <c r="CD24" s="61"/>
-      <c r="CE24" s="61"/>
-      <c r="CF24" s="61"/>
-      <c r="CG24" s="61"/>
-      <c r="CH24" s="61"/>
-      <c r="CI24" s="62"/>
+      <c r="BY24" s="64"/>
+      <c r="BZ24" s="64"/>
+      <c r="CA24" s="64"/>
+      <c r="CB24" s="65"/>
+      <c r="CC24" s="63"/>
+      <c r="CD24" s="64"/>
+      <c r="CE24" s="64"/>
+      <c r="CF24" s="64"/>
+      <c r="CG24" s="64"/>
+      <c r="CH24" s="64"/>
+      <c r="CI24" s="65"/>
     </row>
     <row r="25" spans="3:87" x14ac:dyDescent="0.25">
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="51" t="s">
+      <c r="D25" s="94"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="51" t="s">
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="51" t="s">
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="73"/>
+      <c r="AC25" s="73"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="73"/>
+      <c r="AF25" s="73"/>
+      <c r="AG25" s="74"/>
+      <c r="AH25" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="AI25" s="52"/>
-      <c r="AJ25" s="52"/>
-      <c r="AK25" s="52"/>
-      <c r="AL25" s="52"/>
-      <c r="AM25" s="52"/>
-      <c r="AN25" s="52"/>
-      <c r="AO25" s="52"/>
-      <c r="AP25" s="52"/>
-      <c r="AQ25" s="52"/>
-      <c r="AR25" s="52"/>
-      <c r="AS25" s="52"/>
-      <c r="AT25" s="52"/>
-      <c r="AU25" s="53"/>
-      <c r="AV25" s="51" t="s">
+      <c r="AI25" s="73"/>
+      <c r="AJ25" s="73"/>
+      <c r="AK25" s="73"/>
+      <c r="AL25" s="73"/>
+      <c r="AM25" s="73"/>
+      <c r="AN25" s="73"/>
+      <c r="AO25" s="73"/>
+      <c r="AP25" s="73"/>
+      <c r="AQ25" s="73"/>
+      <c r="AR25" s="73"/>
+      <c r="AS25" s="73"/>
+      <c r="AT25" s="73"/>
+      <c r="AU25" s="74"/>
+      <c r="AV25" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="AW25" s="52"/>
-      <c r="AX25" s="52"/>
-      <c r="AY25" s="52"/>
-      <c r="AZ25" s="52"/>
-      <c r="BA25" s="52"/>
-      <c r="BB25" s="52"/>
-      <c r="BC25" s="52"/>
-      <c r="BD25" s="52"/>
-      <c r="BE25" s="52"/>
-      <c r="BF25" s="52"/>
-      <c r="BG25" s="52"/>
-      <c r="BH25" s="52"/>
-      <c r="BI25" s="53"/>
-      <c r="BJ25" s="51" t="s">
+      <c r="AW25" s="73"/>
+      <c r="AX25" s="73"/>
+      <c r="AY25" s="73"/>
+      <c r="AZ25" s="73"/>
+      <c r="BA25" s="73"/>
+      <c r="BB25" s="73"/>
+      <c r="BC25" s="73"/>
+      <c r="BD25" s="73"/>
+      <c r="BE25" s="73"/>
+      <c r="BF25" s="73"/>
+      <c r="BG25" s="73"/>
+      <c r="BH25" s="73"/>
+      <c r="BI25" s="74"/>
+      <c r="BJ25" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="BK25" s="52"/>
-      <c r="BL25" s="52"/>
-      <c r="BM25" s="52"/>
-      <c r="BN25" s="52"/>
-      <c r="BO25" s="52"/>
-      <c r="BP25" s="52"/>
-      <c r="BQ25" s="52"/>
-      <c r="BR25" s="52"/>
-      <c r="BS25" s="52"/>
-      <c r="BT25" s="52"/>
-      <c r="BU25" s="52"/>
-      <c r="BV25" s="52"/>
-      <c r="BW25" s="53"/>
+      <c r="BK25" s="73"/>
+      <c r="BL25" s="73"/>
+      <c r="BM25" s="73"/>
+      <c r="BN25" s="73"/>
+      <c r="BO25" s="73"/>
+      <c r="BP25" s="73"/>
+      <c r="BQ25" s="73"/>
+      <c r="BR25" s="73"/>
+      <c r="BS25" s="73"/>
+      <c r="BT25" s="73"/>
+      <c r="BU25" s="73"/>
+      <c r="BV25" s="73"/>
+      <c r="BW25" s="74"/>
       <c r="BX25" s="5"/>
       <c r="BY25" s="5"/>
       <c r="BZ25" s="5"/>
@@ -10916,89 +10776,89 @@
       <c r="CI25" s="5"/>
     </row>
     <row r="26" spans="3:87" x14ac:dyDescent="0.25">
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="17" t="s">
+      <c r="C26" s="96"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="17" t="s">
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="18"/>
-      <c r="AF26" s="18"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="17" t="s">
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="46"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="AI26" s="18"/>
-      <c r="AJ26" s="18"/>
-      <c r="AK26" s="18"/>
-      <c r="AL26" s="18"/>
-      <c r="AM26" s="18"/>
-      <c r="AN26" s="18"/>
-      <c r="AO26" s="18"/>
-      <c r="AP26" s="18"/>
-      <c r="AQ26" s="18"/>
-      <c r="AR26" s="18"/>
-      <c r="AS26" s="18"/>
-      <c r="AT26" s="18"/>
-      <c r="AU26" s="19"/>
-      <c r="AV26" s="17" t="s">
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="46"/>
+      <c r="AN26" s="46"/>
+      <c r="AO26" s="46"/>
+      <c r="AP26" s="46"/>
+      <c r="AQ26" s="46"/>
+      <c r="AR26" s="46"/>
+      <c r="AS26" s="46"/>
+      <c r="AT26" s="46"/>
+      <c r="AU26" s="47"/>
+      <c r="AV26" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="AW26" s="18"/>
-      <c r="AX26" s="18"/>
-      <c r="AY26" s="18"/>
-      <c r="AZ26" s="18"/>
-      <c r="BA26" s="18"/>
-      <c r="BB26" s="18"/>
-      <c r="BC26" s="18"/>
-      <c r="BD26" s="18"/>
-      <c r="BE26" s="18"/>
-      <c r="BF26" s="18"/>
-      <c r="BG26" s="18"/>
-      <c r="BH26" s="18"/>
-      <c r="BI26" s="19"/>
-      <c r="BJ26" s="17" t="s">
+      <c r="AW26" s="46"/>
+      <c r="AX26" s="46"/>
+      <c r="AY26" s="46"/>
+      <c r="AZ26" s="46"/>
+      <c r="BA26" s="46"/>
+      <c r="BB26" s="46"/>
+      <c r="BC26" s="46"/>
+      <c r="BD26" s="46"/>
+      <c r="BE26" s="46"/>
+      <c r="BF26" s="46"/>
+      <c r="BG26" s="46"/>
+      <c r="BH26" s="46"/>
+      <c r="BI26" s="47"/>
+      <c r="BJ26" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="BK26" s="18"/>
-      <c r="BL26" s="18"/>
-      <c r="BM26" s="18"/>
-      <c r="BN26" s="18"/>
-      <c r="BO26" s="18"/>
-      <c r="BP26" s="18"/>
-      <c r="BQ26" s="18"/>
-      <c r="BR26" s="18"/>
-      <c r="BS26" s="18"/>
-      <c r="BT26" s="18"/>
-      <c r="BU26" s="18"/>
-      <c r="BV26" s="18"/>
-      <c r="BW26" s="19"/>
+      <c r="BK26" s="46"/>
+      <c r="BL26" s="46"/>
+      <c r="BM26" s="46"/>
+      <c r="BN26" s="46"/>
+      <c r="BO26" s="46"/>
+      <c r="BP26" s="46"/>
+      <c r="BQ26" s="46"/>
+      <c r="BR26" s="46"/>
+      <c r="BS26" s="46"/>
+      <c r="BT26" s="46"/>
+      <c r="BU26" s="46"/>
+      <c r="BV26" s="46"/>
+      <c r="BW26" s="47"/>
       <c r="BX26" s="5"/>
       <c r="BY26" s="5"/>
       <c r="BZ26" s="5"/>
@@ -11013,89 +10873,89 @@
       <c r="CI26" s="5"/>
     </row>
     <row r="27" spans="3:87" x14ac:dyDescent="0.25">
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="54" t="s">
+      <c r="C27" s="96"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="54" t="s">
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="55"/>
-      <c r="AA27" s="55"/>
-      <c r="AB27" s="55"/>
-      <c r="AC27" s="55"/>
-      <c r="AD27" s="55"/>
-      <c r="AE27" s="55"/>
-      <c r="AF27" s="55"/>
-      <c r="AG27" s="56"/>
-      <c r="AH27" s="54" t="s">
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="41"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AI27" s="55"/>
-      <c r="AJ27" s="55"/>
-      <c r="AK27" s="55"/>
-      <c r="AL27" s="55"/>
-      <c r="AM27" s="55"/>
-      <c r="AN27" s="55"/>
-      <c r="AO27" s="55"/>
-      <c r="AP27" s="55"/>
-      <c r="AQ27" s="55"/>
-      <c r="AR27" s="55"/>
-      <c r="AS27" s="55"/>
-      <c r="AT27" s="55"/>
-      <c r="AU27" s="56"/>
-      <c r="AV27" s="54" t="s">
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="41"/>
+      <c r="AK27" s="41"/>
+      <c r="AL27" s="41"/>
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="41"/>
+      <c r="AO27" s="41"/>
+      <c r="AP27" s="41"/>
+      <c r="AQ27" s="41"/>
+      <c r="AR27" s="41"/>
+      <c r="AS27" s="41"/>
+      <c r="AT27" s="41"/>
+      <c r="AU27" s="42"/>
+      <c r="AV27" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="AW27" s="55"/>
-      <c r="AX27" s="55"/>
-      <c r="AY27" s="55"/>
-      <c r="AZ27" s="55"/>
-      <c r="BA27" s="55"/>
-      <c r="BB27" s="55"/>
-      <c r="BC27" s="55"/>
-      <c r="BD27" s="55"/>
-      <c r="BE27" s="55"/>
-      <c r="BF27" s="55"/>
-      <c r="BG27" s="55"/>
-      <c r="BH27" s="55"/>
-      <c r="BI27" s="56"/>
-      <c r="BJ27" s="54" t="s">
+      <c r="AW27" s="41"/>
+      <c r="AX27" s="41"/>
+      <c r="AY27" s="41"/>
+      <c r="AZ27" s="41"/>
+      <c r="BA27" s="41"/>
+      <c r="BB27" s="41"/>
+      <c r="BC27" s="41"/>
+      <c r="BD27" s="41"/>
+      <c r="BE27" s="41"/>
+      <c r="BF27" s="41"/>
+      <c r="BG27" s="41"/>
+      <c r="BH27" s="41"/>
+      <c r="BI27" s="42"/>
+      <c r="BJ27" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="BK27" s="55"/>
-      <c r="BL27" s="55"/>
-      <c r="BM27" s="55"/>
-      <c r="BN27" s="55"/>
-      <c r="BO27" s="55"/>
-      <c r="BP27" s="55"/>
-      <c r="BQ27" s="55"/>
-      <c r="BR27" s="55"/>
-      <c r="BS27" s="55"/>
-      <c r="BT27" s="55"/>
-      <c r="BU27" s="55"/>
-      <c r="BV27" s="55"/>
-      <c r="BW27" s="56"/>
+      <c r="BK27" s="41"/>
+      <c r="BL27" s="41"/>
+      <c r="BM27" s="41"/>
+      <c r="BN27" s="41"/>
+      <c r="BO27" s="41"/>
+      <c r="BP27" s="41"/>
+      <c r="BQ27" s="41"/>
+      <c r="BR27" s="41"/>
+      <c r="BS27" s="41"/>
+      <c r="BT27" s="41"/>
+      <c r="BU27" s="41"/>
+      <c r="BV27" s="41"/>
+      <c r="BW27" s="42"/>
       <c r="BX27" s="5"/>
       <c r="BY27" s="5"/>
       <c r="BZ27" s="5"/>
@@ -11110,89 +10970,89 @@
       <c r="CI27" s="5"/>
     </row>
     <row r="28" spans="3:87" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="35" t="s">
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="35" t="s">
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="35" t="s">
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="49"/>
+      <c r="AC28" s="49"/>
+      <c r="AD28" s="49"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="49"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="36"/>
-      <c r="AL28" s="36"/>
-      <c r="AM28" s="36"/>
-      <c r="AN28" s="36"/>
-      <c r="AO28" s="36"/>
-      <c r="AP28" s="36"/>
-      <c r="AQ28" s="36"/>
-      <c r="AR28" s="36"/>
-      <c r="AS28" s="36"/>
-      <c r="AT28" s="36"/>
-      <c r="AU28" s="37"/>
-      <c r="AV28" s="35" t="s">
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
+      <c r="AM28" s="49"/>
+      <c r="AN28" s="49"/>
+      <c r="AO28" s="49"/>
+      <c r="AP28" s="49"/>
+      <c r="AQ28" s="49"/>
+      <c r="AR28" s="49"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="49"/>
+      <c r="AU28" s="50"/>
+      <c r="AV28" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="AW28" s="36"/>
-      <c r="AX28" s="36"/>
-      <c r="AY28" s="36"/>
-      <c r="AZ28" s="36"/>
-      <c r="BA28" s="36"/>
-      <c r="BB28" s="36"/>
-      <c r="BC28" s="36"/>
-      <c r="BD28" s="36"/>
-      <c r="BE28" s="36"/>
-      <c r="BF28" s="36"/>
-      <c r="BG28" s="36"/>
-      <c r="BH28" s="36"/>
-      <c r="BI28" s="37"/>
-      <c r="BJ28" s="35" t="s">
+      <c r="AW28" s="49"/>
+      <c r="AX28" s="49"/>
+      <c r="AY28" s="49"/>
+      <c r="AZ28" s="49"/>
+      <c r="BA28" s="49"/>
+      <c r="BB28" s="49"/>
+      <c r="BC28" s="49"/>
+      <c r="BD28" s="49"/>
+      <c r="BE28" s="49"/>
+      <c r="BF28" s="49"/>
+      <c r="BG28" s="49"/>
+      <c r="BH28" s="49"/>
+      <c r="BI28" s="50"/>
+      <c r="BJ28" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="BK28" s="36"/>
-      <c r="BL28" s="36"/>
-      <c r="BM28" s="36"/>
-      <c r="BN28" s="36"/>
-      <c r="BO28" s="36"/>
-      <c r="BP28" s="36"/>
-      <c r="BQ28" s="36"/>
-      <c r="BR28" s="36"/>
-      <c r="BS28" s="36"/>
-      <c r="BT28" s="36"/>
-      <c r="BU28" s="36"/>
-      <c r="BV28" s="36"/>
-      <c r="BW28" s="37"/>
+      <c r="BK28" s="49"/>
+      <c r="BL28" s="49"/>
+      <c r="BM28" s="49"/>
+      <c r="BN28" s="49"/>
+      <c r="BO28" s="49"/>
+      <c r="BP28" s="49"/>
+      <c r="BQ28" s="49"/>
+      <c r="BR28" s="49"/>
+      <c r="BS28" s="49"/>
+      <c r="BT28" s="49"/>
+      <c r="BU28" s="49"/>
+      <c r="BV28" s="49"/>
+      <c r="BW28" s="50"/>
       <c r="BX28" s="5"/>
       <c r="BY28" s="5"/>
       <c r="BZ28" s="5"/>
@@ -11207,89 +11067,89 @@
       <c r="CI28" s="5"/>
     </row>
     <row r="29" spans="3:87" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="57" t="s">
+      <c r="C29" s="96"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="57" t="s">
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="58"/>
-      <c r="AF29" s="58"/>
-      <c r="AG29" s="59"/>
-      <c r="AH29" s="57" t="s">
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="AI29" s="58"/>
-      <c r="AJ29" s="58"/>
-      <c r="AK29" s="58"/>
-      <c r="AL29" s="58"/>
-      <c r="AM29" s="58"/>
-      <c r="AN29" s="58"/>
-      <c r="AO29" s="58"/>
-      <c r="AP29" s="58"/>
-      <c r="AQ29" s="58"/>
-      <c r="AR29" s="58"/>
-      <c r="AS29" s="58"/>
-      <c r="AT29" s="58"/>
-      <c r="AU29" s="59"/>
-      <c r="AV29" s="57" t="s">
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="52"/>
+      <c r="AL29" s="52"/>
+      <c r="AM29" s="52"/>
+      <c r="AN29" s="52"/>
+      <c r="AO29" s="52"/>
+      <c r="AP29" s="52"/>
+      <c r="AQ29" s="52"/>
+      <c r="AR29" s="52"/>
+      <c r="AS29" s="52"/>
+      <c r="AT29" s="52"/>
+      <c r="AU29" s="53"/>
+      <c r="AV29" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="AW29" s="58"/>
-      <c r="AX29" s="58"/>
-      <c r="AY29" s="58"/>
-      <c r="AZ29" s="58"/>
-      <c r="BA29" s="58"/>
-      <c r="BB29" s="58"/>
-      <c r="BC29" s="58"/>
-      <c r="BD29" s="58"/>
-      <c r="BE29" s="58"/>
-      <c r="BF29" s="58"/>
-      <c r="BG29" s="58"/>
-      <c r="BH29" s="58"/>
-      <c r="BI29" s="59"/>
-      <c r="BJ29" s="57" t="s">
+      <c r="AW29" s="52"/>
+      <c r="AX29" s="52"/>
+      <c r="AY29" s="52"/>
+      <c r="AZ29" s="52"/>
+      <c r="BA29" s="52"/>
+      <c r="BB29" s="52"/>
+      <c r="BC29" s="52"/>
+      <c r="BD29" s="52"/>
+      <c r="BE29" s="52"/>
+      <c r="BF29" s="52"/>
+      <c r="BG29" s="52"/>
+      <c r="BH29" s="52"/>
+      <c r="BI29" s="53"/>
+      <c r="BJ29" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="BK29" s="58"/>
-      <c r="BL29" s="58"/>
-      <c r="BM29" s="58"/>
-      <c r="BN29" s="58"/>
-      <c r="BO29" s="58"/>
-      <c r="BP29" s="58"/>
-      <c r="BQ29" s="58"/>
-      <c r="BR29" s="58"/>
-      <c r="BS29" s="58"/>
-      <c r="BT29" s="58"/>
-      <c r="BU29" s="58"/>
-      <c r="BV29" s="58"/>
-      <c r="BW29" s="59"/>
+      <c r="BK29" s="52"/>
+      <c r="BL29" s="52"/>
+      <c r="BM29" s="52"/>
+      <c r="BN29" s="52"/>
+      <c r="BO29" s="52"/>
+      <c r="BP29" s="52"/>
+      <c r="BQ29" s="52"/>
+      <c r="BR29" s="52"/>
+      <c r="BS29" s="52"/>
+      <c r="BT29" s="52"/>
+      <c r="BU29" s="52"/>
+      <c r="BV29" s="52"/>
+      <c r="BW29" s="53"/>
       <c r="BX29" s="5"/>
       <c r="BY29" s="5"/>
       <c r="BZ29" s="5"/>
@@ -11304,89 +11164,89 @@
       <c r="CI29" s="5"/>
     </row>
     <row r="30" spans="3:87" x14ac:dyDescent="0.25">
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="17" t="s">
+      <c r="C30" s="96"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="17" t="s">
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="18"/>
-      <c r="AE30" s="18"/>
-      <c r="AF30" s="18"/>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="17" t="s">
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="46"/>
+      <c r="AE30" s="46"/>
+      <c r="AF30" s="46"/>
+      <c r="AG30" s="47"/>
+      <c r="AH30" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="AI30" s="18"/>
-      <c r="AJ30" s="18"/>
-      <c r="AK30" s="18"/>
-      <c r="AL30" s="18"/>
-      <c r="AM30" s="18"/>
-      <c r="AN30" s="18"/>
-      <c r="AO30" s="18"/>
-      <c r="AP30" s="18"/>
-      <c r="AQ30" s="18"/>
-      <c r="AR30" s="18"/>
-      <c r="AS30" s="18"/>
-      <c r="AT30" s="18"/>
-      <c r="AU30" s="19"/>
-      <c r="AV30" s="17" t="s">
+      <c r="AI30" s="46"/>
+      <c r="AJ30" s="46"/>
+      <c r="AK30" s="46"/>
+      <c r="AL30" s="46"/>
+      <c r="AM30" s="46"/>
+      <c r="AN30" s="46"/>
+      <c r="AO30" s="46"/>
+      <c r="AP30" s="46"/>
+      <c r="AQ30" s="46"/>
+      <c r="AR30" s="46"/>
+      <c r="AS30" s="46"/>
+      <c r="AT30" s="46"/>
+      <c r="AU30" s="47"/>
+      <c r="AV30" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AW30" s="18"/>
-      <c r="AX30" s="18"/>
-      <c r="AY30" s="18"/>
-      <c r="AZ30" s="18"/>
-      <c r="BA30" s="18"/>
-      <c r="BB30" s="18"/>
-      <c r="BC30" s="18"/>
-      <c r="BD30" s="18"/>
-      <c r="BE30" s="18"/>
-      <c r="BF30" s="18"/>
-      <c r="BG30" s="18"/>
-      <c r="BH30" s="18"/>
-      <c r="BI30" s="19"/>
-      <c r="BJ30" s="17" t="s">
+      <c r="AW30" s="46"/>
+      <c r="AX30" s="46"/>
+      <c r="AY30" s="46"/>
+      <c r="AZ30" s="46"/>
+      <c r="BA30" s="46"/>
+      <c r="BB30" s="46"/>
+      <c r="BC30" s="46"/>
+      <c r="BD30" s="46"/>
+      <c r="BE30" s="46"/>
+      <c r="BF30" s="46"/>
+      <c r="BG30" s="46"/>
+      <c r="BH30" s="46"/>
+      <c r="BI30" s="47"/>
+      <c r="BJ30" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="BK30" s="18"/>
-      <c r="BL30" s="18"/>
-      <c r="BM30" s="18"/>
-      <c r="BN30" s="18"/>
-      <c r="BO30" s="18"/>
-      <c r="BP30" s="18"/>
-      <c r="BQ30" s="18"/>
-      <c r="BR30" s="18"/>
-      <c r="BS30" s="18"/>
-      <c r="BT30" s="18"/>
-      <c r="BU30" s="18"/>
-      <c r="BV30" s="18"/>
-      <c r="BW30" s="19"/>
+      <c r="BK30" s="46"/>
+      <c r="BL30" s="46"/>
+      <c r="BM30" s="46"/>
+      <c r="BN30" s="46"/>
+      <c r="BO30" s="46"/>
+      <c r="BP30" s="46"/>
+      <c r="BQ30" s="46"/>
+      <c r="BR30" s="46"/>
+      <c r="BS30" s="46"/>
+      <c r="BT30" s="46"/>
+      <c r="BU30" s="46"/>
+      <c r="BV30" s="46"/>
+      <c r="BW30" s="47"/>
       <c r="BX30" s="5"/>
       <c r="BY30" s="5"/>
       <c r="BZ30" s="5"/>
@@ -11401,89 +11261,89 @@
       <c r="CI30" s="5"/>
     </row>
     <row r="31" spans="3:87" x14ac:dyDescent="0.25">
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="54" t="s">
+      <c r="C31" s="99"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="54" t="s">
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="U31" s="55"/>
-      <c r="V31" s="55"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="55"/>
-      <c r="AA31" s="55"/>
-      <c r="AB31" s="55"/>
-      <c r="AC31" s="55"/>
-      <c r="AD31" s="55"/>
-      <c r="AE31" s="55"/>
-      <c r="AF31" s="55"/>
-      <c r="AG31" s="56"/>
-      <c r="AH31" s="54" t="s">
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="41"/>
+      <c r="AG31" s="42"/>
+      <c r="AH31" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="AI31" s="55"/>
-      <c r="AJ31" s="55"/>
-      <c r="AK31" s="55"/>
-      <c r="AL31" s="55"/>
-      <c r="AM31" s="55"/>
-      <c r="AN31" s="55"/>
-      <c r="AO31" s="55"/>
-      <c r="AP31" s="55"/>
-      <c r="AQ31" s="55"/>
-      <c r="AR31" s="55"/>
-      <c r="AS31" s="55"/>
-      <c r="AT31" s="55"/>
-      <c r="AU31" s="56"/>
-      <c r="AV31" s="54" t="s">
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="41"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="41"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="41"/>
+      <c r="AO31" s="41"/>
+      <c r="AP31" s="41"/>
+      <c r="AQ31" s="41"/>
+      <c r="AR31" s="41"/>
+      <c r="AS31" s="41"/>
+      <c r="AT31" s="41"/>
+      <c r="AU31" s="42"/>
+      <c r="AV31" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="AW31" s="55"/>
-      <c r="AX31" s="55"/>
-      <c r="AY31" s="55"/>
-      <c r="AZ31" s="55"/>
-      <c r="BA31" s="55"/>
-      <c r="BB31" s="55"/>
-      <c r="BC31" s="55"/>
-      <c r="BD31" s="55"/>
-      <c r="BE31" s="55"/>
-      <c r="BF31" s="55"/>
-      <c r="BG31" s="55"/>
-      <c r="BH31" s="55"/>
-      <c r="BI31" s="56"/>
-      <c r="BJ31" s="54" t="s">
+      <c r="AW31" s="41"/>
+      <c r="AX31" s="41"/>
+      <c r="AY31" s="41"/>
+      <c r="AZ31" s="41"/>
+      <c r="BA31" s="41"/>
+      <c r="BB31" s="41"/>
+      <c r="BC31" s="41"/>
+      <c r="BD31" s="41"/>
+      <c r="BE31" s="41"/>
+      <c r="BF31" s="41"/>
+      <c r="BG31" s="41"/>
+      <c r="BH31" s="41"/>
+      <c r="BI31" s="42"/>
+      <c r="BJ31" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="BK31" s="55"/>
-      <c r="BL31" s="55"/>
-      <c r="BM31" s="55"/>
-      <c r="BN31" s="55"/>
-      <c r="BO31" s="55"/>
-      <c r="BP31" s="55"/>
-      <c r="BQ31" s="55"/>
-      <c r="BR31" s="55"/>
-      <c r="BS31" s="55"/>
-      <c r="BT31" s="55"/>
-      <c r="BU31" s="55"/>
-      <c r="BV31" s="55"/>
-      <c r="BW31" s="56"/>
+      <c r="BK31" s="41"/>
+      <c r="BL31" s="41"/>
+      <c r="BM31" s="41"/>
+      <c r="BN31" s="41"/>
+      <c r="BO31" s="41"/>
+      <c r="BP31" s="41"/>
+      <c r="BQ31" s="41"/>
+      <c r="BR31" s="41"/>
+      <c r="BS31" s="41"/>
+      <c r="BT31" s="41"/>
+      <c r="BU31" s="41"/>
+      <c r="BV31" s="41"/>
+      <c r="BW31" s="42"/>
       <c r="BX31" s="5"/>
       <c r="BY31" s="5"/>
       <c r="BZ31" s="5"/>
@@ -11499,1438 +11359,1576 @@
     </row>
     <row r="32" spans="3:87" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="3:124" x14ac:dyDescent="0.25">
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="68"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="56"/>
     </row>
     <row r="34" spans="3:124" x14ac:dyDescent="0.25">
-      <c r="C34" s="69"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="71"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="59"/>
     </row>
     <row r="35" spans="3:124" x14ac:dyDescent="0.25">
-      <c r="C35" s="69"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="71"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="59"/>
     </row>
     <row r="36" spans="3:124" x14ac:dyDescent="0.25">
-      <c r="C36" s="69"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="70"/>
-      <c r="P36" s="70"/>
-      <c r="Q36" s="71"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="59"/>
     </row>
     <row r="37" spans="3:124" x14ac:dyDescent="0.25">
-      <c r="C37" s="69"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="70"/>
-      <c r="O37" s="70"/>
-      <c r="P37" s="70"/>
-      <c r="Q37" s="71"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="59"/>
     </row>
     <row r="38" spans="3:124" x14ac:dyDescent="0.25">
-      <c r="C38" s="69"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="70"/>
-      <c r="P38" s="70"/>
-      <c r="Q38" s="71"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="59"/>
     </row>
     <row r="39" spans="3:124" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="72"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="74"/>
-      <c r="CM39" s="77" t="s">
+      <c r="C39" s="60"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="62"/>
+      <c r="CM39" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="CN39" s="75" t="s">
+      <c r="CN39" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="CO39" s="76" t="s">
+      <c r="CO39" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="CP39" s="76"/>
-      <c r="CQ39" s="76"/>
-      <c r="CR39" s="75" t="s">
+      <c r="CP39" s="43"/>
+      <c r="CQ39" s="43"/>
+      <c r="CR39" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="CS39" s="76" t="s">
+      <c r="CS39" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="CT39" s="76"/>
-      <c r="CU39" s="76"/>
-      <c r="CV39" s="75" t="s">
+      <c r="CT39" s="43"/>
+      <c r="CU39" s="43"/>
+      <c r="CV39" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="CW39" s="76" t="s">
+      <c r="CW39" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="CX39" s="76"/>
-      <c r="CY39" s="76"/>
-      <c r="CZ39" s="77" t="s">
+      <c r="CX39" s="43"/>
+      <c r="CY39" s="43"/>
+      <c r="CZ39" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="DA39" s="77" t="s">
+      <c r="DA39" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="DB39" s="77" t="s">
+      <c r="DB39" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="DC39" s="77" t="s">
+      <c r="DC39" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="DD39" s="77" t="s">
+      <c r="DD39" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="DE39" s="77" t="s">
+      <c r="DE39" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="DF39" s="77" t="s">
+      <c r="DF39" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="DG39" s="77" t="s">
+      <c r="DG39" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="DH39" s="77" t="s">
+      <c r="DH39" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="DI39" s="77" t="s">
+      <c r="DI39" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="DJ39" s="77" t="s">
+      <c r="DJ39" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="DK39" s="77" t="s">
+      <c r="DK39" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="DL39" s="77" t="s">
+      <c r="DL39" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="DM39" s="77" t="s">
+      <c r="DM39" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="DN39" s="77" t="s">
+      <c r="DN39" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="DO39" s="77" t="s">
+      <c r="DO39" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="DP39" s="77" t="s">
+      <c r="DP39" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="DQ39" s="77" t="s">
+      <c r="DQ39" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="DR39" s="77" t="s">
+      <c r="DR39" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="DS39" s="77" t="s">
+      <c r="DS39" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="DT39" s="77" t="s">
+      <c r="DT39" s="33" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="40" spans="3:124" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="CM40" s="77"/>
-      <c r="CN40" s="75"/>
-      <c r="CO40" s="78" t="s">
+      <c r="CM40" s="33"/>
+      <c r="CN40" s="44"/>
+      <c r="CO40" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="CP40" s="78" t="s">
+      <c r="CP40" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="CQ40" s="78" t="s">
+      <c r="CQ40" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="CR40" s="75"/>
-      <c r="CS40" s="78" t="s">
+      <c r="CR40" s="44"/>
+      <c r="CS40" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="CT40" s="78" t="s">
+      <c r="CT40" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="CU40" s="78" t="s">
+      <c r="CU40" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="CV40" s="75"/>
-      <c r="CW40" s="78" t="s">
+      <c r="CV40" s="44"/>
+      <c r="CW40" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="CX40" s="78" t="s">
+      <c r="CX40" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="CY40" s="78" t="s">
+      <c r="CY40" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="CZ40" s="77"/>
-      <c r="DA40" s="77"/>
-      <c r="DB40" s="77"/>
-      <c r="DC40" s="77"/>
-      <c r="DD40" s="77"/>
-      <c r="DE40" s="77"/>
-      <c r="DF40" s="77"/>
-      <c r="DG40" s="77"/>
-      <c r="DH40" s="77"/>
-      <c r="DI40" s="77"/>
-      <c r="DJ40" s="77"/>
-      <c r="DK40" s="77"/>
-      <c r="DL40" s="77"/>
-      <c r="DM40" s="77"/>
-      <c r="DN40" s="77"/>
-      <c r="DO40" s="77"/>
-      <c r="DP40" s="77"/>
-      <c r="DQ40" s="77"/>
-      <c r="DR40" s="77"/>
-      <c r="DS40" s="77"/>
-      <c r="DT40" s="77"/>
+      <c r="CZ40" s="33"/>
+      <c r="DA40" s="33"/>
+      <c r="DB40" s="33"/>
+      <c r="DC40" s="33"/>
+      <c r="DD40" s="33"/>
+      <c r="DE40" s="33"/>
+      <c r="DF40" s="33"/>
+      <c r="DG40" s="33"/>
+      <c r="DH40" s="33"/>
+      <c r="DI40" s="33"/>
+      <c r="DJ40" s="33"/>
+      <c r="DK40" s="33"/>
+      <c r="DL40" s="33"/>
+      <c r="DM40" s="33"/>
+      <c r="DN40" s="33"/>
+      <c r="DO40" s="33"/>
+      <c r="DP40" s="33"/>
+      <c r="DQ40" s="33"/>
+      <c r="DR40" s="33"/>
+      <c r="DS40" s="33"/>
+      <c r="DT40" s="33"/>
     </row>
     <row r="41" spans="3:124" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="CM41" s="79" t="s">
+      <c r="CM41" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="CN41" s="79">
+      <c r="CN41" s="15">
         <v>77</v>
       </c>
-      <c r="CO41" s="92">
-        <v>0</v>
-      </c>
-      <c r="CP41" s="92">
-        <v>0</v>
-      </c>
-      <c r="CQ41" s="91">
+      <c r="CO41" s="24">
+        <v>0</v>
+      </c>
+      <c r="CP41" s="24">
+        <v>0</v>
+      </c>
+      <c r="CQ41" s="23">
         <v>1</v>
       </c>
-      <c r="CR41" s="81">
+      <c r="CR41" s="17">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="CS41" s="80">
+      <c r="CS41" s="16">
         <v>0.7</v>
       </c>
-      <c r="CT41" s="79">
+      <c r="CT41" s="15">
         <v>0.3</v>
       </c>
-      <c r="CU41" s="79">
-        <v>0</v>
-      </c>
-      <c r="CV41" s="82">
+      <c r="CU41" s="15">
+        <v>0</v>
+      </c>
+      <c r="CV41" s="18">
         <v>2830743</v>
       </c>
-      <c r="CW41" s="79">
+      <c r="CW41" s="15">
         <v>0.13</v>
       </c>
-      <c r="CX41" s="80">
+      <c r="CX41" s="16">
         <v>0.87</v>
       </c>
-      <c r="CY41" s="79">
-        <v>0</v>
-      </c>
-      <c r="CZ41" s="83">
+      <c r="CY41" s="15">
+        <v>0</v>
+      </c>
+      <c r="CZ41" s="19">
         <f>0.7*0.87</f>
         <v>0.60899999999999999</v>
       </c>
-      <c r="DA41" s="79" t="b">
+      <c r="DA41" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DB41" s="79" t="b">
+      <c r="DB41" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DC41" s="79" t="b">
+      <c r="DC41" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DD41" s="79" t="b">
+      <c r="DD41" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DE41" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DF41" s="79" t="b">
+      <c r="DE41" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF41" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DG41" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DH41" s="79" t="b">
+      <c r="DG41" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DH41" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DI41" s="79" t="b">
+      <c r="DI41" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DJ41" s="79" t="b">
+      <c r="DJ41" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DK41" s="79" t="b">
+      <c r="DK41" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DL41" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DM41" s="79" t="b">
+      <c r="DL41" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DM41" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DN41" s="79" t="b">
+      <c r="DN41" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DO41" s="79" t="b">
+      <c r="DO41" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DP41" s="79" t="b">
+      <c r="DP41" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DQ41" s="79" t="b">
+      <c r="DQ41" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DR41" s="79" t="b">
+      <c r="DR41" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DS41" s="79" t="b">
+      <c r="DS41" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DT41" s="79" t="b">
+      <c r="DT41" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="3:124" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="CM42" s="79" t="s">
+      <c r="CM42" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="CN42" s="79">
+      <c r="CN42" s="15">
         <v>41</v>
       </c>
-      <c r="CO42" s="92">
-        <v>0</v>
-      </c>
-      <c r="CP42" s="91">
+      <c r="CO42" s="24">
+        <v>0</v>
+      </c>
+      <c r="CP42" s="23">
         <v>0.95</v>
       </c>
-      <c r="CQ42" s="92">
+      <c r="CQ42" s="24">
         <v>0.05</v>
       </c>
-      <c r="CR42" s="81">
+      <c r="CR42" s="17">
         <v>0.17100000000000001</v>
       </c>
-      <c r="CS42" s="79">
-        <v>0</v>
-      </c>
-      <c r="CT42" s="79">
-        <v>0</v>
-      </c>
-      <c r="CU42" s="80">
+      <c r="CS42" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT42" s="15">
+        <v>0</v>
+      </c>
+      <c r="CU42" s="16">
         <v>1</v>
       </c>
-      <c r="CV42" s="82">
+      <c r="CV42" s="18">
         <v>805050</v>
       </c>
-      <c r="CW42" s="80">
+      <c r="CW42" s="16">
         <v>1</v>
       </c>
-      <c r="CX42" s="79">
-        <v>0</v>
-      </c>
-      <c r="CY42" s="79">
-        <v>0</v>
-      </c>
-      <c r="CZ42" s="79">
+      <c r="CX42" s="15">
+        <v>0</v>
+      </c>
+      <c r="CY42" s="15">
+        <v>0</v>
+      </c>
+      <c r="CZ42" s="15">
         <f>0.95</f>
         <v>0.95</v>
       </c>
-      <c r="DA42" s="79" t="b">
+      <c r="DA42" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DB42" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DC42" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DD42" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DE42" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DF42" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DG42" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DH42" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DI42" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DJ42" s="79" t="b">
+      <c r="DB42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DD42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DG42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DH42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DI42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ42" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DK42" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DL42" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DM42" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DN42" s="79" t="b">
+      <c r="DK42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DL42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DM42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DN42" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DO42" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DP42" s="79" t="b">
+      <c r="DO42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DP42" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DQ42" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DR42" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DS42" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DT42" s="79" t="b">
+      <c r="DQ42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DR42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DS42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DT42" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="3:124" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="CM43" s="79" t="s">
+      <c r="CM43" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="CN43" s="79">
+      <c r="CN43" s="15">
         <v>6</v>
       </c>
-      <c r="CO43" s="91">
+      <c r="CO43" s="23">
         <v>1</v>
       </c>
-      <c r="CP43" s="92">
-        <v>0</v>
-      </c>
-      <c r="CQ43" s="92">
-        <v>0</v>
-      </c>
-      <c r="CR43" s="81">
+      <c r="CP43" s="24">
+        <v>0</v>
+      </c>
+      <c r="CQ43" s="24">
+        <v>0</v>
+      </c>
+      <c r="CR43" s="17">
         <v>0.16700000000000001</v>
       </c>
-      <c r="CS43" s="79">
-        <v>0</v>
-      </c>
-      <c r="CT43" s="79">
-        <v>0</v>
-      </c>
-      <c r="CU43" s="80">
+      <c r="CS43" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT43" s="15">
+        <v>0</v>
+      </c>
+      <c r="CU43" s="16">
         <v>1</v>
       </c>
-      <c r="CV43" s="82">
+      <c r="CV43" s="18">
         <v>4245806</v>
       </c>
-      <c r="CW43" s="79">
-        <v>0</v>
-      </c>
-      <c r="CX43" s="79">
+      <c r="CW43" s="15">
+        <v>0</v>
+      </c>
+      <c r="CX43" s="15">
         <v>0.2</v>
       </c>
-      <c r="CY43" s="80">
+      <c r="CY43" s="16">
         <v>0.8</v>
       </c>
-      <c r="CZ43" s="79">
+      <c r="CZ43" s="15">
         <f>0.8</f>
         <v>0.8</v>
       </c>
-      <c r="DA43" s="79" t="b">
+      <c r="DA43" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DB43" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DC43" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DD43" s="79" t="b">
+      <c r="DB43" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC43" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DD43" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DE43" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DF43" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DG43" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DH43" s="79" t="b">
+      <c r="DE43" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF43" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DG43" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DH43" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DI43" s="79" t="b">
+      <c r="DI43" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DJ43" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DK43" s="79" t="b">
+      <c r="DJ43" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DK43" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DL43" s="79" t="b">
+      <c r="DL43" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DM43" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DN43" s="79" t="b">
+      <c r="DM43" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DN43" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DO43" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DP43" s="79" t="b">
+      <c r="DO43" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DP43" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DQ43" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DR43" s="79" t="b">
+      <c r="DQ43" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DR43" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DS43" s="79" t="b">
+      <c r="DS43" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DT43" s="79" t="b">
+      <c r="DT43" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="3:124" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="CM44" s="79" t="s">
+      <c r="CM44" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="CN44" s="79">
+      <c r="CN44" s="15">
         <v>47</v>
       </c>
-      <c r="CO44" s="92">
-        <v>0</v>
-      </c>
-      <c r="CP44" s="91">
+      <c r="CO44" s="24">
+        <v>0</v>
+      </c>
+      <c r="CP44" s="23">
         <v>0.65</v>
       </c>
-      <c r="CQ44" s="92">
+      <c r="CQ44" s="24">
         <v>0.35</v>
       </c>
-      <c r="CR44" s="81">
+      <c r="CR44" s="17">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="CS44" s="80">
+      <c r="CS44" s="16">
         <v>0.72</v>
       </c>
-      <c r="CT44" s="79">
+      <c r="CT44" s="15">
         <v>0.28000000000000003</v>
       </c>
-      <c r="CU44" s="79">
-        <v>0</v>
-      </c>
-      <c r="CV44" s="82">
+      <c r="CU44" s="15">
+        <v>0</v>
+      </c>
+      <c r="CV44" s="18">
         <v>2540047</v>
       </c>
-      <c r="CW44" s="79">
+      <c r="CW44" s="15">
         <v>0.33</v>
       </c>
-      <c r="CX44" s="80">
+      <c r="CX44" s="16">
         <v>0.67</v>
       </c>
-      <c r="CY44" s="79">
-        <v>0</v>
-      </c>
-      <c r="CZ44" s="79">
+      <c r="CY44" s="15">
+        <v>0</v>
+      </c>
+      <c r="CZ44" s="15">
         <f>0.65*0.72*0.67</f>
         <v>0.31356000000000001</v>
       </c>
-      <c r="DA44" s="79" t="b">
+      <c r="DA44" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DB44" s="79" t="b">
+      <c r="DB44" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DC44" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DD44" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DE44" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DF44" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DG44" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DH44" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DI44" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DJ44" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DK44" s="79" t="b">
+      <c r="DC44" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DD44" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE44" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF44" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DG44" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DH44" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DI44" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ44" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DK44" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DL44" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DM44" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DN44" s="79" t="b">
+      <c r="DL44" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DM44" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DN44" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DO44" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DP44" s="79" t="b">
+      <c r="DO44" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DP44" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DQ44" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DR44" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DS44" s="79" t="b">
+      <c r="DQ44" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DR44" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DS44" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DT44" s="79" t="b">
+      <c r="DT44" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="3:124" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="CM45" s="79" t="s">
+      <c r="CM45" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="CN45" s="79">
+      <c r="CN45" s="15">
         <v>83</v>
       </c>
-      <c r="CO45" s="92">
-        <v>0</v>
-      </c>
-      <c r="CP45" s="92">
-        <v>0</v>
-      </c>
-      <c r="CQ45" s="91">
+      <c r="CO45" s="24">
+        <v>0</v>
+      </c>
+      <c r="CP45" s="24">
+        <v>0</v>
+      </c>
+      <c r="CQ45" s="23">
         <v>1</v>
       </c>
-      <c r="CR45" s="81">
+      <c r="CR45" s="17">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="CS45" s="79">
+      <c r="CS45" s="15">
         <v>0.32</v>
       </c>
-      <c r="CT45" s="80">
+      <c r="CT45" s="16">
         <v>0.68</v>
       </c>
-      <c r="CU45" s="79">
-        <v>0</v>
-      </c>
-      <c r="CV45" s="82">
+      <c r="CU45" s="15">
+        <v>0</v>
+      </c>
+      <c r="CV45" s="18">
         <v>191694</v>
       </c>
-      <c r="CW45" s="80">
+      <c r="CW45" s="16">
         <v>1</v>
       </c>
-      <c r="CX45" s="79">
-        <v>0</v>
-      </c>
-      <c r="CY45" s="79">
-        <v>0</v>
-      </c>
-      <c r="CZ45" s="79">
+      <c r="CX45" s="15">
+        <v>0</v>
+      </c>
+      <c r="CY45" s="15">
+        <v>0</v>
+      </c>
+      <c r="CZ45" s="15">
         <f>0.68</f>
         <v>0.68</v>
       </c>
-      <c r="DA45" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB45" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DC45" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DD45" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DE45" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DF45" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DG45" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DH45" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DI45" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DJ45" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DK45" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DL45" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DM45" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DN45" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DO45" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DP45" s="79" t="b">
+      <c r="DA45" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB45" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC45" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DD45" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE45" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF45" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DG45" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DH45" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DI45" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ45" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DK45" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DL45" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DM45" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DN45" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DO45" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DP45" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DQ45" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DR45" s="79" t="b">
+      <c r="DQ45" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DR45" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DS45" s="79" t="b">
+      <c r="DS45" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DT45" s="79" t="b">
+      <c r="DT45" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="3:124" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="CM46" s="93" t="s">
+      <c r="CM46" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="CN46" s="93"/>
-      <c r="CO46" s="93"/>
-      <c r="CP46" s="93"/>
-      <c r="CQ46" s="93"/>
-      <c r="CR46" s="93"/>
-      <c r="CS46" s="93"/>
-      <c r="CT46" s="93"/>
-      <c r="CU46" s="93"/>
-      <c r="CV46" s="93"/>
-      <c r="CW46" s="93"/>
-      <c r="CX46" s="93"/>
-      <c r="CY46" s="93"/>
+      <c r="CN46" s="32"/>
+      <c r="CO46" s="32"/>
+      <c r="CP46" s="32"/>
+      <c r="CQ46" s="32"/>
+      <c r="CR46" s="32"/>
+      <c r="CS46" s="32"/>
+      <c r="CT46" s="32"/>
+      <c r="CU46" s="32"/>
+      <c r="CV46" s="32"/>
+      <c r="CW46" s="32"/>
+      <c r="CX46" s="32"/>
+      <c r="CY46" s="32"/>
     </row>
     <row r="49" spans="126:139" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="DV49" s="88"/>
-      <c r="DW49" s="89"/>
-      <c r="DX49" s="90"/>
-      <c r="DY49" s="85" t="s">
+      <c r="DV49" s="36"/>
+      <c r="DW49" s="37"/>
+      <c r="DX49" s="38"/>
+      <c r="DY49" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="DZ49" s="85" t="s">
+      <c r="DZ49" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="EA49" s="85" t="s">
+      <c r="EA49" s="21" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="50" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="DV50" s="77" t="s">
+      <c r="DV50" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="DW50" s="86" t="s">
+      <c r="DW50" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="DX50" s="87" t="s">
+      <c r="DX50" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="DY50" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DZ50" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EA50" s="79" t="b">
+      <c r="DY50" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ50" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EA50" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="DV51" s="77"/>
-      <c r="DW51" s="86"/>
-      <c r="DX51" s="87" t="s">
+      <c r="DV51" s="33"/>
+      <c r="DW51" s="39"/>
+      <c r="DX51" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="DY51" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DZ51" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EA51" s="79" t="b">
+      <c r="DY51" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ51" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EA51" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="DV52" s="77"/>
-      <c r="DW52" s="86"/>
-      <c r="DX52" s="87" t="s">
+      <c r="DV52" s="33"/>
+      <c r="DW52" s="39"/>
+      <c r="DX52" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="DY52" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DZ52" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EA52" s="79" t="b">
+      <c r="DY52" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ52" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EA52" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="DV53" s="77"/>
-      <c r="DW53" s="86" t="s">
+      <c r="DV53" s="33"/>
+      <c r="DW53" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="DX53" s="87" t="s">
+      <c r="DX53" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="DY53" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DZ53" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EA53" s="79" t="b">
+      <c r="DY53" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ53" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EA53" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="DV54" s="77"/>
-      <c r="DW54" s="86"/>
-      <c r="DX54" s="87" t="s">
+      <c r="DV54" s="33"/>
+      <c r="DW54" s="39"/>
+      <c r="DX54" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="DY54" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DZ54" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EA54" s="79" t="b">
+      <c r="DY54" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ54" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EA54" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="DV55" s="77"/>
-      <c r="DW55" s="86"/>
-      <c r="DX55" s="87" t="s">
+      <c r="DV55" s="33"/>
+      <c r="DW55" s="39"/>
+      <c r="DX55" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="DY55" s="79" t="b">
+      <c r="DY55" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DZ55" s="79" t="b">
+      <c r="DZ55" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EA55" s="79" t="b">
+      <c r="EA55" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="DV56" s="77"/>
-      <c r="DW56" s="86" t="s">
+      <c r="DV56" s="33"/>
+      <c r="DW56" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="DX56" s="87" t="s">
+      <c r="DX56" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="DY56" s="79" t="b">
+      <c r="DY56" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="DZ56" s="79" t="b">
+      <c r="DZ56" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EA56" s="79" t="b">
+      <c r="EA56" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="DV57" s="77"/>
-      <c r="DW57" s="86"/>
-      <c r="DX57" s="87" t="s">
+      <c r="DV57" s="33"/>
+      <c r="DW57" s="39"/>
+      <c r="DX57" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="DY57" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DZ57" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EA57" s="79" t="b">
+      <c r="DY57" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ57" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EA57" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="DV58" s="77"/>
-      <c r="DW58" s="86"/>
-      <c r="DX58" s="87" t="s">
+      <c r="DV58" s="33"/>
+      <c r="DW58" s="39"/>
+      <c r="DX58" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="DY58" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="DZ58" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EA58" s="79" t="b">
+      <c r="DY58" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ58" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EA58" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="126:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="DV59" s="100"/>
-      <c r="DW59" s="101"/>
-      <c r="DX59" s="102"/>
-      <c r="DY59" s="94"/>
-      <c r="DZ59" s="94"/>
-      <c r="EA59" s="94"/>
+      <c r="DV59" s="26"/>
+      <c r="DW59" s="27"/>
+      <c r="DX59" s="28"/>
+      <c r="DY59" s="25"/>
+      <c r="DZ59" s="25"/>
+      <c r="EA59" s="25"/>
     </row>
     <row r="60" spans="126:139" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="EC60" s="95"/>
-      <c r="ED60" s="96"/>
-      <c r="EE60" s="84" t="s">
+      <c r="EC60" s="34"/>
+      <c r="ED60" s="35"/>
+      <c r="EE60" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="EF60" s="84" t="s">
+      <c r="EF60" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="EG60" s="84" t="s">
+      <c r="EG60" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="EH60" s="84" t="s">
+      <c r="EH60" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="EI60" s="84" t="s">
+      <c r="EI60" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" spans="126:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC61" s="77" t="s">
+      <c r="EC61" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="ED61" s="77"/>
-      <c r="EE61" s="79" t="b">
+      <c r="ED61" s="33"/>
+      <c r="EE61" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EF61" s="79" t="b">
+      <c r="EF61" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EG61" s="79" t="b">
+      <c r="EG61" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EH61" s="79" t="b">
+      <c r="EH61" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EI61" s="79" t="b">
+      <c r="EI61" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="126:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC62" s="77" t="s">
+      <c r="EC62" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="ED62" s="77"/>
-      <c r="EE62" s="79" t="b">
+      <c r="ED62" s="33"/>
+      <c r="EE62" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EF62" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG62" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EH62" s="79" t="b">
+      <c r="EF62" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG62" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EH62" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EI62" s="79" t="b">
+      <c r="EI62" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="126:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC63" s="77" t="s">
+      <c r="EC63" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="ED63" s="77"/>
-      <c r="EE63" s="79" t="b">
+      <c r="ED63" s="33"/>
+      <c r="EE63" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EF63" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG63" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EH63" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI63" s="79" t="b">
+      <c r="EF63" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG63" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EH63" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI63" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="126:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC64" s="77" t="s">
+      <c r="EC64" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="ED64" s="77"/>
-      <c r="EE64" s="79" t="b">
+      <c r="ED64" s="33"/>
+      <c r="EE64" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EF64" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG64" s="79" t="b">
+      <c r="EF64" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG64" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EH64" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI64" s="79" t="b">
+      <c r="EH64" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI64" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC65" s="77" t="s">
+      <c r="EC65" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="ED65" s="77"/>
-      <c r="EE65" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EF65" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG65" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EH65" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI65" s="79" t="b">
+      <c r="ED65" s="33"/>
+      <c r="EE65" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EF65" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG65" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EH65" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI65" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC66" s="77" t="s">
+      <c r="EC66" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="ED66" s="77"/>
-      <c r="EE66" s="79" t="b">
+      <c r="ED66" s="33"/>
+      <c r="EE66" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EF66" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG66" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EH66" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI66" s="79" t="b">
+      <c r="EF66" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG66" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EH66" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI66" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC67" s="77" t="s">
+      <c r="EC67" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="ED67" s="77"/>
-      <c r="EE67" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EF67" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG67" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EH67" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI67" s="79" t="b">
+      <c r="ED67" s="33"/>
+      <c r="EE67" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EF67" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG67" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EH67" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI67" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC68" s="77" t="s">
+      <c r="EC68" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="ED68" s="77"/>
-      <c r="EE68" s="79" t="b">
+      <c r="ED68" s="33"/>
+      <c r="EE68" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EF68" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG68" s="79" t="b">
+      <c r="EF68" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG68" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EH68" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI68" s="79" t="b">
+      <c r="EH68" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI68" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC69" s="77" t="s">
+      <c r="EC69" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="ED69" s="77"/>
-      <c r="EE69" s="79" t="b">
+      <c r="ED69" s="33"/>
+      <c r="EE69" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EF69" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG69" s="79" t="b">
+      <c r="EF69" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG69" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EH69" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI69" s="79" t="b">
+      <c r="EH69" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI69" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC70" s="77" t="s">
+      <c r="EC70" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="ED70" s="77"/>
-      <c r="EE70" s="79" t="b">
+      <c r="ED70" s="33"/>
+      <c r="EE70" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EF70" s="79" t="b">
+      <c r="EF70" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EG70" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EH70" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI70" s="79" t="b">
+      <c r="EG70" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EH70" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI70" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC71" s="77" t="s">
+      <c r="EC71" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="ED71" s="77"/>
-      <c r="EE71" s="79" t="b">
+      <c r="ED71" s="33"/>
+      <c r="EE71" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EF71" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG71" s="79" t="b">
+      <c r="EF71" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG71" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EH71" s="79" t="b">
+      <c r="EH71" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EI71" s="79" t="b">
+      <c r="EI71" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC72" s="77" t="s">
+      <c r="EC72" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="ED72" s="77"/>
-      <c r="EE72" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EF72" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG72" s="79" t="b">
+      <c r="ED72" s="33"/>
+      <c r="EE72" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EF72" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG72" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EH72" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI72" s="79" t="b">
+      <c r="EH72" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI72" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC73" s="77" t="s">
+      <c r="EC73" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="ED73" s="77"/>
-      <c r="EE73" s="79" t="b">
+      <c r="ED73" s="33"/>
+      <c r="EE73" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EF73" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG73" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EH73" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI73" s="79" t="b">
+      <c r="EF73" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG73" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EH73" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI73" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC74" s="77" t="s">
+      <c r="EC74" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="ED74" s="77"/>
-      <c r="EE74" s="79" t="b">
+      <c r="ED74" s="33"/>
+      <c r="EE74" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EF74" s="79" t="b">
+      <c r="EF74" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EG74" s="79" t="b">
+      <c r="EG74" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EH74" s="79" t="b">
+      <c r="EH74" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EI74" s="79" t="b">
+      <c r="EI74" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC75" s="77" t="s">
+      <c r="EC75" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="ED75" s="77"/>
-      <c r="EE75" s="79" t="b">
+      <c r="ED75" s="33"/>
+      <c r="EE75" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EF75" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG75" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EH75" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI75" s="79" t="b">
+      <c r="EF75" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG75" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EH75" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI75" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC76" s="77" t="s">
+      <c r="EC76" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="ED76" s="77"/>
-      <c r="EE76" s="79" t="b">
+      <c r="ED76" s="33"/>
+      <c r="EE76" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EF76" s="79" t="b">
+      <c r="EF76" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EG76" s="79" t="b">
+      <c r="EG76" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EH76" s="79" t="b">
+      <c r="EH76" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EI76" s="79" t="b">
+      <c r="EI76" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC77" s="77" t="s">
+      <c r="EC77" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="ED77" s="77"/>
-      <c r="EE77" s="79" t="b">
+      <c r="ED77" s="33"/>
+      <c r="EE77" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EF77" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG77" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EH77" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI77" s="79" t="b">
+      <c r="EF77" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG77" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EH77" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI77" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC78" s="77" t="s">
+      <c r="EC78" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="ED78" s="77"/>
-      <c r="EE78" s="79" t="b">
+      <c r="ED78" s="33"/>
+      <c r="EE78" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EF78" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG78" s="79" t="b">
+      <c r="EF78" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG78" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EH78" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI78" s="79" t="b">
+      <c r="EH78" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI78" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC79" s="77" t="s">
+      <c r="EC79" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="ED79" s="77"/>
-      <c r="EE79" s="79" t="b">
+      <c r="ED79" s="33"/>
+      <c r="EE79" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EF79" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG79" s="79" t="b">
+      <c r="EF79" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG79" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EH79" s="79" t="b">
+      <c r="EH79" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EI79" s="79" t="b">
+      <c r="EI79" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC80" s="77" t="s">
+      <c r="EC80" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="ED80" s="77"/>
-      <c r="EE80" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EF80" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG80" s="79" t="b">
+      <c r="ED80" s="33"/>
+      <c r="EE80" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EF80" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EG80" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="EH80" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI80" s="79" t="b">
+      <c r="EH80" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EI80" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="133:139" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="EC81" s="97" t="s">
+      <c r="EC81" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="ED81" s="98"/>
-      <c r="EE81" s="98"/>
-      <c r="EF81" s="98"/>
-      <c r="EG81" s="98"/>
-      <c r="EH81" s="98"/>
-      <c r="EI81" s="99"/>
+      <c r="ED81" s="30"/>
+      <c r="EE81" s="30"/>
+      <c r="EF81" s="30"/>
+      <c r="EG81" s="30"/>
+      <c r="EH81" s="30"/>
+      <c r="EI81" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="162">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CC6:CI6"/>
+    <mergeCell ref="CC2:CI4"/>
+    <mergeCell ref="CC7:CI7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="BX8:CB8"/>
+    <mergeCell ref="BX11:CB11"/>
+    <mergeCell ref="BX13:CB13"/>
+    <mergeCell ref="BX5:CB5"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="BX6:CB6"/>
+    <mergeCell ref="BX7:CB7"/>
+    <mergeCell ref="BX17:CB17"/>
+    <mergeCell ref="BX20:CB20"/>
+    <mergeCell ref="BX19:CB19"/>
+    <mergeCell ref="F4:S4"/>
+    <mergeCell ref="T4:AG4"/>
+    <mergeCell ref="AH4:AU4"/>
+    <mergeCell ref="BX2:CB4"/>
+    <mergeCell ref="AH2:AU2"/>
+    <mergeCell ref="F2:S2"/>
+    <mergeCell ref="T2:AG2"/>
+    <mergeCell ref="AV2:BI2"/>
+    <mergeCell ref="AV4:BI4"/>
+    <mergeCell ref="BJ2:BW2"/>
+    <mergeCell ref="BJ4:BW4"/>
+    <mergeCell ref="T25:AG25"/>
+    <mergeCell ref="T31:AG31"/>
+    <mergeCell ref="T30:AG30"/>
+    <mergeCell ref="T29:AG29"/>
+    <mergeCell ref="T27:AG27"/>
+    <mergeCell ref="F25:S25"/>
+    <mergeCell ref="F26:S26"/>
+    <mergeCell ref="F27:S27"/>
+    <mergeCell ref="F29:S29"/>
+    <mergeCell ref="F30:S30"/>
+    <mergeCell ref="F28:S28"/>
+    <mergeCell ref="T28:AG28"/>
+    <mergeCell ref="CC8:CI8"/>
+    <mergeCell ref="CC9:CI9"/>
+    <mergeCell ref="CC10:CI10"/>
+    <mergeCell ref="CC11:CI11"/>
+    <mergeCell ref="CC12:CI12"/>
+    <mergeCell ref="AH25:AU25"/>
+    <mergeCell ref="BX9:CB9"/>
+    <mergeCell ref="BX10:CB10"/>
+    <mergeCell ref="BX12:CB12"/>
+    <mergeCell ref="BX14:CB14"/>
+    <mergeCell ref="BX15:CB15"/>
+    <mergeCell ref="BX16:CB16"/>
+    <mergeCell ref="BX18:CB18"/>
+    <mergeCell ref="BX21:CB21"/>
+    <mergeCell ref="BX22:CB22"/>
+    <mergeCell ref="BX23:CB23"/>
+    <mergeCell ref="BX24:CB24"/>
+    <mergeCell ref="AV25:BI25"/>
+    <mergeCell ref="BJ25:BW25"/>
+    <mergeCell ref="CC23:CI23"/>
+    <mergeCell ref="CC24:CI24"/>
+    <mergeCell ref="CC18:CI18"/>
+    <mergeCell ref="CC19:CI19"/>
+    <mergeCell ref="CC20:CI20"/>
+    <mergeCell ref="CC21:CI21"/>
+    <mergeCell ref="CC22:CI22"/>
+    <mergeCell ref="CC13:CI13"/>
+    <mergeCell ref="CC14:CI14"/>
+    <mergeCell ref="CC15:CI15"/>
+    <mergeCell ref="CC16:CI16"/>
+    <mergeCell ref="CC17:CI17"/>
+    <mergeCell ref="BJ26:BW26"/>
+    <mergeCell ref="BJ27:BW27"/>
+    <mergeCell ref="BJ28:BW28"/>
+    <mergeCell ref="BJ29:BW29"/>
+    <mergeCell ref="BJ30:BW30"/>
+    <mergeCell ref="AV31:BI31"/>
+    <mergeCell ref="C33:Q39"/>
+    <mergeCell ref="AV26:BI26"/>
+    <mergeCell ref="AV27:BI27"/>
+    <mergeCell ref="AV28:BI28"/>
+    <mergeCell ref="AV29:BI29"/>
+    <mergeCell ref="AV30:BI30"/>
+    <mergeCell ref="AH31:AU31"/>
+    <mergeCell ref="AH30:AU30"/>
+    <mergeCell ref="AH29:AU29"/>
+    <mergeCell ref="AH27:AU27"/>
+    <mergeCell ref="AH26:AU26"/>
+    <mergeCell ref="F31:S31"/>
+    <mergeCell ref="T26:AG26"/>
+    <mergeCell ref="C25:E31"/>
+    <mergeCell ref="AH28:AU28"/>
+    <mergeCell ref="CZ39:CZ40"/>
+    <mergeCell ref="DC39:DC40"/>
+    <mergeCell ref="DD39:DD40"/>
+    <mergeCell ref="DF39:DF40"/>
+    <mergeCell ref="DG39:DG40"/>
+    <mergeCell ref="BJ31:BW31"/>
+    <mergeCell ref="CO39:CQ39"/>
+    <mergeCell ref="CS39:CU39"/>
+    <mergeCell ref="CW39:CY39"/>
+    <mergeCell ref="DA39:DA40"/>
+    <mergeCell ref="CN39:CN40"/>
+    <mergeCell ref="CR39:CR40"/>
+    <mergeCell ref="CV39:CV40"/>
+    <mergeCell ref="CM39:CM40"/>
+    <mergeCell ref="EC70:ED70"/>
+    <mergeCell ref="DW50:DW52"/>
+    <mergeCell ref="DW53:DW55"/>
+    <mergeCell ref="DW56:DW58"/>
+    <mergeCell ref="DB39:DB40"/>
+    <mergeCell ref="DE39:DE40"/>
+    <mergeCell ref="DH39:DH40"/>
+    <mergeCell ref="DJ39:DJ40"/>
+    <mergeCell ref="DM39:DM40"/>
+    <mergeCell ref="DO39:DO40"/>
+    <mergeCell ref="DQ39:DQ40"/>
+    <mergeCell ref="DS39:DS40"/>
+    <mergeCell ref="DR39:DR40"/>
+    <mergeCell ref="DT39:DT40"/>
+    <mergeCell ref="DI39:DI40"/>
+    <mergeCell ref="DK39:DK40"/>
+    <mergeCell ref="DL39:DL40"/>
+    <mergeCell ref="DN39:DN40"/>
+    <mergeCell ref="DP39:DP40"/>
     <mergeCell ref="EC81:EI81"/>
     <mergeCell ref="CM46:CY46"/>
     <mergeCell ref="EC76:ED76"/>
@@ -12955,203 +12953,65 @@
     <mergeCell ref="EC67:ED67"/>
     <mergeCell ref="EC68:ED68"/>
     <mergeCell ref="EC69:ED69"/>
-    <mergeCell ref="EC70:ED70"/>
-    <mergeCell ref="DW50:DW52"/>
-    <mergeCell ref="DW53:DW55"/>
-    <mergeCell ref="DW56:DW58"/>
-    <mergeCell ref="DB39:DB40"/>
-    <mergeCell ref="DE39:DE40"/>
-    <mergeCell ref="DH39:DH40"/>
-    <mergeCell ref="DJ39:DJ40"/>
-    <mergeCell ref="DM39:DM40"/>
-    <mergeCell ref="DO39:DO40"/>
-    <mergeCell ref="DQ39:DQ40"/>
-    <mergeCell ref="DS39:DS40"/>
-    <mergeCell ref="DR39:DR40"/>
-    <mergeCell ref="DT39:DT40"/>
-    <mergeCell ref="DI39:DI40"/>
-    <mergeCell ref="DK39:DK40"/>
-    <mergeCell ref="DL39:DL40"/>
-    <mergeCell ref="DN39:DN40"/>
-    <mergeCell ref="DP39:DP40"/>
-    <mergeCell ref="CZ39:CZ40"/>
-    <mergeCell ref="DC39:DC40"/>
-    <mergeCell ref="DD39:DD40"/>
-    <mergeCell ref="DF39:DF40"/>
-    <mergeCell ref="DG39:DG40"/>
-    <mergeCell ref="BJ31:BW31"/>
-    <mergeCell ref="CO39:CQ39"/>
-    <mergeCell ref="CS39:CU39"/>
-    <mergeCell ref="CW39:CY39"/>
-    <mergeCell ref="DA39:DA40"/>
-    <mergeCell ref="CN39:CN40"/>
-    <mergeCell ref="CR39:CR40"/>
-    <mergeCell ref="CV39:CV40"/>
-    <mergeCell ref="CM39:CM40"/>
-    <mergeCell ref="BJ26:BW26"/>
-    <mergeCell ref="BJ27:BW27"/>
-    <mergeCell ref="BJ28:BW28"/>
-    <mergeCell ref="BJ29:BW29"/>
-    <mergeCell ref="BJ30:BW30"/>
-    <mergeCell ref="AV31:BI31"/>
-    <mergeCell ref="C33:Q39"/>
-    <mergeCell ref="AV26:BI26"/>
-    <mergeCell ref="AV27:BI27"/>
-    <mergeCell ref="AV28:BI28"/>
-    <mergeCell ref="AV29:BI29"/>
-    <mergeCell ref="AV30:BI30"/>
-    <mergeCell ref="AH31:AU31"/>
-    <mergeCell ref="AH30:AU30"/>
-    <mergeCell ref="AH29:AU29"/>
-    <mergeCell ref="AH27:AU27"/>
-    <mergeCell ref="AH26:AU26"/>
-    <mergeCell ref="F31:S31"/>
-    <mergeCell ref="T26:AG26"/>
-    <mergeCell ref="CC23:CI23"/>
-    <mergeCell ref="CC24:CI24"/>
-    <mergeCell ref="CC18:CI18"/>
-    <mergeCell ref="CC19:CI19"/>
-    <mergeCell ref="CC20:CI20"/>
-    <mergeCell ref="CC21:CI21"/>
-    <mergeCell ref="CC22:CI22"/>
-    <mergeCell ref="CC13:CI13"/>
-    <mergeCell ref="CC14:CI14"/>
-    <mergeCell ref="CC15:CI15"/>
-    <mergeCell ref="CC16:CI16"/>
-    <mergeCell ref="CC17:CI17"/>
-    <mergeCell ref="CC8:CI8"/>
-    <mergeCell ref="CC9:CI9"/>
-    <mergeCell ref="CC10:CI10"/>
-    <mergeCell ref="CC11:CI11"/>
-    <mergeCell ref="CC12:CI12"/>
-    <mergeCell ref="AH25:AU25"/>
-    <mergeCell ref="BX9:CB9"/>
-    <mergeCell ref="BX10:CB10"/>
-    <mergeCell ref="BX12:CB12"/>
-    <mergeCell ref="BX14:CB14"/>
-    <mergeCell ref="BX15:CB15"/>
-    <mergeCell ref="BX16:CB16"/>
-    <mergeCell ref="BX18:CB18"/>
-    <mergeCell ref="BX21:CB21"/>
-    <mergeCell ref="BX22:CB22"/>
-    <mergeCell ref="BX23:CB23"/>
-    <mergeCell ref="BX24:CB24"/>
-    <mergeCell ref="AV25:BI25"/>
-    <mergeCell ref="BJ25:BW25"/>
-    <mergeCell ref="T25:AG25"/>
-    <mergeCell ref="T31:AG31"/>
-    <mergeCell ref="T30:AG30"/>
-    <mergeCell ref="T29:AG29"/>
-    <mergeCell ref="T27:AG27"/>
-    <mergeCell ref="F25:S25"/>
-    <mergeCell ref="F26:S26"/>
-    <mergeCell ref="F27:S27"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="F30:S30"/>
-    <mergeCell ref="F4:S4"/>
-    <mergeCell ref="T4:AG4"/>
-    <mergeCell ref="AH4:AU4"/>
-    <mergeCell ref="BX2:CB4"/>
-    <mergeCell ref="AH2:AU2"/>
-    <mergeCell ref="F2:S2"/>
-    <mergeCell ref="T2:AG2"/>
-    <mergeCell ref="AV2:BI2"/>
-    <mergeCell ref="AV4:BI4"/>
-    <mergeCell ref="BJ2:BW2"/>
-    <mergeCell ref="BJ4:BW4"/>
-    <mergeCell ref="BX5:CB5"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="BX6:CB6"/>
-    <mergeCell ref="BX7:CB7"/>
-    <mergeCell ref="BX17:CB17"/>
-    <mergeCell ref="BX20:CB20"/>
-    <mergeCell ref="BX19:CB19"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CC6:CI6"/>
-    <mergeCell ref="CC2:CI4"/>
-    <mergeCell ref="C25:E31"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="T28:AG28"/>
-    <mergeCell ref="AH28:AU28"/>
-    <mergeCell ref="CC7:CI7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="BX8:CB8"/>
-    <mergeCell ref="BX11:CB11"/>
-    <mergeCell ref="BX13:CB13"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="S5:S24">
-    <cfRule type="cellIs" dxfId="26" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThan">
       <formula>1.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AG24">
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="greaterThan">
       <formula>1.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU5:AU24">
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThan">
       <formula>1.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI5:BI24">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
       <formula>1.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AF24">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:R24">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT5:AT24">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH5:BH24">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW5:BW24">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>1.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV5:BV24">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>0.98</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DA41:DT45">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",DA41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EE61:EI80">
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",EE61)))</formula>
     </cfRule>
   </conditionalFormatting>
